--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33F762-F21F-4B20-9C2F-EF3EEC8EEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70D81A-1804-4170-92A7-05EDF153CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To_Do" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <r>
       <t>Sprawdzenie spójności danych</t>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Zweryfikować logiczną spójność wartości, np. sprawdzić, czy piętro nie przekracza całkowitej liczby kondygnacji, rok budowy nie jest późniejszy niż bieżący rok, a liczba pokoi nie jest ujemna lub zerowa: za pomocą library(validate)</t>
+  </si>
+  <si>
+    <t>Komentarz</t>
+  </si>
+  <si>
+    <t>Usunięte - pokrywa się z punktem 4 w Hipotezach (rok budowy)</t>
+  </si>
+  <si>
+    <t>Zmiana nazwy chunk, usunięcie kategorii wieku mieszkania.</t>
+  </si>
+  <si>
+    <t>Sprawdzić z dziewczynami na spotkaniu</t>
   </si>
 </sst>
 </file>
@@ -322,7 +334,10 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -354,13 +369,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -435,14 +450,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CAF075B-1E8A-4A21-A700-F2276D89C34D}" name="Tabela1" displayName="Tabela1" ref="A1:E36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
-  <autoFilter ref="A1:E36" xr:uid="{9CAF075B-1E8A-4A21-A700-F2276D89C34D}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A0752BE9-2E16-4D4A-BF52-D2AB4C4AC727}" name="Numer" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{333BDF78-DAC8-496E-90BB-8077CFED2086}" name="Opis" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4BC94FA0-9C0C-41D0-BF83-0F6A9FC9F584}" name="Osoba" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00735EEA-43B5-49C3-8B2E-7B2F3F58CD58}" name="Do kiedy?" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5B1A65D0-D223-4C13-AA2E-03CDDDEA8A34}" name="Status" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CAF075B-1E8A-4A21-A700-F2276D89C34D}" name="Tabela1" displayName="Tabela1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:F36" xr:uid="{9CAF075B-1E8A-4A21-A700-F2276D89C34D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A0752BE9-2E16-4D4A-BF52-D2AB4C4AC727}" name="Numer" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{333BDF78-DAC8-496E-90BB-8077CFED2086}" name="Opis" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4BC94FA0-9C0C-41D0-BF83-0F6A9FC9F584}" name="Osoba" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00735EEA-43B5-49C3-8B2E-7B2F3F58CD58}" name="Do kiedy?" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5B1A65D0-D223-4C13-AA2E-03CDDDEA8A34}" name="Status" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4E76C389-1B5D-46CC-BE52-1FD6E2F8EF8A}" name="Komentarz" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,7 +733,7 @@
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +743,7 @@
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -745,6 +762,9 @@
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -760,6 +780,7 @@
         <v>45644</v>
       </c>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
@@ -777,7 +798,12 @@
       <c r="D3" s="6">
         <v>45644</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
@@ -795,7 +821,10 @@
       <c r="D4" s="6">
         <v>45644</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="N4" s="3" t="s">
         <v>15</v>
       </c>
@@ -813,7 +842,12 @@
       <c r="D5" s="6">
         <v>45644</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -829,6 +863,7 @@
         <v>45644</v>
       </c>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -844,6 +879,7 @@
         <v>45644</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -859,6 +895,7 @@
         <v>45644</v>
       </c>
       <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -874,6 +911,7 @@
         <v>45644</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -889,6 +927,7 @@
         <v>45644</v>
       </c>
       <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -903,7 +942,12 @@
       <c r="D11" s="6">
         <v>45644</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -913,6 +957,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -922,6 +967,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
@@ -934,6 +980,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="N14" s="3" t="s">
         <v>18</v>
       </c>
@@ -946,6 +993,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="N15" s="3" t="s">
         <v>19</v>
       </c>
@@ -958,6 +1006,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="N16" s="3" t="s">
         <v>20</v>
       </c>
@@ -970,6 +1019,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="N17" s="3" t="s">
         <v>21</v>
       </c>
@@ -982,6 +1032,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="N18" s="3" t="s">
         <v>22</v>
       </c>
@@ -994,6 +1045,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1003,6 +1055,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1012,6 +1065,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1021,6 +1075,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1030,6 +1085,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1039,6 +1095,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1048,6 +1105,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1057,6 +1115,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1066,6 +1125,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1075,6 +1135,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1084,6 +1145,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1093,6 +1155,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1102,6 +1165,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1111,8 +1175,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1120,8 +1185,9 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1129,8 +1195,9 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1138,8 +1205,9 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1147,74 +1215,75 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
@@ -3556,13 +3625,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C623">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Piotr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Klaudia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Iza"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70D81A-1804-4170-92A7-05EDF153CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ED128-71B7-4A1A-B9E3-D7D37E77796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1500" windowWidth="27825" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To_Do" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{8B5F0258-3759-4AA5-A2C5-26971FF4B63D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Podział walidacji na 2 części - wstępna przed wranglingiem
+Druga - w celu sprawdzenia wyniku z data wrangling
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <r>
       <t>Sprawdzenie spójności danych</t>
@@ -246,6 +262,27 @@
   </si>
   <si>
     <t>Sprawdzić z dziewczynami na spotkaniu</t>
+  </si>
+  <si>
+    <t>Test Grubbsa - usunięty. Zastąpiony testem Z-score i skośnością.</t>
+  </si>
+  <si>
+    <t>Refki do wykresów box-plot. Przeniesienie do wykresu z opisu</t>
+  </si>
+  <si>
+    <t>Weryfikacja wielkosci nagłówków</t>
+  </si>
+  <si>
+    <t>Hist - dodanie rozkładu normalnego</t>
+  </si>
+  <si>
+    <t>Wstep, po co sprawdzamy, czym się charakteryzuja i wypisac jakie my mamy</t>
+  </si>
+  <si>
+    <t>Czemu to sprawdzamy. Jak to sprawdzamy, co nam to dało.</t>
+  </si>
+  <si>
+    <t>Hist - opisanie wykresow i rozkalu normalnego</t>
   </si>
 </sst>
 </file>
@@ -336,9 +373,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF9999FF"/>
@@ -358,6 +392,9 @@
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -458,7 +495,7 @@
     <tableColumn id="3" xr3:uid="{4BC94FA0-9C0C-41D0-BF83-0F6A9FC9F584}" name="Osoba" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00735EEA-43B5-49C3-8B2E-7B2F3F58CD58}" name="Do kiedy?" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{5B1A65D0-D223-4C13-AA2E-03CDDDEA8A34}" name="Status" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4E76C389-1B5D-46CC-BE52-1FD6E2F8EF8A}" name="Komentarz" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4E76C389-1B5D-46CC-BE52-1FD6E2F8EF8A}" name="Komentarz" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,8 +769,8 @@
   </sheetPr>
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +780,7 @@
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -779,8 +816,12 @@
       <c r="D2" s="6">
         <v>45644</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
@@ -862,7 +903,9 @@
       <c r="D6" s="6">
         <v>45644</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -878,7 +921,9 @@
       <c r="D7" s="6">
         <v>45644</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -894,7 +939,9 @@
       <c r="D8" s="6">
         <v>45644</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -910,8 +957,12 @@
       <c r="D9" s="6">
         <v>45644</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -926,8 +977,12 @@
       <c r="D10" s="6">
         <v>45644</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -943,7 +998,7 @@
         <v>45644</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>38</v>
@@ -953,20 +1008,36 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="N13" s="3" t="s">
         <v>17</v>
@@ -976,10 +1047,18 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="N14" s="3" t="s">
         <v>18</v>
@@ -989,10 +1068,18 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="N15" s="3" t="s">
         <v>19</v>
@@ -3625,13 +3712,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C623">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Piotr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Klaudia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Iza"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ED128-71B7-4A1A-B9E3-D7D37E77796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D51608-B8A7-45E1-A6B0-B7CC10A7A2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1500" windowWidth="27825" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28650" yWindow="1620" windowWidth="27825" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To_Do" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <r>
       <t>Sprawdzenie spójności danych</t>
@@ -282,7 +282,10 @@
     <t>Czemu to sprawdzamy. Jak to sprawdzamy, co nam to dało.</t>
   </si>
   <si>
-    <t>Hist - opisanie wykresow i rozkalu normalnego</t>
+    <t>Hist - opisanie wykresow i rozkladu normalnego</t>
+  </si>
+  <si>
+    <t>Zrobione dla histogramów</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,9 +1021,11 @@
         <v>45644</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1057,7 +1062,7 @@
         <v>45644</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4"/>
       <c r="N14" s="3" t="s">
@@ -1078,7 +1083,7 @@
         <v>45644</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4"/>
       <c r="N15" s="3" t="s">

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDF415-DA41-466B-8EEB-401DDDBF515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9073F80-93E3-422F-BD6F-0C5871B63D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Numer</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Opis czym jest data wrangling</t>
+  </si>
+  <si>
+    <t>Brudne dane: czym są, na co wpływają</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2453,8 +2456,12 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="13"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9073F80-93E3-422F-BD6F-0C5871B63D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A4D9AA-3296-4E42-B38F-4902A554FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Numer</t>
   </si>
@@ -328,6 +328,27 @@
   </si>
   <si>
     <t>Brudne dane: czym są, na co wpływają</t>
+  </si>
+  <si>
+    <t>walidacja_wstępna_danych - sprawdzić czy inny wykres będzie bardziej pasował shrek też do wymiany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walidacja kontrola danych - od wiersza 1067 </t>
+  </si>
+  <si>
+    <t>Woj.- dać punkty zamiast pogrubień nagłówków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udogodnienia - wykres typu boxplot </t>
+  </si>
+  <si>
+    <t>Interpretacja boxplot</t>
+  </si>
+  <si>
+    <t>Granice administracyjne dzielnic (Gdańsk, Warszawa, najtańsze)</t>
+  </si>
+  <si>
+    <t>Inwestycje - repo, word, przesłac link</t>
   </si>
 </sst>
 </file>
@@ -1844,9 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2478,8 +2497,12 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="13"/>
@@ -2496,8 +2519,12 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="13"/>
@@ -2514,8 +2541,12 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="13"/>
@@ -2532,8 +2563,12 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="13"/>
@@ -2550,8 +2585,12 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="13"/>
@@ -2568,8 +2607,12 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="13"/>
@@ -2586,8 +2629,12 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="13"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A4D9AA-3296-4E42-B38F-4902A554FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42DEDC-D926-48F6-9540-82B9B172F97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To_Do" sheetId="2" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Numer</t>
   </si>
@@ -350,6 +350,9 @@
   <si>
     <t>Inwestycje - repo, word, przesłac link</t>
   </si>
+  <si>
+    <t>Zrobiłem do Gdańska :)</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,7 +2205,7 @@
         <v>45644</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>28</v>
@@ -2283,7 +2289,7 @@
         <v>45644</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="5"/>
@@ -2388,7 +2394,9 @@
       <c r="D19" s="10">
         <v>45646</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
@@ -2481,8 +2489,12 @@
       <c r="C23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="10">
+        <v>45660</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -2503,7 +2515,9 @@
       <c r="C24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="10">
+        <v>45660</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="13"/>
       <c r="G24" s="5"/>
@@ -2525,7 +2539,9 @@
       <c r="C25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="10">
+        <v>45660</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="13"/>
       <c r="G25" s="5"/>
@@ -2547,8 +2563,12 @@
       <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="10">
+        <v>45660</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="13"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
@@ -2569,7 +2589,9 @@
       <c r="C27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="10">
+        <v>45660</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="13"/>
       <c r="G27" s="5"/>
@@ -2591,7 +2613,9 @@
       <c r="C28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="10">
+        <v>45660</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="13"/>
       <c r="G28" s="5"/>
@@ -2613,9 +2637,15 @@
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="10">
+        <v>45660</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2635,8 +2665,12 @@
       <c r="C30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="10">
+        <v>45646</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia\Desktop\projekty GIT\Cenowe_Rozkminy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE659137-9929-40D0-8A47-9CFFC1F7DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Oem</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -284,6 +285,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Sprawdzenie spójności danych</t>
     </r>
@@ -292,6 +295,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>:</t>
     </r>
@@ -312,6 +317,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Feature Engineering</t>
     </r>
@@ -320,6 +327,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>:</t>
     </r>
@@ -337,6 +346,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>Dokumentacja zmian</t>
     </r>
@@ -345,6 +356,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>:</t>
     </r>
@@ -367,12 +380,30 @@
   <si>
     <t xml:space="preserve">Walidacja kontrolna danych - od wiersza 1067 </t>
   </si>
+  <si>
+    <t>Słowa kluczowe pobrubić a (nazwy kolumn) zaznaczyć na "szaro"</t>
+  </si>
+  <si>
+    <t>Druga walidacja - dodać nagłówek, opis czemu wykonujemy, co robimy, co nam da? Kim jesteśmy dokąd zmierzamy</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy jest bardziej 'sympatyczna' paczka do walidacji :)</t>
+  </si>
+  <si>
+    <t>Wnioskowanie (testy statystyczne) - jakie chcemy przeprowadzić dla projektu</t>
+  </si>
+  <si>
+    <t>All, T-studenta, Anova, inne</t>
+  </si>
+  <si>
+    <t>Średni dochód w miastach (6) i wpływ na cenę mieszkania</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,28 +413,38 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -415,6 +456,15 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="6">
@@ -676,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,7 +739,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,68 +749,72 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -888,15 +942,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1"/>
+        <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1995,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -2009,11 +2067,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2079,20 +2137,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do"/>
-    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24"/>
-    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots"/>
+    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2925,7 +2983,9 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -2943,7 +3003,9 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -2961,7 +3023,9 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -2979,11 +3043,19 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
+      <c r="D34" s="14">
+        <v>45659</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -2997,7 +3069,9 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -9458,10 +9532,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Iza,Klaudia,Piotr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Nowe,W trakcie,Blokowane/Wstrzymane,Do weryfikacji/Testowane,Zakończone,Anulowane"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9475,19 +9549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="8.85546875" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="10"/>
@@ -9503,7 +9577,7 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="10"/>
@@ -9512,7 +9586,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="10"/>
@@ -9521,7 +9595,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="10"/>
@@ -9537,7 +9611,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="10"/>
@@ -9553,7 +9627,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="10"/>
@@ -9562,7 +9636,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="10"/>
@@ -9578,7 +9652,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="10"/>
@@ -9594,7 +9668,7 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="10"/>
@@ -9603,7 +9677,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="10"/>
@@ -9612,7 +9686,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="10"/>
@@ -9630,436 +9704,436 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="13" width="10" style="29" customWidth="1"/>
-    <col min="14" max="16384" width="10" style="29"/>
+    <col min="1" max="13" width="10" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia\Desktop\projekty GIT\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE659137-9929-40D0-8A47-9CFFC1F7DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Oem</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -402,7 +401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -805,16 +804,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -945,7 +944,7 @@
         <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -2067,11 +2066,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2137,20 +2136,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do"/>
+    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24"/>
+    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2914,7 +2913,9 @@
       <c r="D28" s="14">
         <v>45660</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -2983,7 +2984,7 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="19"/>
@@ -3003,7 +3004,7 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="19"/>
@@ -3023,7 +3024,7 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="19"/>
@@ -3043,7 +3044,7 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="19"/>
@@ -3053,7 +3054,7 @@
       <c r="E34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="38" t="s">
         <v>77</v>
       </c>
       <c r="G34" s="9"/>
@@ -3069,7 +3070,7 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="19"/>
@@ -9532,10 +9533,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437">
       <formula1>"Iza,Klaudia,Piotr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318">
       <formula1>"Nowe,W trakcie,Blokowane/Wstrzymane,Do weryfikacji/Testowane,Zakończone,Anulowane"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9549,7 +9550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9704,7 +9705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia\Desktop\projekty GIT\Cenowe_Rozkminy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2F26AF-4BFB-411E-B397-D284EE6E2873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Oem</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -395,13 +396,25 @@
     <t>All, T-studenta, Anova, inne</t>
   </si>
   <si>
-    <t>Średni dochód w miastach (6) i wpływ na cenę mieszkania</t>
+    <t>Rozbić tabelę z legendą dzielnic na 2</t>
+  </si>
+  <si>
+    <t>Zapomniałem o tym i zrobiłem</t>
+  </si>
+  <si>
+    <t>Dodać GUS - Bazę danych lokalnych do źródeł i pliczek z wynagrodzeniami</t>
+  </si>
+  <si>
+    <t>Średni dochód w miastach (6)</t>
+  </si>
+  <si>
+    <t>Średnie wynagrodzenie a cena mieszkania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -724,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -775,14 +788,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,6 +821,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -944,7 +963,7 @@
         <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -2066,11 +2085,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2136,20 +2155,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do"/>
-    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24"/>
-    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots"/>
+    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2913,10 +2932,10 @@
       <c r="D28" s="14">
         <v>45660</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -2984,10 +3003,12 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="17"/>
@@ -3004,10 +3025,12 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="17"/>
@@ -3024,12 +3047,16 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
@@ -3044,7 +3071,7 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="19"/>
@@ -3054,7 +3081,7 @@
       <c r="E34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G34" s="9"/>
@@ -3070,12 +3097,18 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14">
+        <v>45659</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
@@ -3090,10 +3123,18 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="14">
+        <v>45659</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
@@ -3105,12 +3146,22 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="41">
+        <v>45662</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -3121,11 +3172,21 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="42">
+        <v>45662</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3137,10 +3198,10 @@
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -3153,10 +3214,10 @@
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -3169,10 +3230,10 @@
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3185,10 +3246,10 @@
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -3201,10 +3262,10 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -3217,10 +3278,10 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -3233,10 +3294,10 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -3249,10 +3310,10 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -3265,10 +3326,10 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -3281,10 +3342,10 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -3297,10 +3358,10 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -3313,10 +3374,10 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -3329,10 +3390,10 @@
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -3345,10 +3406,10 @@
       <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -3361,10 +3422,10 @@
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -3377,10 +3438,10 @@
       <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -3393,10 +3454,10 @@
       <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -3409,10 +3470,10 @@
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3425,10 +3486,10 @@
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -3441,10 +3502,10 @@
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -3457,10 +3518,10 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -3473,10 +3534,10 @@
       <c r="N59" s="10"/>
     </row>
     <row r="60" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -3489,10 +3550,10 @@
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -3505,10 +3566,10 @@
       <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -3521,10 +3582,10 @@
       <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -3537,10 +3598,10 @@
       <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3553,10 +3614,10 @@
       <c r="N64" s="10"/>
     </row>
     <row r="65" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -3569,10 +3630,10 @@
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -3585,10 +3646,10 @@
       <c r="N66" s="10"/>
     </row>
     <row r="67" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -3601,10 +3662,10 @@
       <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -3617,10 +3678,10 @@
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -3633,10 +3694,10 @@
       <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -3649,10 +3710,10 @@
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -3665,10 +3726,10 @@
       <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -3681,10 +3742,10 @@
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -3697,10 +3758,10 @@
       <c r="N73" s="10"/>
     </row>
     <row r="74" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -3713,10 +3774,10 @@
       <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -3729,10 +3790,10 @@
       <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -3745,10 +3806,10 @@
       <c r="N76" s="10"/>
     </row>
     <row r="77" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -3761,10 +3822,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -3777,10 +3838,10 @@
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -3793,10 +3854,10 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -3809,10 +3870,10 @@
       <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3825,10 +3886,10 @@
       <c r="N81" s="10"/>
     </row>
     <row r="82" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -3841,10 +3902,10 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -3857,10 +3918,10 @@
       <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -3873,10 +3934,10 @@
       <c r="N84" s="10"/>
     </row>
     <row r="85" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -3889,10 +3950,10 @@
       <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -3905,10 +3966,10 @@
       <c r="N86" s="10"/>
     </row>
     <row r="87" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -3921,10 +3982,10 @@
       <c r="N87" s="10"/>
     </row>
     <row r="88" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -3937,10 +3998,10 @@
       <c r="N88" s="10"/>
     </row>
     <row r="89" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -3953,10 +4014,10 @@
       <c r="N89" s="10"/>
     </row>
     <row r="90" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -3969,10 +4030,10 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -3985,10 +4046,10 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -4001,10 +4062,10 @@
       <c r="N92" s="10"/>
     </row>
     <row r="93" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -4017,10 +4078,10 @@
       <c r="N93" s="10"/>
     </row>
     <row r="94" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -4033,10 +4094,10 @@
       <c r="N94" s="10"/>
     </row>
     <row r="95" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -4049,10 +4110,10 @@
       <c r="N95" s="10"/>
     </row>
     <row r="96" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -4065,10 +4126,10 @@
       <c r="N96" s="10"/>
     </row>
     <row r="97" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -4081,10 +4142,10 @@
       <c r="N97" s="10"/>
     </row>
     <row r="98" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -4097,10 +4158,10 @@
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
@@ -4113,10 +4174,10 @@
       <c r="N99" s="10"/>
     </row>
     <row r="100" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -4129,10 +4190,10 @@
       <c r="N100" s="10"/>
     </row>
     <row r="101" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -4145,10 +4206,10 @@
       <c r="N101" s="10"/>
     </row>
     <row r="102" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
@@ -4161,10 +4222,10 @@
       <c r="N102" s="10"/>
     </row>
     <row r="103" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -4177,10 +4238,10 @@
       <c r="N103" s="10"/>
     </row>
     <row r="104" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -4193,10 +4254,10 @@
       <c r="N104" s="10"/>
     </row>
     <row r="105" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -4209,10 +4270,10 @@
       <c r="N105" s="10"/>
     </row>
     <row r="106" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
@@ -4225,10 +4286,10 @@
       <c r="N106" s="10"/>
     </row>
     <row r="107" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -4241,10 +4302,10 @@
       <c r="N107" s="10"/>
     </row>
     <row r="108" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -4257,10 +4318,10 @@
       <c r="N108" s="10"/>
     </row>
     <row r="109" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -4273,10 +4334,10 @@
       <c r="N109" s="10"/>
     </row>
     <row r="110" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -4289,10 +4350,10 @@
       <c r="N110" s="10"/>
     </row>
     <row r="111" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -4305,10 +4366,10 @@
       <c r="N111" s="10"/>
     </row>
     <row r="112" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -4321,10 +4382,10 @@
       <c r="N112" s="10"/>
     </row>
     <row r="113" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
@@ -4337,10 +4398,10 @@
       <c r="N113" s="10"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
@@ -4353,10 +4414,10 @@
       <c r="N114" s="10"/>
     </row>
     <row r="115" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
@@ -4369,10 +4430,10 @@
       <c r="N115" s="10"/>
     </row>
     <row r="116" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
@@ -4385,10 +4446,10 @@
       <c r="N116" s="10"/>
     </row>
     <row r="117" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
@@ -4401,10 +4462,10 @@
       <c r="N117" s="10"/>
     </row>
     <row r="118" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -4417,10 +4478,10 @@
       <c r="N118" s="10"/>
     </row>
     <row r="119" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -4433,10 +4494,10 @@
       <c r="N119" s="10"/>
     </row>
     <row r="120" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
@@ -4449,10 +4510,10 @@
       <c r="N120" s="10"/>
     </row>
     <row r="121" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
@@ -4465,10 +4526,10 @@
       <c r="N121" s="10"/>
     </row>
     <row r="122" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -4481,10 +4542,10 @@
       <c r="N122" s="10"/>
     </row>
     <row r="123" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
@@ -4497,10 +4558,10 @@
       <c r="N123" s="10"/>
     </row>
     <row r="124" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -4513,10 +4574,10 @@
       <c r="N124" s="10"/>
     </row>
     <row r="125" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -4529,10 +4590,10 @@
       <c r="N125" s="10"/>
     </row>
     <row r="126" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -4545,10 +4606,10 @@
       <c r="N126" s="10"/>
     </row>
     <row r="127" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
@@ -4561,10 +4622,10 @@
       <c r="N127" s="10"/>
     </row>
     <row r="128" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
@@ -4577,10 +4638,10 @@
       <c r="N128" s="10"/>
     </row>
     <row r="129" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
@@ -4593,10 +4654,10 @@
       <c r="N129" s="10"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
@@ -4609,10 +4670,10 @@
       <c r="N130" s="10"/>
     </row>
     <row r="131" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
@@ -4625,10 +4686,10 @@
       <c r="N131" s="10"/>
     </row>
     <row r="132" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
@@ -4641,10 +4702,10 @@
       <c r="N132" s="10"/>
     </row>
     <row r="133" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
@@ -4657,10 +4718,10 @@
       <c r="N133" s="10"/>
     </row>
     <row r="134" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
@@ -4673,10 +4734,10 @@
       <c r="N134" s="10"/>
     </row>
     <row r="135" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
@@ -4689,10 +4750,10 @@
       <c r="N135" s="10"/>
     </row>
     <row r="136" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
@@ -4705,10 +4766,10 @@
       <c r="N136" s="10"/>
     </row>
     <row r="137" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
@@ -4721,10 +4782,10 @@
       <c r="N137" s="10"/>
     </row>
     <row r="138" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
@@ -4737,10 +4798,10 @@
       <c r="N138" s="10"/>
     </row>
     <row r="139" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -4753,10 +4814,10 @@
       <c r="N139" s="10"/>
     </row>
     <row r="140" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
@@ -4769,10 +4830,10 @@
       <c r="N140" s="10"/>
     </row>
     <row r="141" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -4785,10 +4846,10 @@
       <c r="N141" s="10"/>
     </row>
     <row r="142" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -4801,10 +4862,10 @@
       <c r="N142" s="10"/>
     </row>
     <row r="143" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
@@ -4817,10 +4878,10 @@
       <c r="N143" s="10"/>
     </row>
     <row r="144" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
@@ -4833,10 +4894,10 @@
       <c r="N144" s="10"/>
     </row>
     <row r="145" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
@@ -4849,10 +4910,10 @@
       <c r="N145" s="10"/>
     </row>
     <row r="146" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
@@ -4865,10 +4926,10 @@
       <c r="N146" s="10"/>
     </row>
     <row r="147" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
@@ -4881,10 +4942,10 @@
       <c r="N147" s="10"/>
     </row>
     <row r="148" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
@@ -4897,10 +4958,10 @@
       <c r="N148" s="10"/>
     </row>
     <row r="149" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
@@ -4913,10 +4974,10 @@
       <c r="N149" s="10"/>
     </row>
     <row r="150" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
@@ -4929,10 +4990,10 @@
       <c r="N150" s="10"/>
     </row>
     <row r="151" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
@@ -4945,10 +5006,10 @@
       <c r="N151" s="10"/>
     </row>
     <row r="152" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
@@ -4961,10 +5022,10 @@
       <c r="N152" s="10"/>
     </row>
     <row r="153" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
@@ -4977,10 +5038,10 @@
       <c r="N153" s="10"/>
     </row>
     <row r="154" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
@@ -4993,10 +5054,10 @@
       <c r="N154" s="10"/>
     </row>
     <row r="155" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
@@ -5009,10 +5070,10 @@
       <c r="N155" s="10"/>
     </row>
     <row r="156" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
@@ -5025,10 +5086,10 @@
       <c r="N156" s="10"/>
     </row>
     <row r="157" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
@@ -5041,10 +5102,10 @@
       <c r="N157" s="10"/>
     </row>
     <row r="158" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
@@ -5057,10 +5118,10 @@
       <c r="N158" s="10"/>
     </row>
     <row r="159" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -5073,10 +5134,10 @@
       <c r="N159" s="10"/>
     </row>
     <row r="160" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -5089,10 +5150,10 @@
       <c r="N160" s="10"/>
     </row>
     <row r="161" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -5105,10 +5166,10 @@
       <c r="N161" s="10"/>
     </row>
     <row r="162" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
@@ -5121,10 +5182,10 @@
       <c r="N162" s="10"/>
     </row>
     <row r="163" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -5137,10 +5198,10 @@
       <c r="N163" s="10"/>
     </row>
     <row r="164" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
@@ -5153,10 +5214,10 @@
       <c r="N164" s="10"/>
     </row>
     <row r="165" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A165" s="24"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -5169,10 +5230,10 @@
       <c r="N165" s="10"/>
     </row>
     <row r="166" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
@@ -5185,10 +5246,10 @@
       <c r="N166" s="10"/>
     </row>
     <row r="167" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
@@ -5201,10 +5262,10 @@
       <c r="N167" s="10"/>
     </row>
     <row r="168" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A168" s="24"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
@@ -5217,10 +5278,10 @@
       <c r="N168" s="10"/>
     </row>
     <row r="169" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -5233,10 +5294,10 @@
       <c r="N169" s="10"/>
     </row>
     <row r="170" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A170" s="24"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -5249,10 +5310,10 @@
       <c r="N170" s="10"/>
     </row>
     <row r="171" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A171" s="24"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
@@ -5265,10 +5326,10 @@
       <c r="N171" s="10"/>
     </row>
     <row r="172" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A172" s="24"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
@@ -5281,10 +5342,10 @@
       <c r="N172" s="10"/>
     </row>
     <row r="173" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A173" s="24"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
@@ -5297,10 +5358,10 @@
       <c r="N173" s="10"/>
     </row>
     <row r="174" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A174" s="24"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
@@ -5313,10 +5374,10 @@
       <c r="N174" s="10"/>
     </row>
     <row r="175" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A175" s="24"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
@@ -5329,10 +5390,10 @@
       <c r="N175" s="10"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A176" s="24"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
@@ -5345,10 +5406,10 @@
       <c r="N176" s="10"/>
     </row>
     <row r="177" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A177" s="24"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
@@ -5361,10 +5422,10 @@
       <c r="N177" s="10"/>
     </row>
     <row r="178" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A178" s="24"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
@@ -5377,10 +5438,10 @@
       <c r="N178" s="10"/>
     </row>
     <row r="179" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A179" s="24"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
@@ -5393,10 +5454,10 @@
       <c r="N179" s="10"/>
     </row>
     <row r="180" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A180" s="24"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
@@ -5409,10 +5470,10 @@
       <c r="N180" s="10"/>
     </row>
     <row r="181" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A181" s="24"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
@@ -5425,10 +5486,10 @@
       <c r="N181" s="10"/>
     </row>
     <row r="182" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A182" s="24"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -5441,10 +5502,10 @@
       <c r="N182" s="10"/>
     </row>
     <row r="183" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A183" s="24"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
@@ -5457,10 +5518,10 @@
       <c r="N183" s="10"/>
     </row>
     <row r="184" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A184" s="24"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
@@ -5473,10 +5534,10 @@
       <c r="N184" s="10"/>
     </row>
     <row r="185" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A185" s="24"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
@@ -5489,10 +5550,10 @@
       <c r="N185" s="10"/>
     </row>
     <row r="186" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A186" s="24"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
@@ -5505,10 +5566,10 @@
       <c r="N186" s="10"/>
     </row>
     <row r="187" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A187" s="24"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
+      <c r="A187" s="22"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
@@ -5521,10 +5582,10 @@
       <c r="N187" s="10"/>
     </row>
     <row r="188" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A188" s="24"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
@@ -5537,10 +5598,10 @@
       <c r="N188" s="10"/>
     </row>
     <row r="189" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A189" s="24"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
@@ -5553,10 +5614,10 @@
       <c r="N189" s="10"/>
     </row>
     <row r="190" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A190" s="24"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
@@ -5569,10 +5630,10 @@
       <c r="N190" s="10"/>
     </row>
     <row r="191" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A191" s="24"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
@@ -5585,10 +5646,10 @@
       <c r="N191" s="10"/>
     </row>
     <row r="192" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A192" s="24"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
@@ -5601,10 +5662,10 @@
       <c r="N192" s="10"/>
     </row>
     <row r="193" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A193" s="24"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
@@ -5617,10 +5678,10 @@
       <c r="N193" s="10"/>
     </row>
     <row r="194" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A194" s="24"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
@@ -5633,10 +5694,10 @@
       <c r="N194" s="10"/>
     </row>
     <row r="195" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A195" s="24"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
@@ -5649,10 +5710,10 @@
       <c r="N195" s="10"/>
     </row>
     <row r="196" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A196" s="24"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
@@ -5665,10 +5726,10 @@
       <c r="N196" s="10"/>
     </row>
     <row r="197" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A197" s="24"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
@@ -5681,10 +5742,10 @@
       <c r="N197" s="10"/>
     </row>
     <row r="198" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A198" s="24"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
@@ -5697,10 +5758,10 @@
       <c r="N198" s="10"/>
     </row>
     <row r="199" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A199" s="24"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="24"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
@@ -5713,10 +5774,10 @@
       <c r="N199" s="10"/>
     </row>
     <row r="200" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A200" s="24"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
@@ -5729,10 +5790,10 @@
       <c r="N200" s="10"/>
     </row>
     <row r="201" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A201" s="24"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
@@ -5745,10 +5806,10 @@
       <c r="N201" s="10"/>
     </row>
     <row r="202" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A202" s="24"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
+      <c r="A202" s="22"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
@@ -5761,10 +5822,10 @@
       <c r="N202" s="10"/>
     </row>
     <row r="203" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A203" s="24"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
@@ -5777,10 +5838,10 @@
       <c r="N203" s="10"/>
     </row>
     <row r="204" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A204" s="24"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="24"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
@@ -5793,10 +5854,10 @@
       <c r="N204" s="10"/>
     </row>
     <row r="205" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A205" s="24"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="24"/>
-      <c r="D205" s="24"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
@@ -5809,10 +5870,10 @@
       <c r="N205" s="10"/>
     </row>
     <row r="206" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A206" s="24"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
@@ -5825,10 +5886,10 @@
       <c r="N206" s="10"/>
     </row>
     <row r="207" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A207" s="24"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
@@ -5841,10 +5902,10 @@
       <c r="N207" s="10"/>
     </row>
     <row r="208" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A208" s="24"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
@@ -5857,10 +5918,10 @@
       <c r="N208" s="10"/>
     </row>
     <row r="209" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A209" s="24"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="24"/>
-      <c r="D209" s="24"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
@@ -5873,10 +5934,10 @@
       <c r="N209" s="10"/>
     </row>
     <row r="210" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A210" s="24"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="24"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -5889,10 +5950,10 @@
       <c r="N210" s="10"/>
     </row>
     <row r="211" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A211" s="24"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="24"/>
-      <c r="D211" s="24"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
@@ -5905,10 +5966,10 @@
       <c r="N211" s="10"/>
     </row>
     <row r="212" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A212" s="24"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="24"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
@@ -5921,10 +5982,10 @@
       <c r="N212" s="10"/>
     </row>
     <row r="213" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A213" s="24"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="24"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
@@ -5937,10 +5998,10 @@
       <c r="N213" s="10"/>
     </row>
     <row r="214" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A214" s="24"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="24"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="10"/>
@@ -5953,10 +6014,10 @@
       <c r="N214" s="10"/>
     </row>
     <row r="215" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A215" s="24"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="24"/>
-      <c r="D215" s="24"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
@@ -5969,10 +6030,10 @@
       <c r="N215" s="10"/>
     </row>
     <row r="216" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A216" s="24"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="24"/>
-      <c r="D216" s="24"/>
+      <c r="A216" s="22"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
@@ -5985,10 +6046,10 @@
       <c r="N216" s="10"/>
     </row>
     <row r="217" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A217" s="24"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="24"/>
-      <c r="D217" s="24"/>
+      <c r="A217" s="22"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
@@ -6001,10 +6062,10 @@
       <c r="N217" s="10"/>
     </row>
     <row r="218" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A218" s="24"/>
-      <c r="B218" s="25"/>
-      <c r="C218" s="24"/>
-      <c r="D218" s="24"/>
+      <c r="A218" s="22"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
@@ -6017,10 +6078,10 @@
       <c r="N218" s="10"/>
     </row>
     <row r="219" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A219" s="24"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="24"/>
-      <c r="D219" s="24"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
@@ -6033,10 +6094,10 @@
       <c r="N219" s="10"/>
     </row>
     <row r="220" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A220" s="24"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="24"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="10"/>
@@ -6049,10 +6110,10 @@
       <c r="N220" s="10"/>
     </row>
     <row r="221" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A221" s="24"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="24"/>
-      <c r="D221" s="24"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
@@ -6065,10 +6126,10 @@
       <c r="N221" s="10"/>
     </row>
     <row r="222" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A222" s="24"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="24"/>
+      <c r="A222" s="22"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
@@ -6081,10 +6142,10 @@
       <c r="N222" s="10"/>
     </row>
     <row r="223" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A223" s="24"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="24"/>
+      <c r="A223" s="22"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
@@ -6097,10 +6158,10 @@
       <c r="N223" s="10"/>
     </row>
     <row r="224" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A224" s="24"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="24"/>
-      <c r="D224" s="24"/>
+      <c r="A224" s="22"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
@@ -6113,10 +6174,10 @@
       <c r="N224" s="10"/>
     </row>
     <row r="225" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A225" s="24"/>
-      <c r="B225" s="25"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
+      <c r="A225" s="22"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
@@ -6129,10 +6190,10 @@
       <c r="N225" s="10"/>
     </row>
     <row r="226" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A226" s="24"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="24"/>
+      <c r="A226" s="22"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
       <c r="G226" s="10"/>
@@ -6145,10 +6206,10 @@
       <c r="N226" s="10"/>
     </row>
     <row r="227" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A227" s="24"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="24"/>
-      <c r="D227" s="24"/>
+      <c r="A227" s="22"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
@@ -6161,10 +6222,10 @@
       <c r="N227" s="10"/>
     </row>
     <row r="228" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A228" s="24"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="24"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
       <c r="G228" s="10"/>
@@ -6177,10 +6238,10 @@
       <c r="N228" s="10"/>
     </row>
     <row r="229" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A229" s="24"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="24"/>
+      <c r="A229" s="22"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
       <c r="G229" s="10"/>
@@ -6193,10 +6254,10 @@
       <c r="N229" s="10"/>
     </row>
     <row r="230" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A230" s="24"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
       <c r="G230" s="10"/>
@@ -6209,10 +6270,10 @@
       <c r="N230" s="10"/>
     </row>
     <row r="231" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A231" s="24"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="24"/>
-      <c r="D231" s="24"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="10"/>
@@ -6225,10 +6286,10 @@
       <c r="N231" s="10"/>
     </row>
     <row r="232" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A232" s="24"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="24"/>
-      <c r="D232" s="24"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="10"/>
@@ -6241,10 +6302,10 @@
       <c r="N232" s="10"/>
     </row>
     <row r="233" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A233" s="24"/>
-      <c r="B233" s="25"/>
-      <c r="C233" s="24"/>
-      <c r="D233" s="24"/>
+      <c r="A233" s="22"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="10"/>
@@ -6257,10 +6318,10 @@
       <c r="N233" s="10"/>
     </row>
     <row r="234" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A234" s="24"/>
-      <c r="B234" s="25"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="24"/>
+      <c r="A234" s="22"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="10"/>
@@ -6273,10 +6334,10 @@
       <c r="N234" s="10"/>
     </row>
     <row r="235" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A235" s="24"/>
-      <c r="B235" s="25"/>
-      <c r="C235" s="24"/>
-      <c r="D235" s="24"/>
+      <c r="A235" s="22"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
@@ -6289,10 +6350,10 @@
       <c r="N235" s="10"/>
     </row>
     <row r="236" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A236" s="24"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="24"/>
+      <c r="A236" s="22"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="10"/>
@@ -6305,10 +6366,10 @@
       <c r="N236" s="10"/>
     </row>
     <row r="237" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A237" s="24"/>
-      <c r="B237" s="25"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="24"/>
+      <c r="A237" s="22"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -6321,10 +6382,10 @@
       <c r="N237" s="10"/>
     </row>
     <row r="238" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A238" s="24"/>
-      <c r="B238" s="25"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="24"/>
+      <c r="A238" s="22"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
@@ -6337,10 +6398,10 @@
       <c r="N238" s="10"/>
     </row>
     <row r="239" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A239" s="24"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="24"/>
+      <c r="A239" s="22"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
@@ -6353,10 +6414,10 @@
       <c r="N239" s="10"/>
     </row>
     <row r="240" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A240" s="24"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="24"/>
+      <c r="A240" s="22"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
@@ -6369,10 +6430,10 @@
       <c r="N240" s="10"/>
     </row>
     <row r="241" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A241" s="24"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="24"/>
-      <c r="D241" s="24"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="10"/>
@@ -6385,10 +6446,10 @@
       <c r="N241" s="10"/>
     </row>
     <row r="242" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A242" s="24"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="24"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
@@ -6401,10 +6462,10 @@
       <c r="N242" s="10"/>
     </row>
     <row r="243" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A243" s="24"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="24"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
@@ -6417,10 +6478,10 @@
       <c r="N243" s="10"/>
     </row>
     <row r="244" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A244" s="24"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
+      <c r="A244" s="22"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="10"/>
@@ -6433,10 +6494,10 @@
       <c r="N244" s="10"/>
     </row>
     <row r="245" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A245" s="24"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="24"/>
-      <c r="D245" s="24"/>
+      <c r="A245" s="22"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
@@ -6449,10 +6510,10 @@
       <c r="N245" s="10"/>
     </row>
     <row r="246" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A246" s="24"/>
-      <c r="B246" s="25"/>
-      <c r="C246" s="24"/>
-      <c r="D246" s="24"/>
+      <c r="A246" s="22"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
@@ -6465,10 +6526,10 @@
       <c r="N246" s="10"/>
     </row>
     <row r="247" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A247" s="24"/>
-      <c r="B247" s="25"/>
-      <c r="C247" s="24"/>
-      <c r="D247" s="24"/>
+      <c r="A247" s="22"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
@@ -6481,10 +6542,10 @@
       <c r="N247" s="10"/>
     </row>
     <row r="248" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A248" s="24"/>
-      <c r="B248" s="25"/>
-      <c r="C248" s="24"/>
-      <c r="D248" s="24"/>
+      <c r="A248" s="22"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
@@ -6497,10 +6558,10 @@
       <c r="N248" s="10"/>
     </row>
     <row r="249" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A249" s="24"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="24"/>
+      <c r="A249" s="22"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
@@ -6513,10 +6574,10 @@
       <c r="N249" s="10"/>
     </row>
     <row r="250" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A250" s="24"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="24"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
@@ -6529,10 +6590,10 @@
       <c r="N250" s="10"/>
     </row>
     <row r="251" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A251" s="24"/>
-      <c r="B251" s="25"/>
-      <c r="C251" s="24"/>
-      <c r="D251" s="24"/>
+      <c r="A251" s="22"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
@@ -6545,10 +6606,10 @@
       <c r="N251" s="10"/>
     </row>
     <row r="252" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A252" s="24"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="24"/>
-      <c r="D252" s="24"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="22"/>
+      <c r="D252" s="22"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
@@ -6561,10 +6622,10 @@
       <c r="N252" s="10"/>
     </row>
     <row r="253" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A253" s="24"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="24"/>
-      <c r="D253" s="24"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
@@ -6577,10 +6638,10 @@
       <c r="N253" s="10"/>
     </row>
     <row r="254" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A254" s="24"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="24"/>
-      <c r="D254" s="24"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
@@ -6593,10 +6654,10 @@
       <c r="N254" s="10"/>
     </row>
     <row r="255" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A255" s="24"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="24"/>
-      <c r="D255" s="24"/>
+      <c r="A255" s="22"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
@@ -6609,10 +6670,10 @@
       <c r="N255" s="10"/>
     </row>
     <row r="256" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A256" s="24"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="24"/>
-      <c r="D256" s="24"/>
+      <c r="A256" s="22"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
@@ -6625,10 +6686,10 @@
       <c r="N256" s="10"/>
     </row>
     <row r="257" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A257" s="24"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="24"/>
-      <c r="D257" s="24"/>
+      <c r="A257" s="22"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="22"/>
+      <c r="D257" s="22"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
@@ -6641,10 +6702,10 @@
       <c r="N257" s="10"/>
     </row>
     <row r="258" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A258" s="24"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="24"/>
-      <c r="D258" s="24"/>
+      <c r="A258" s="22"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
@@ -6657,10 +6718,10 @@
       <c r="N258" s="10"/>
     </row>
     <row r="259" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A259" s="24"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="24"/>
-      <c r="D259" s="24"/>
+      <c r="A259" s="22"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
@@ -6673,10 +6734,10 @@
       <c r="N259" s="10"/>
     </row>
     <row r="260" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A260" s="24"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="24"/>
-      <c r="D260" s="24"/>
+      <c r="A260" s="22"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
@@ -6689,10 +6750,10 @@
       <c r="N260" s="10"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A261" s="24"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="24"/>
-      <c r="D261" s="24"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="10"/>
@@ -6705,10 +6766,10 @@
       <c r="N261" s="10"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A262" s="24"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="24"/>
+      <c r="A262" s="22"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="10"/>
@@ -6721,10 +6782,10 @@
       <c r="N262" s="10"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A263" s="24"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="24"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
@@ -6737,10 +6798,10 @@
       <c r="N263" s="10"/>
     </row>
     <row r="264" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A264" s="24"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="24"/>
-      <c r="D264" s="24"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
@@ -6753,10 +6814,10 @@
       <c r="N264" s="10"/>
     </row>
     <row r="265" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A265" s="24"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="24"/>
-      <c r="D265" s="24"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="23"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
@@ -6769,10 +6830,10 @@
       <c r="N265" s="10"/>
     </row>
     <row r="266" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A266" s="24"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="24"/>
-      <c r="D266" s="24"/>
+      <c r="A266" s="22"/>
+      <c r="B266" s="23"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
@@ -6785,10 +6846,10 @@
       <c r="N266" s="10"/>
     </row>
     <row r="267" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A267" s="24"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="24"/>
-      <c r="D267" s="24"/>
+      <c r="A267" s="22"/>
+      <c r="B267" s="23"/>
+      <c r="C267" s="22"/>
+      <c r="D267" s="22"/>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
@@ -6801,10 +6862,10 @@
       <c r="N267" s="10"/>
     </row>
     <row r="268" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A268" s="24"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="24"/>
-      <c r="D268" s="24"/>
+      <c r="A268" s="22"/>
+      <c r="B268" s="23"/>
+      <c r="C268" s="22"/>
+      <c r="D268" s="22"/>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
@@ -6817,10 +6878,10 @@
       <c r="N268" s="10"/>
     </row>
     <row r="269" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A269" s="24"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
+      <c r="A269" s="22"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
@@ -6833,10 +6894,10 @@
       <c r="N269" s="10"/>
     </row>
     <row r="270" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A270" s="24"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="24"/>
-      <c r="D270" s="24"/>
+      <c r="A270" s="22"/>
+      <c r="B270" s="23"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
@@ -6849,10 +6910,10 @@
       <c r="N270" s="10"/>
     </row>
     <row r="271" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A271" s="24"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="24"/>
-      <c r="D271" s="24"/>
+      <c r="A271" s="22"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
@@ -6865,10 +6926,10 @@
       <c r="N271" s="10"/>
     </row>
     <row r="272" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A272" s="24"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="24"/>
-      <c r="D272" s="24"/>
+      <c r="A272" s="22"/>
+      <c r="B272" s="23"/>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
@@ -6881,10 +6942,10 @@
       <c r="N272" s="10"/>
     </row>
     <row r="273" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A273" s="24"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="24"/>
-      <c r="D273" s="24"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="22"/>
+      <c r="D273" s="22"/>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
@@ -6897,10 +6958,10 @@
       <c r="N273" s="10"/>
     </row>
     <row r="274" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A274" s="24"/>
-      <c r="B274" s="25"/>
-      <c r="C274" s="24"/>
-      <c r="D274" s="24"/>
+      <c r="A274" s="22"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
@@ -6913,10 +6974,10 @@
       <c r="N274" s="10"/>
     </row>
     <row r="275" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A275" s="24"/>
-      <c r="B275" s="25"/>
-      <c r="C275" s="24"/>
-      <c r="D275" s="24"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10"/>
@@ -6929,10 +6990,10 @@
       <c r="N275" s="10"/>
     </row>
     <row r="276" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A276" s="24"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="24"/>
-      <c r="D276" s="24"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="23"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="22"/>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
@@ -6945,10 +7006,10 @@
       <c r="N276" s="10"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A277" s="24"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="24"/>
-      <c r="D277" s="24"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="23"/>
+      <c r="C277" s="22"/>
+      <c r="D277" s="22"/>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
@@ -6961,10 +7022,10 @@
       <c r="N277" s="10"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A278" s="24"/>
-      <c r="B278" s="25"/>
-      <c r="C278" s="24"/>
-      <c r="D278" s="24"/>
+      <c r="A278" s="22"/>
+      <c r="B278" s="23"/>
+      <c r="C278" s="22"/>
+      <c r="D278" s="22"/>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
@@ -6977,10 +7038,10 @@
       <c r="N278" s="10"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A279" s="24"/>
-      <c r="B279" s="25"/>
-      <c r="C279" s="24"/>
-      <c r="D279" s="24"/>
+      <c r="A279" s="22"/>
+      <c r="B279" s="23"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="22"/>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
@@ -6993,10 +7054,10 @@
       <c r="N279" s="10"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A280" s="24"/>
-      <c r="B280" s="25"/>
-      <c r="C280" s="24"/>
-      <c r="D280" s="24"/>
+      <c r="A280" s="22"/>
+      <c r="B280" s="23"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="10"/>
@@ -7009,10 +7070,10 @@
       <c r="N280" s="10"/>
     </row>
     <row r="281" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A281" s="24"/>
-      <c r="B281" s="25"/>
-      <c r="C281" s="24"/>
-      <c r="D281" s="24"/>
+      <c r="A281" s="22"/>
+      <c r="B281" s="23"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10"/>
@@ -7025,10 +7086,10 @@
       <c r="N281" s="10"/>
     </row>
     <row r="282" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A282" s="24"/>
-      <c r="B282" s="25"/>
-      <c r="C282" s="24"/>
-      <c r="D282" s="24"/>
+      <c r="A282" s="22"/>
+      <c r="B282" s="23"/>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
@@ -7041,10 +7102,10 @@
       <c r="N282" s="10"/>
     </row>
     <row r="283" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A283" s="24"/>
-      <c r="B283" s="25"/>
-      <c r="C283" s="24"/>
-      <c r="D283" s="24"/>
+      <c r="A283" s="22"/>
+      <c r="B283" s="23"/>
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="10"/>
@@ -7057,10 +7118,10 @@
       <c r="N283" s="10"/>
     </row>
     <row r="284" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A284" s="24"/>
-      <c r="B284" s="25"/>
-      <c r="C284" s="24"/>
-      <c r="D284" s="24"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="23"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
@@ -7073,10 +7134,10 @@
       <c r="N284" s="10"/>
     </row>
     <row r="285" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A285" s="24"/>
-      <c r="B285" s="25"/>
-      <c r="C285" s="24"/>
-      <c r="D285" s="24"/>
+      <c r="A285" s="22"/>
+      <c r="B285" s="23"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
@@ -7089,10 +7150,10 @@
       <c r="N285" s="10"/>
     </row>
     <row r="286" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A286" s="24"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="24"/>
-      <c r="D286" s="24"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="23"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10"/>
@@ -7105,10 +7166,10 @@
       <c r="N286" s="10"/>
     </row>
     <row r="287" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A287" s="24"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="24"/>
-      <c r="D287" s="24"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="23"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="22"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
@@ -7121,10 +7182,10 @@
       <c r="N287" s="10"/>
     </row>
     <row r="288" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A288" s="24"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="24"/>
-      <c r="D288" s="24"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="23"/>
+      <c r="C288" s="22"/>
+      <c r="D288" s="22"/>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
@@ -7137,10 +7198,10 @@
       <c r="N288" s="10"/>
     </row>
     <row r="289" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A289" s="24"/>
-      <c r="B289" s="25"/>
-      <c r="C289" s="24"/>
-      <c r="D289" s="24"/>
+      <c r="A289" s="22"/>
+      <c r="B289" s="23"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="22"/>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="10"/>
@@ -7153,10 +7214,10 @@
       <c r="N289" s="10"/>
     </row>
     <row r="290" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A290" s="24"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="24"/>
-      <c r="D290" s="24"/>
+      <c r="A290" s="22"/>
+      <c r="B290" s="23"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
@@ -7169,10 +7230,10 @@
       <c r="N290" s="10"/>
     </row>
     <row r="291" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A291" s="24"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="24"/>
-      <c r="D291" s="24"/>
+      <c r="A291" s="22"/>
+      <c r="B291" s="23"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
@@ -7185,10 +7246,10 @@
       <c r="N291" s="10"/>
     </row>
     <row r="292" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A292" s="24"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="24"/>
-      <c r="D292" s="24"/>
+      <c r="A292" s="22"/>
+      <c r="B292" s="23"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10"/>
@@ -7201,10 +7262,10 @@
       <c r="N292" s="10"/>
     </row>
     <row r="293" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A293" s="24"/>
-      <c r="B293" s="25"/>
-      <c r="C293" s="24"/>
-      <c r="D293" s="24"/>
+      <c r="A293" s="22"/>
+      <c r="B293" s="23"/>
+      <c r="C293" s="22"/>
+      <c r="D293" s="22"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
@@ -7217,10 +7278,10 @@
       <c r="N293" s="10"/>
     </row>
     <row r="294" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A294" s="24"/>
-      <c r="B294" s="25"/>
-      <c r="C294" s="24"/>
-      <c r="D294" s="24"/>
+      <c r="A294" s="22"/>
+      <c r="B294" s="23"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="22"/>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
@@ -7233,10 +7294,10 @@
       <c r="N294" s="10"/>
     </row>
     <row r="295" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A295" s="24"/>
-      <c r="B295" s="25"/>
-      <c r="C295" s="24"/>
-      <c r="D295" s="24"/>
+      <c r="A295" s="22"/>
+      <c r="B295" s="23"/>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10"/>
@@ -7249,10 +7310,10 @@
       <c r="N295" s="10"/>
     </row>
     <row r="296" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A296" s="24"/>
-      <c r="B296" s="25"/>
-      <c r="C296" s="24"/>
-      <c r="D296" s="24"/>
+      <c r="A296" s="22"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
@@ -7265,10 +7326,10 @@
       <c r="N296" s="10"/>
     </row>
     <row r="297" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A297" s="24"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="24"/>
-      <c r="D297" s="24"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="23"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
@@ -7281,10 +7342,10 @@
       <c r="N297" s="10"/>
     </row>
     <row r="298" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A298" s="24"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="24"/>
-      <c r="D298" s="24"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="23"/>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
@@ -7297,10 +7358,10 @@
       <c r="N298" s="10"/>
     </row>
     <row r="299" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A299" s="24"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="24"/>
-      <c r="D299" s="24"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="23"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="22"/>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10"/>
@@ -7313,10 +7374,10 @@
       <c r="N299" s="10"/>
     </row>
     <row r="300" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A300" s="24"/>
-      <c r="B300" s="25"/>
-      <c r="C300" s="24"/>
-      <c r="D300" s="24"/>
+      <c r="A300" s="22"/>
+      <c r="B300" s="23"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
@@ -7329,10 +7390,10 @@
       <c r="N300" s="10"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A301" s="24"/>
-      <c r="B301" s="25"/>
-      <c r="C301" s="24"/>
-      <c r="D301" s="24"/>
+      <c r="A301" s="22"/>
+      <c r="B301" s="23"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
@@ -7345,10 +7406,10 @@
       <c r="N301" s="10"/>
     </row>
     <row r="302" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A302" s="24"/>
-      <c r="B302" s="25"/>
-      <c r="C302" s="24"/>
-      <c r="D302" s="24"/>
+      <c r="A302" s="22"/>
+      <c r="B302" s="23"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
@@ -7361,10 +7422,10 @@
       <c r="N302" s="10"/>
     </row>
     <row r="303" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A303" s="24"/>
-      <c r="B303" s="25"/>
-      <c r="C303" s="24"/>
-      <c r="D303" s="24"/>
+      <c r="A303" s="22"/>
+      <c r="B303" s="23"/>
+      <c r="C303" s="22"/>
+      <c r="D303" s="22"/>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
@@ -7377,10 +7438,10 @@
       <c r="N303" s="10"/>
     </row>
     <row r="304" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A304" s="24"/>
-      <c r="B304" s="25"/>
-      <c r="C304" s="24"/>
-      <c r="D304" s="24"/>
+      <c r="A304" s="22"/>
+      <c r="B304" s="23"/>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
@@ -7393,10 +7454,10 @@
       <c r="N304" s="10"/>
     </row>
     <row r="305" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A305" s="24"/>
-      <c r="B305" s="25"/>
-      <c r="C305" s="24"/>
-      <c r="D305" s="24"/>
+      <c r="A305" s="22"/>
+      <c r="B305" s="23"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
@@ -7409,10 +7470,10 @@
       <c r="N305" s="10"/>
     </row>
     <row r="306" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A306" s="24"/>
-      <c r="B306" s="25"/>
-      <c r="C306" s="24"/>
-      <c r="D306" s="24"/>
+      <c r="A306" s="22"/>
+      <c r="B306" s="23"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
@@ -7425,10 +7486,10 @@
       <c r="N306" s="10"/>
     </row>
     <row r="307" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A307" s="24"/>
-      <c r="B307" s="25"/>
-      <c r="C307" s="24"/>
-      <c r="D307" s="24"/>
+      <c r="A307" s="22"/>
+      <c r="B307" s="23"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="10"/>
@@ -7441,10 +7502,10 @@
       <c r="N307" s="10"/>
     </row>
     <row r="308" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A308" s="24"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="24"/>
-      <c r="D308" s="24"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="23"/>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
@@ -7457,10 +7518,10 @@
       <c r="N308" s="10"/>
     </row>
     <row r="309" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A309" s="24"/>
-      <c r="B309" s="25"/>
-      <c r="C309" s="24"/>
-      <c r="D309" s="24"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="23"/>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="10"/>
@@ -7473,10 +7534,10 @@
       <c r="N309" s="10"/>
     </row>
     <row r="310" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A310" s="24"/>
-      <c r="B310" s="25"/>
-      <c r="C310" s="24"/>
-      <c r="D310" s="24"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="23"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
@@ -7489,10 +7550,10 @@
       <c r="N310" s="10"/>
     </row>
     <row r="311" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A311" s="24"/>
-      <c r="B311" s="25"/>
-      <c r="C311" s="24"/>
-      <c r="D311" s="24"/>
+      <c r="A311" s="22"/>
+      <c r="B311" s="23"/>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
@@ -7505,10 +7566,10 @@
       <c r="N311" s="10"/>
     </row>
     <row r="312" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A312" s="24"/>
-      <c r="B312" s="25"/>
-      <c r="C312" s="24"/>
-      <c r="D312" s="24"/>
+      <c r="A312" s="22"/>
+      <c r="B312" s="23"/>
+      <c r="C312" s="22"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
@@ -7521,10 +7582,10 @@
       <c r="N312" s="10"/>
     </row>
     <row r="313" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A313" s="24"/>
-      <c r="B313" s="25"/>
-      <c r="C313" s="24"/>
-      <c r="D313" s="24"/>
+      <c r="A313" s="22"/>
+      <c r="B313" s="23"/>
+      <c r="C313" s="22"/>
+      <c r="D313" s="22"/>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
@@ -7537,10 +7598,10 @@
       <c r="N313" s="10"/>
     </row>
     <row r="314" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A314" s="24"/>
-      <c r="B314" s="25"/>
-      <c r="C314" s="24"/>
-      <c r="D314" s="24"/>
+      <c r="A314" s="22"/>
+      <c r="B314" s="23"/>
+      <c r="C314" s="22"/>
+      <c r="D314" s="22"/>
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
@@ -7553,10 +7614,10 @@
       <c r="N314" s="10"/>
     </row>
     <row r="315" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A315" s="24"/>
-      <c r="B315" s="25"/>
-      <c r="C315" s="24"/>
-      <c r="D315" s="24"/>
+      <c r="A315" s="22"/>
+      <c r="B315" s="23"/>
+      <c r="C315" s="22"/>
+      <c r="D315" s="22"/>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
@@ -7569,10 +7630,10 @@
       <c r="N315" s="10"/>
     </row>
     <row r="316" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A316" s="24"/>
-      <c r="B316" s="25"/>
-      <c r="C316" s="24"/>
-      <c r="D316" s="24"/>
+      <c r="A316" s="22"/>
+      <c r="B316" s="23"/>
+      <c r="C316" s="22"/>
+      <c r="D316" s="22"/>
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="10"/>
@@ -7585,10 +7646,10 @@
       <c r="N316" s="10"/>
     </row>
     <row r="317" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A317" s="24"/>
-      <c r="B317" s="25"/>
-      <c r="C317" s="24"/>
-      <c r="D317" s="24"/>
+      <c r="A317" s="22"/>
+      <c r="B317" s="23"/>
+      <c r="C317" s="22"/>
+      <c r="D317" s="22"/>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
@@ -7601,10 +7662,10 @@
       <c r="N317" s="10"/>
     </row>
     <row r="318" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A318" s="24"/>
-      <c r="B318" s="25"/>
-      <c r="C318" s="24"/>
-      <c r="D318" s="24"/>
+      <c r="A318" s="22"/>
+      <c r="B318" s="23"/>
+      <c r="C318" s="22"/>
+      <c r="D318" s="22"/>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="10"/>
@@ -7617,10 +7678,10 @@
       <c r="N318" s="10"/>
     </row>
     <row r="319" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A319" s="24"/>
-      <c r="B319" s="25"/>
-      <c r="C319" s="24"/>
-      <c r="D319" s="24"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="23"/>
+      <c r="C319" s="22"/>
+      <c r="D319" s="22"/>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="10"/>
@@ -7633,10 +7694,10 @@
       <c r="N319" s="10"/>
     </row>
     <row r="320" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A320" s="24"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="24"/>
-      <c r="D320" s="24"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="23"/>
+      <c r="C320" s="22"/>
+      <c r="D320" s="22"/>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="10"/>
@@ -7649,10 +7710,10 @@
       <c r="N320" s="10"/>
     </row>
     <row r="321" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A321" s="24"/>
-      <c r="B321" s="25"/>
-      <c r="C321" s="24"/>
-      <c r="D321" s="24"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="23"/>
+      <c r="C321" s="22"/>
+      <c r="D321" s="22"/>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
@@ -7665,10 +7726,10 @@
       <c r="N321" s="10"/>
     </row>
     <row r="322" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A322" s="24"/>
-      <c r="B322" s="25"/>
-      <c r="C322" s="24"/>
-      <c r="D322" s="24"/>
+      <c r="A322" s="22"/>
+      <c r="B322" s="23"/>
+      <c r="C322" s="22"/>
+      <c r="D322" s="22"/>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
@@ -7681,10 +7742,10 @@
       <c r="N322" s="10"/>
     </row>
     <row r="323" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A323" s="24"/>
-      <c r="B323" s="25"/>
-      <c r="C323" s="24"/>
-      <c r="D323" s="24"/>
+      <c r="A323" s="22"/>
+      <c r="B323" s="23"/>
+      <c r="C323" s="22"/>
+      <c r="D323" s="22"/>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
@@ -7697,10 +7758,10 @@
       <c r="N323" s="10"/>
     </row>
     <row r="324" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A324" s="24"/>
-      <c r="B324" s="25"/>
-      <c r="C324" s="24"/>
-      <c r="D324" s="24"/>
+      <c r="A324" s="22"/>
+      <c r="B324" s="23"/>
+      <c r="C324" s="22"/>
+      <c r="D324" s="22"/>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
@@ -7713,10 +7774,10 @@
       <c r="N324" s="10"/>
     </row>
     <row r="325" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A325" s="24"/>
-      <c r="B325" s="25"/>
-      <c r="C325" s="24"/>
-      <c r="D325" s="24"/>
+      <c r="A325" s="22"/>
+      <c r="B325" s="23"/>
+      <c r="C325" s="22"/>
+      <c r="D325" s="22"/>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
@@ -7729,10 +7790,10 @@
       <c r="N325" s="10"/>
     </row>
     <row r="326" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A326" s="24"/>
-      <c r="B326" s="25"/>
-      <c r="C326" s="24"/>
-      <c r="D326" s="24"/>
+      <c r="A326" s="22"/>
+      <c r="B326" s="23"/>
+      <c r="C326" s="22"/>
+      <c r="D326" s="22"/>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10"/>
@@ -7745,10 +7806,10 @@
       <c r="N326" s="10"/>
     </row>
     <row r="327" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A327" s="24"/>
-      <c r="B327" s="25"/>
-      <c r="C327" s="24"/>
-      <c r="D327" s="24"/>
+      <c r="A327" s="22"/>
+      <c r="B327" s="23"/>
+      <c r="C327" s="22"/>
+      <c r="D327" s="22"/>
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10"/>
@@ -7761,10 +7822,10 @@
       <c r="N327" s="10"/>
     </row>
     <row r="328" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A328" s="24"/>
-      <c r="B328" s="25"/>
-      <c r="C328" s="24"/>
-      <c r="D328" s="24"/>
+      <c r="A328" s="22"/>
+      <c r="B328" s="23"/>
+      <c r="C328" s="22"/>
+      <c r="D328" s="22"/>
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="10"/>
@@ -7777,10 +7838,10 @@
       <c r="N328" s="10"/>
     </row>
     <row r="329" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A329" s="24"/>
-      <c r="B329" s="25"/>
-      <c r="C329" s="24"/>
-      <c r="D329" s="24"/>
+      <c r="A329" s="22"/>
+      <c r="B329" s="23"/>
+      <c r="C329" s="22"/>
+      <c r="D329" s="22"/>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="10"/>
@@ -7793,10 +7854,10 @@
       <c r="N329" s="10"/>
     </row>
     <row r="330" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A330" s="24"/>
-      <c r="B330" s="25"/>
-      <c r="C330" s="24"/>
-      <c r="D330" s="24"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="23"/>
+      <c r="C330" s="22"/>
+      <c r="D330" s="22"/>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
@@ -7809,10 +7870,10 @@
       <c r="N330" s="10"/>
     </row>
     <row r="331" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A331" s="24"/>
-      <c r="B331" s="25"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="23"/>
+      <c r="C331" s="22"/>
+      <c r="D331" s="22"/>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10"/>
@@ -7825,10 +7886,10 @@
       <c r="N331" s="10"/>
     </row>
     <row r="332" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A332" s="24"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="24"/>
-      <c r="D332" s="24"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="23"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="22"/>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
@@ -7841,10 +7902,10 @@
       <c r="N332" s="10"/>
     </row>
     <row r="333" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A333" s="24"/>
-      <c r="B333" s="25"/>
-      <c r="C333" s="24"/>
-      <c r="D333" s="24"/>
+      <c r="A333" s="22"/>
+      <c r="B333" s="23"/>
+      <c r="C333" s="22"/>
+      <c r="D333" s="22"/>
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
@@ -7857,10 +7918,10 @@
       <c r="N333" s="10"/>
     </row>
     <row r="334" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A334" s="24"/>
-      <c r="B334" s="25"/>
-      <c r="C334" s="24"/>
-      <c r="D334" s="24"/>
+      <c r="A334" s="22"/>
+      <c r="B334" s="23"/>
+      <c r="C334" s="22"/>
+      <c r="D334" s="22"/>
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
@@ -7873,10 +7934,10 @@
       <c r="N334" s="10"/>
     </row>
     <row r="335" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A335" s="24"/>
-      <c r="B335" s="25"/>
-      <c r="C335" s="24"/>
-      <c r="D335" s="24"/>
+      <c r="A335" s="22"/>
+      <c r="B335" s="23"/>
+      <c r="C335" s="22"/>
+      <c r="D335" s="22"/>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="10"/>
@@ -7889,10 +7950,10 @@
       <c r="N335" s="10"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A336" s="24"/>
-      <c r="B336" s="25"/>
-      <c r="C336" s="24"/>
-      <c r="D336" s="24"/>
+      <c r="A336" s="22"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="22"/>
+      <c r="D336" s="22"/>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="10"/>
@@ -7905,10 +7966,10 @@
       <c r="N336" s="10"/>
     </row>
     <row r="337" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A337" s="24"/>
-      <c r="B337" s="25"/>
-      <c r="C337" s="24"/>
-      <c r="D337" s="24"/>
+      <c r="A337" s="22"/>
+      <c r="B337" s="23"/>
+      <c r="C337" s="22"/>
+      <c r="D337" s="22"/>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
@@ -7921,10 +7982,10 @@
       <c r="N337" s="10"/>
     </row>
     <row r="338" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A338" s="24"/>
-      <c r="B338" s="25"/>
-      <c r="C338" s="24"/>
-      <c r="D338" s="24"/>
+      <c r="A338" s="22"/>
+      <c r="B338" s="23"/>
+      <c r="C338" s="22"/>
+      <c r="D338" s="22"/>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
@@ -7937,10 +7998,10 @@
       <c r="N338" s="10"/>
     </row>
     <row r="339" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A339" s="24"/>
-      <c r="B339" s="25"/>
-      <c r="C339" s="24"/>
-      <c r="D339" s="24"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="22"/>
+      <c r="D339" s="22"/>
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
@@ -7953,10 +8014,10 @@
       <c r="N339" s="10"/>
     </row>
     <row r="340" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A340" s="24"/>
-      <c r="B340" s="25"/>
-      <c r="C340" s="24"/>
-      <c r="D340" s="24"/>
+      <c r="A340" s="22"/>
+      <c r="B340" s="23"/>
+      <c r="C340" s="22"/>
+      <c r="D340" s="22"/>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
@@ -7969,10 +8030,10 @@
       <c r="N340" s="10"/>
     </row>
     <row r="341" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A341" s="24"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="24"/>
-      <c r="D341" s="24"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="23"/>
+      <c r="C341" s="22"/>
+      <c r="D341" s="22"/>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="10"/>
@@ -7985,10 +8046,10 @@
       <c r="N341" s="10"/>
     </row>
     <row r="342" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A342" s="24"/>
-      <c r="B342" s="25"/>
-      <c r="C342" s="24"/>
-      <c r="D342" s="24"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="23"/>
+      <c r="C342" s="22"/>
+      <c r="D342" s="22"/>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="10"/>
@@ -8001,10 +8062,10 @@
       <c r="N342" s="10"/>
     </row>
     <row r="343" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A343" s="24"/>
-      <c r="B343" s="25"/>
-      <c r="C343" s="24"/>
-      <c r="D343" s="24"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="23"/>
+      <c r="C343" s="22"/>
+      <c r="D343" s="22"/>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
@@ -8017,10 +8078,10 @@
       <c r="N343" s="10"/>
     </row>
     <row r="344" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A344" s="24"/>
-      <c r="B344" s="25"/>
-      <c r="C344" s="24"/>
-      <c r="D344" s="24"/>
+      <c r="A344" s="22"/>
+      <c r="B344" s="23"/>
+      <c r="C344" s="22"/>
+      <c r="D344" s="22"/>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
@@ -8033,10 +8094,10 @@
       <c r="N344" s="10"/>
     </row>
     <row r="345" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A345" s="24"/>
-      <c r="B345" s="25"/>
-      <c r="C345" s="24"/>
-      <c r="D345" s="24"/>
+      <c r="A345" s="22"/>
+      <c r="B345" s="23"/>
+      <c r="C345" s="22"/>
+      <c r="D345" s="22"/>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10"/>
@@ -8049,10 +8110,10 @@
       <c r="N345" s="10"/>
     </row>
     <row r="346" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A346" s="24"/>
-      <c r="B346" s="25"/>
-      <c r="C346" s="24"/>
-      <c r="D346" s="24"/>
+      <c r="A346" s="22"/>
+      <c r="B346" s="23"/>
+      <c r="C346" s="22"/>
+      <c r="D346" s="22"/>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
@@ -8065,10 +8126,10 @@
       <c r="N346" s="10"/>
     </row>
     <row r="347" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A347" s="24"/>
-      <c r="B347" s="25"/>
-      <c r="C347" s="24"/>
-      <c r="D347" s="24"/>
+      <c r="A347" s="22"/>
+      <c r="B347" s="23"/>
+      <c r="C347" s="22"/>
+      <c r="D347" s="22"/>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
@@ -8081,10 +8142,10 @@
       <c r="N347" s="10"/>
     </row>
     <row r="348" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A348" s="24"/>
-      <c r="B348" s="25"/>
-      <c r="C348" s="24"/>
-      <c r="D348" s="24"/>
+      <c r="A348" s="22"/>
+      <c r="B348" s="23"/>
+      <c r="C348" s="22"/>
+      <c r="D348" s="22"/>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
@@ -8097,10 +8158,10 @@
       <c r="N348" s="10"/>
     </row>
     <row r="349" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A349" s="24"/>
-      <c r="B349" s="25"/>
-      <c r="C349" s="24"/>
-      <c r="D349" s="24"/>
+      <c r="A349" s="22"/>
+      <c r="B349" s="23"/>
+      <c r="C349" s="22"/>
+      <c r="D349" s="22"/>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
@@ -8113,10 +8174,10 @@
       <c r="N349" s="10"/>
     </row>
     <row r="350" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A350" s="24"/>
-      <c r="B350" s="25"/>
-      <c r="C350" s="24"/>
-      <c r="D350" s="24"/>
+      <c r="A350" s="22"/>
+      <c r="B350" s="23"/>
+      <c r="C350" s="22"/>
+      <c r="D350" s="22"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
@@ -8129,10 +8190,10 @@
       <c r="N350" s="10"/>
     </row>
     <row r="351" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A351" s="24"/>
-      <c r="B351" s="25"/>
-      <c r="C351" s="24"/>
-      <c r="D351" s="24"/>
+      <c r="A351" s="22"/>
+      <c r="B351" s="23"/>
+      <c r="C351" s="22"/>
+      <c r="D351" s="22"/>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
@@ -8145,10 +8206,10 @@
       <c r="N351" s="10"/>
     </row>
     <row r="352" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A352" s="24"/>
-      <c r="B352" s="25"/>
-      <c r="C352" s="24"/>
-      <c r="D352" s="24"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="23"/>
+      <c r="C352" s="22"/>
+      <c r="D352" s="22"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10"/>
@@ -8161,10 +8222,10 @@
       <c r="N352" s="10"/>
     </row>
     <row r="353" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A353" s="24"/>
-      <c r="B353" s="25"/>
-      <c r="C353" s="24"/>
-      <c r="D353" s="24"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="23"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="22"/>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10"/>
@@ -8177,10 +8238,10 @@
       <c r="N353" s="10"/>
     </row>
     <row r="354" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A354" s="24"/>
-      <c r="B354" s="25"/>
-      <c r="C354" s="24"/>
-      <c r="D354" s="24"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="23"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="22"/>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10"/>
@@ -8193,10 +8254,10 @@
       <c r="N354" s="10"/>
     </row>
     <row r="355" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A355" s="24"/>
-      <c r="B355" s="25"/>
-      <c r="C355" s="24"/>
-      <c r="D355" s="24"/>
+      <c r="A355" s="22"/>
+      <c r="B355" s="23"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="22"/>
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
@@ -8209,10 +8270,10 @@
       <c r="N355" s="10"/>
     </row>
     <row r="356" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A356" s="24"/>
-      <c r="B356" s="25"/>
-      <c r="C356" s="24"/>
-      <c r="D356" s="24"/>
+      <c r="A356" s="22"/>
+      <c r="B356" s="23"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="22"/>
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="10"/>
@@ -8225,10 +8286,10 @@
       <c r="N356" s="10"/>
     </row>
     <row r="357" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A357" s="24"/>
-      <c r="B357" s="25"/>
-      <c r="C357" s="24"/>
-      <c r="D357" s="24"/>
+      <c r="A357" s="22"/>
+      <c r="B357" s="23"/>
+      <c r="C357" s="22"/>
+      <c r="D357" s="22"/>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="10"/>
@@ -8241,10 +8302,10 @@
       <c r="N357" s="10"/>
     </row>
     <row r="358" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A358" s="24"/>
-      <c r="B358" s="25"/>
-      <c r="C358" s="24"/>
-      <c r="D358" s="24"/>
+      <c r="A358" s="22"/>
+      <c r="B358" s="23"/>
+      <c r="C358" s="22"/>
+      <c r="D358" s="22"/>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="10"/>
@@ -8257,10 +8318,10 @@
       <c r="N358" s="10"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A359" s="24"/>
-      <c r="B359" s="25"/>
-      <c r="C359" s="24"/>
-      <c r="D359" s="24"/>
+      <c r="A359" s="22"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="22"/>
+      <c r="D359" s="22"/>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="10"/>
@@ -8273,10 +8334,10 @@
       <c r="N359" s="10"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A360" s="24"/>
-      <c r="B360" s="25"/>
-      <c r="C360" s="24"/>
-      <c r="D360" s="24"/>
+      <c r="A360" s="22"/>
+      <c r="B360" s="23"/>
+      <c r="C360" s="22"/>
+      <c r="D360" s="22"/>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="10"/>
@@ -8289,10 +8350,10 @@
       <c r="N360" s="10"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A361" s="24"/>
-      <c r="B361" s="25"/>
-      <c r="C361" s="24"/>
-      <c r="D361" s="24"/>
+      <c r="A361" s="22"/>
+      <c r="B361" s="23"/>
+      <c r="C361" s="22"/>
+      <c r="D361" s="22"/>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="10"/>
@@ -8305,10 +8366,10 @@
       <c r="N361" s="10"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A362" s="24"/>
-      <c r="B362" s="25"/>
-      <c r="C362" s="24"/>
-      <c r="D362" s="24"/>
+      <c r="A362" s="22"/>
+      <c r="B362" s="23"/>
+      <c r="C362" s="22"/>
+      <c r="D362" s="22"/>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10"/>
@@ -8321,10 +8382,10 @@
       <c r="N362" s="10"/>
     </row>
     <row r="363" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A363" s="24"/>
-      <c r="B363" s="25"/>
-      <c r="C363" s="24"/>
-      <c r="D363" s="24"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="23"/>
+      <c r="C363" s="22"/>
+      <c r="D363" s="22"/>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
@@ -8337,10 +8398,10 @@
       <c r="N363" s="10"/>
     </row>
     <row r="364" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A364" s="24"/>
-      <c r="B364" s="25"/>
-      <c r="C364" s="24"/>
-      <c r="D364" s="24"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="23"/>
+      <c r="C364" s="22"/>
+      <c r="D364" s="22"/>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="10"/>
@@ -8353,10 +8414,10 @@
       <c r="N364" s="10"/>
     </row>
     <row r="365" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A365" s="24"/>
-      <c r="B365" s="25"/>
-      <c r="C365" s="24"/>
-      <c r="D365" s="24"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="23"/>
+      <c r="C365" s="22"/>
+      <c r="D365" s="22"/>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10"/>
@@ -8369,10 +8430,10 @@
       <c r="N365" s="10"/>
     </row>
     <row r="366" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A366" s="24"/>
-      <c r="B366" s="25"/>
-      <c r="C366" s="24"/>
-      <c r="D366" s="24"/>
+      <c r="A366" s="22"/>
+      <c r="B366" s="23"/>
+      <c r="C366" s="22"/>
+      <c r="D366" s="22"/>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="10"/>
@@ -8385,10 +8446,10 @@
       <c r="N366" s="10"/>
     </row>
     <row r="367" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A367" s="24"/>
-      <c r="B367" s="25"/>
-      <c r="C367" s="24"/>
-      <c r="D367" s="24"/>
+      <c r="A367" s="22"/>
+      <c r="B367" s="23"/>
+      <c r="C367" s="22"/>
+      <c r="D367" s="22"/>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
@@ -8401,10 +8462,10 @@
       <c r="N367" s="10"/>
     </row>
     <row r="368" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A368" s="24"/>
-      <c r="B368" s="25"/>
-      <c r="C368" s="24"/>
-      <c r="D368" s="24"/>
+      <c r="A368" s="22"/>
+      <c r="B368" s="23"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="22"/>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
       <c r="G368" s="10"/>
@@ -8417,10 +8478,10 @@
       <c r="N368" s="10"/>
     </row>
     <row r="369" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A369" s="24"/>
-      <c r="B369" s="25"/>
-      <c r="C369" s="24"/>
-      <c r="D369" s="24"/>
+      <c r="A369" s="22"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="22"/>
+      <c r="D369" s="22"/>
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
       <c r="G369" s="10"/>
@@ -8433,10 +8494,10 @@
       <c r="N369" s="10"/>
     </row>
     <row r="370" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A370" s="24"/>
-      <c r="B370" s="25"/>
-      <c r="C370" s="24"/>
-      <c r="D370" s="24"/>
+      <c r="A370" s="22"/>
+      <c r="B370" s="23"/>
+      <c r="C370" s="22"/>
+      <c r="D370" s="22"/>
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
       <c r="G370" s="10"/>
@@ -8449,10 +8510,10 @@
       <c r="N370" s="10"/>
     </row>
     <row r="371" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A371" s="24"/>
-      <c r="B371" s="25"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="24"/>
+      <c r="A371" s="22"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="22"/>
+      <c r="D371" s="22"/>
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
       <c r="G371" s="10"/>
@@ -8465,10 +8526,10 @@
       <c r="N371" s="10"/>
     </row>
     <row r="372" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A372" s="24"/>
-      <c r="B372" s="25"/>
-      <c r="C372" s="24"/>
-      <c r="D372" s="24"/>
+      <c r="A372" s="22"/>
+      <c r="B372" s="23"/>
+      <c r="C372" s="22"/>
+      <c r="D372" s="22"/>
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
       <c r="G372" s="10"/>
@@ -8481,10 +8542,10 @@
       <c r="N372" s="10"/>
     </row>
     <row r="373" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A373" s="24"/>
-      <c r="B373" s="25"/>
-      <c r="C373" s="24"/>
-      <c r="D373" s="24"/>
+      <c r="A373" s="22"/>
+      <c r="B373" s="23"/>
+      <c r="C373" s="22"/>
+      <c r="D373" s="22"/>
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
       <c r="G373" s="10"/>
@@ -8497,10 +8558,10 @@
       <c r="N373" s="10"/>
     </row>
     <row r="374" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A374" s="24"/>
-      <c r="B374" s="25"/>
-      <c r="C374" s="24"/>
-      <c r="D374" s="24"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="23"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="22"/>
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
@@ -8513,10 +8574,10 @@
       <c r="N374" s="10"/>
     </row>
     <row r="375" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A375" s="24"/>
-      <c r="B375" s="25"/>
-      <c r="C375" s="24"/>
-      <c r="D375" s="24"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="23"/>
+      <c r="C375" s="22"/>
+      <c r="D375" s="22"/>
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
@@ -8529,10 +8590,10 @@
       <c r="N375" s="10"/>
     </row>
     <row r="376" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A376" s="24"/>
-      <c r="B376" s="25"/>
-      <c r="C376" s="24"/>
-      <c r="D376" s="24"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="23"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="22"/>
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
       <c r="G376" s="10"/>
@@ -8545,10 +8606,10 @@
       <c r="N376" s="10"/>
     </row>
     <row r="377" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A377" s="24"/>
-      <c r="B377" s="25"/>
-      <c r="C377" s="24"/>
-      <c r="D377" s="24"/>
+      <c r="A377" s="22"/>
+      <c r="B377" s="23"/>
+      <c r="C377" s="22"/>
+      <c r="D377" s="22"/>
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="10"/>
@@ -8561,10 +8622,10 @@
       <c r="N377" s="10"/>
     </row>
     <row r="378" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A378" s="24"/>
-      <c r="B378" s="25"/>
-      <c r="C378" s="24"/>
-      <c r="D378" s="24"/>
+      <c r="A378" s="22"/>
+      <c r="B378" s="23"/>
+      <c r="C378" s="22"/>
+      <c r="D378" s="22"/>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="10"/>
@@ -8577,10 +8638,10 @@
       <c r="N378" s="10"/>
     </row>
     <row r="379" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A379" s="24"/>
-      <c r="B379" s="25"/>
-      <c r="C379" s="24"/>
-      <c r="D379" s="24"/>
+      <c r="A379" s="22"/>
+      <c r="B379" s="23"/>
+      <c r="C379" s="22"/>
+      <c r="D379" s="22"/>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="10"/>
@@ -8593,10 +8654,10 @@
       <c r="N379" s="10"/>
     </row>
     <row r="380" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A380" s="24"/>
-      <c r="B380" s="25"/>
-      <c r="C380" s="24"/>
-      <c r="D380" s="24"/>
+      <c r="A380" s="22"/>
+      <c r="B380" s="23"/>
+      <c r="C380" s="22"/>
+      <c r="D380" s="22"/>
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="10"/>
@@ -8609,10 +8670,10 @@
       <c r="N380" s="10"/>
     </row>
     <row r="381" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A381" s="24"/>
-      <c r="B381" s="25"/>
-      <c r="C381" s="24"/>
-      <c r="D381" s="24"/>
+      <c r="A381" s="22"/>
+      <c r="B381" s="23"/>
+      <c r="C381" s="22"/>
+      <c r="D381" s="22"/>
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="10"/>
@@ -8625,10 +8686,10 @@
       <c r="N381" s="10"/>
     </row>
     <row r="382" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A382" s="24"/>
-      <c r="B382" s="25"/>
-      <c r="C382" s="24"/>
-      <c r="D382" s="24"/>
+      <c r="A382" s="22"/>
+      <c r="B382" s="23"/>
+      <c r="C382" s="22"/>
+      <c r="D382" s="22"/>
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="10"/>
@@ -8641,10 +8702,10 @@
       <c r="N382" s="10"/>
     </row>
     <row r="383" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A383" s="24"/>
-      <c r="B383" s="25"/>
-      <c r="C383" s="24"/>
-      <c r="D383" s="24"/>
+      <c r="A383" s="22"/>
+      <c r="B383" s="23"/>
+      <c r="C383" s="22"/>
+      <c r="D383" s="22"/>
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="10"/>
@@ -8657,10 +8718,10 @@
       <c r="N383" s="10"/>
     </row>
     <row r="384" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A384" s="24"/>
-      <c r="B384" s="25"/>
-      <c r="C384" s="24"/>
-      <c r="D384" s="24"/>
+      <c r="A384" s="22"/>
+      <c r="B384" s="23"/>
+      <c r="C384" s="22"/>
+      <c r="D384" s="22"/>
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="10"/>
@@ -8673,10 +8734,10 @@
       <c r="N384" s="10"/>
     </row>
     <row r="385" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A385" s="24"/>
-      <c r="B385" s="25"/>
-      <c r="C385" s="24"/>
-      <c r="D385" s="24"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="23"/>
+      <c r="C385" s="22"/>
+      <c r="D385" s="22"/>
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="10"/>
@@ -8689,10 +8750,10 @@
       <c r="N385" s="10"/>
     </row>
     <row r="386" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A386" s="24"/>
-      <c r="B386" s="25"/>
-      <c r="C386" s="24"/>
-      <c r="D386" s="24"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="23"/>
+      <c r="C386" s="22"/>
+      <c r="D386" s="22"/>
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
       <c r="G386" s="10"/>
@@ -8705,10 +8766,10 @@
       <c r="N386" s="10"/>
     </row>
     <row r="387" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A387" s="24"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="24"/>
-      <c r="D387" s="24"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="23"/>
+      <c r="C387" s="22"/>
+      <c r="D387" s="22"/>
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
       <c r="G387" s="10"/>
@@ -8721,10 +8782,10 @@
       <c r="N387" s="10"/>
     </row>
     <row r="388" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A388" s="24"/>
-      <c r="B388" s="25"/>
-      <c r="C388" s="24"/>
-      <c r="D388" s="24"/>
+      <c r="A388" s="22"/>
+      <c r="B388" s="23"/>
+      <c r="C388" s="22"/>
+      <c r="D388" s="22"/>
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="10"/>
@@ -8737,10 +8798,10 @@
       <c r="N388" s="10"/>
     </row>
     <row r="389" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A389" s="24"/>
-      <c r="B389" s="25"/>
-      <c r="C389" s="24"/>
-      <c r="D389" s="24"/>
+      <c r="A389" s="22"/>
+      <c r="B389" s="23"/>
+      <c r="C389" s="22"/>
+      <c r="D389" s="22"/>
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="10"/>
@@ -8753,10 +8814,10 @@
       <c r="N389" s="10"/>
     </row>
     <row r="390" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A390" s="24"/>
-      <c r="B390" s="25"/>
-      <c r="C390" s="24"/>
-      <c r="D390" s="24"/>
+      <c r="A390" s="22"/>
+      <c r="B390" s="23"/>
+      <c r="C390" s="22"/>
+      <c r="D390" s="22"/>
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="10"/>
@@ -8769,10 +8830,10 @@
       <c r="N390" s="10"/>
     </row>
     <row r="391" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A391" s="24"/>
-      <c r="B391" s="25"/>
-      <c r="C391" s="24"/>
-      <c r="D391" s="24"/>
+      <c r="A391" s="22"/>
+      <c r="B391" s="23"/>
+      <c r="C391" s="22"/>
+      <c r="D391" s="22"/>
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="10"/>
@@ -8785,10 +8846,10 @@
       <c r="N391" s="10"/>
     </row>
     <row r="392" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A392" s="24"/>
-      <c r="B392" s="25"/>
-      <c r="C392" s="24"/>
-      <c r="D392" s="24"/>
+      <c r="A392" s="22"/>
+      <c r="B392" s="23"/>
+      <c r="C392" s="22"/>
+      <c r="D392" s="22"/>
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="10"/>
@@ -8801,10 +8862,10 @@
       <c r="N392" s="10"/>
     </row>
     <row r="393" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A393" s="24"/>
-      <c r="B393" s="25"/>
-      <c r="C393" s="24"/>
-      <c r="D393" s="24"/>
+      <c r="A393" s="22"/>
+      <c r="B393" s="23"/>
+      <c r="C393" s="22"/>
+      <c r="D393" s="22"/>
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
@@ -8817,10 +8878,10 @@
       <c r="N393" s="10"/>
     </row>
     <row r="394" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A394" s="24"/>
-      <c r="B394" s="25"/>
-      <c r="C394" s="24"/>
-      <c r="D394" s="24"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="23"/>
+      <c r="C394" s="22"/>
+      <c r="D394" s="22"/>
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="10"/>
@@ -8833,10 +8894,10 @@
       <c r="N394" s="10"/>
     </row>
     <row r="395" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A395" s="24"/>
-      <c r="B395" s="25"/>
-      <c r="C395" s="24"/>
-      <c r="D395" s="24"/>
+      <c r="A395" s="22"/>
+      <c r="B395" s="23"/>
+      <c r="C395" s="22"/>
+      <c r="D395" s="22"/>
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="10"/>
@@ -8849,10 +8910,10 @@
       <c r="N395" s="10"/>
     </row>
     <row r="396" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A396" s="24"/>
-      <c r="B396" s="25"/>
-      <c r="C396" s="24"/>
-      <c r="D396" s="24"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="23"/>
+      <c r="C396" s="22"/>
+      <c r="D396" s="22"/>
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
       <c r="G396" s="10"/>
@@ -8865,10 +8926,10 @@
       <c r="N396" s="10"/>
     </row>
     <row r="397" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A397" s="24"/>
-      <c r="B397" s="25"/>
-      <c r="C397" s="24"/>
-      <c r="D397" s="24"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="23"/>
+      <c r="C397" s="22"/>
+      <c r="D397" s="22"/>
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="10"/>
@@ -8881,10 +8942,10 @@
       <c r="N397" s="10"/>
     </row>
     <row r="398" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A398" s="24"/>
-      <c r="B398" s="25"/>
-      <c r="C398" s="24"/>
-      <c r="D398" s="24"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="23"/>
+      <c r="C398" s="22"/>
+      <c r="D398" s="22"/>
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="10"/>
@@ -8897,10 +8958,10 @@
       <c r="N398" s="10"/>
     </row>
     <row r="399" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A399" s="24"/>
-      <c r="B399" s="25"/>
-      <c r="C399" s="24"/>
-      <c r="D399" s="24"/>
+      <c r="A399" s="22"/>
+      <c r="B399" s="23"/>
+      <c r="C399" s="22"/>
+      <c r="D399" s="22"/>
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
       <c r="G399" s="10"/>
@@ -8913,10 +8974,10 @@
       <c r="N399" s="10"/>
     </row>
     <row r="400" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A400" s="24"/>
-      <c r="B400" s="25"/>
-      <c r="C400" s="24"/>
-      <c r="D400" s="24"/>
+      <c r="A400" s="22"/>
+      <c r="B400" s="23"/>
+      <c r="C400" s="22"/>
+      <c r="D400" s="22"/>
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
       <c r="G400" s="10"/>
@@ -8929,10 +8990,10 @@
       <c r="N400" s="10"/>
     </row>
     <row r="401" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A401" s="24"/>
-      <c r="B401" s="25"/>
-      <c r="C401" s="24"/>
-      <c r="D401" s="24"/>
+      <c r="A401" s="22"/>
+      <c r="B401" s="23"/>
+      <c r="C401" s="22"/>
+      <c r="D401" s="22"/>
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
       <c r="G401" s="10"/>
@@ -8945,10 +9006,10 @@
       <c r="N401" s="10"/>
     </row>
     <row r="402" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A402" s="24"/>
-      <c r="B402" s="25"/>
-      <c r="C402" s="24"/>
-      <c r="D402" s="24"/>
+      <c r="A402" s="22"/>
+      <c r="B402" s="23"/>
+      <c r="C402" s="22"/>
+      <c r="D402" s="22"/>
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
       <c r="G402" s="10"/>
@@ -8961,10 +9022,10 @@
       <c r="N402" s="10"/>
     </row>
     <row r="403" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A403" s="24"/>
-      <c r="B403" s="25"/>
-      <c r="C403" s="24"/>
-      <c r="D403" s="24"/>
+      <c r="A403" s="22"/>
+      <c r="B403" s="23"/>
+      <c r="C403" s="22"/>
+      <c r="D403" s="22"/>
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
@@ -8977,10 +9038,10 @@
       <c r="N403" s="10"/>
     </row>
     <row r="404" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A404" s="24"/>
-      <c r="B404" s="25"/>
-      <c r="C404" s="24"/>
-      <c r="D404" s="24"/>
+      <c r="A404" s="22"/>
+      <c r="B404" s="23"/>
+      <c r="C404" s="22"/>
+      <c r="D404" s="22"/>
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
@@ -8993,10 +9054,10 @@
       <c r="N404" s="10"/>
     </row>
     <row r="405" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A405" s="24"/>
-      <c r="B405" s="25"/>
-      <c r="C405" s="24"/>
-      <c r="D405" s="24"/>
+      <c r="A405" s="22"/>
+      <c r="B405" s="23"/>
+      <c r="C405" s="22"/>
+      <c r="D405" s="22"/>
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
       <c r="G405" s="10"/>
@@ -9009,10 +9070,10 @@
       <c r="N405" s="10"/>
     </row>
     <row r="406" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A406" s="24"/>
-      <c r="B406" s="25"/>
-      <c r="C406" s="24"/>
-      <c r="D406" s="24"/>
+      <c r="A406" s="22"/>
+      <c r="B406" s="23"/>
+      <c r="C406" s="22"/>
+      <c r="D406" s="22"/>
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="10"/>
@@ -9025,10 +9086,10 @@
       <c r="N406" s="10"/>
     </row>
     <row r="407" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A407" s="24"/>
-      <c r="B407" s="25"/>
-      <c r="C407" s="24"/>
-      <c r="D407" s="24"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="23"/>
+      <c r="C407" s="22"/>
+      <c r="D407" s="22"/>
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="10"/>
@@ -9041,10 +9102,10 @@
       <c r="N407" s="10"/>
     </row>
     <row r="408" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A408" s="24"/>
-      <c r="B408" s="25"/>
-      <c r="C408" s="24"/>
-      <c r="D408" s="24"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="23"/>
+      <c r="C408" s="22"/>
+      <c r="D408" s="22"/>
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="10"/>
@@ -9057,10 +9118,10 @@
       <c r="N408" s="10"/>
     </row>
     <row r="409" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A409" s="24"/>
-      <c r="B409" s="25"/>
-      <c r="C409" s="24"/>
-      <c r="D409" s="24"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="23"/>
+      <c r="C409" s="22"/>
+      <c r="D409" s="22"/>
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="10"/>
@@ -9073,10 +9134,10 @@
       <c r="N409" s="10"/>
     </row>
     <row r="410" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A410" s="24"/>
-      <c r="B410" s="25"/>
-      <c r="C410" s="24"/>
-      <c r="D410" s="24"/>
+      <c r="A410" s="22"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="22"/>
+      <c r="D410" s="22"/>
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="10"/>
@@ -9089,10 +9150,10 @@
       <c r="N410" s="10"/>
     </row>
     <row r="411" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A411" s="24"/>
-      <c r="B411" s="25"/>
-      <c r="C411" s="24"/>
-      <c r="D411" s="24"/>
+      <c r="A411" s="22"/>
+      <c r="B411" s="23"/>
+      <c r="C411" s="22"/>
+      <c r="D411" s="22"/>
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
       <c r="G411" s="10"/>
@@ -9105,10 +9166,10 @@
       <c r="N411" s="10"/>
     </row>
     <row r="412" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A412" s="24"/>
-      <c r="B412" s="25"/>
-      <c r="C412" s="24"/>
-      <c r="D412" s="24"/>
+      <c r="A412" s="22"/>
+      <c r="B412" s="23"/>
+      <c r="C412" s="22"/>
+      <c r="D412" s="22"/>
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="10"/>
@@ -9121,10 +9182,10 @@
       <c r="N412" s="10"/>
     </row>
     <row r="413" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A413" s="24"/>
-      <c r="B413" s="25"/>
-      <c r="C413" s="24"/>
-      <c r="D413" s="24"/>
+      <c r="A413" s="22"/>
+      <c r="B413" s="23"/>
+      <c r="C413" s="22"/>
+      <c r="D413" s="22"/>
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="10"/>
@@ -9137,10 +9198,10 @@
       <c r="N413" s="10"/>
     </row>
     <row r="414" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A414" s="24"/>
-      <c r="B414" s="25"/>
-      <c r="C414" s="24"/>
-      <c r="D414" s="24"/>
+      <c r="A414" s="22"/>
+      <c r="B414" s="23"/>
+      <c r="C414" s="22"/>
+      <c r="D414" s="22"/>
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="10"/>
@@ -9153,10 +9214,10 @@
       <c r="N414" s="10"/>
     </row>
     <row r="415" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A415" s="24"/>
-      <c r="B415" s="25"/>
-      <c r="C415" s="24"/>
-      <c r="D415" s="24"/>
+      <c r="A415" s="22"/>
+      <c r="B415" s="23"/>
+      <c r="C415" s="22"/>
+      <c r="D415" s="22"/>
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="10"/>
@@ -9169,10 +9230,10 @@
       <c r="N415" s="10"/>
     </row>
     <row r="416" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A416" s="24"/>
-      <c r="B416" s="25"/>
-      <c r="C416" s="24"/>
-      <c r="D416" s="24"/>
+      <c r="A416" s="22"/>
+      <c r="B416" s="23"/>
+      <c r="C416" s="22"/>
+      <c r="D416" s="22"/>
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
       <c r="G416" s="10"/>
@@ -9185,10 +9246,10 @@
       <c r="N416" s="10"/>
     </row>
     <row r="417" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A417" s="24"/>
-      <c r="B417" s="25"/>
-      <c r="C417" s="24"/>
-      <c r="D417" s="24"/>
+      <c r="A417" s="22"/>
+      <c r="B417" s="23"/>
+      <c r="C417" s="22"/>
+      <c r="D417" s="22"/>
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
       <c r="G417" s="10"/>
@@ -9201,10 +9262,10 @@
       <c r="N417" s="10"/>
     </row>
     <row r="418" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A418" s="24"/>
-      <c r="B418" s="25"/>
-      <c r="C418" s="24"/>
-      <c r="D418" s="24"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="23"/>
+      <c r="C418" s="22"/>
+      <c r="D418" s="22"/>
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
       <c r="G418" s="10"/>
@@ -9217,10 +9278,10 @@
       <c r="N418" s="10"/>
     </row>
     <row r="419" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A419" s="24"/>
-      <c r="B419" s="25"/>
-      <c r="C419" s="24"/>
-      <c r="D419" s="24"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="23"/>
+      <c r="C419" s="22"/>
+      <c r="D419" s="22"/>
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
       <c r="G419" s="10"/>
@@ -9233,10 +9294,10 @@
       <c r="N419" s="10"/>
     </row>
     <row r="420" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A420" s="24"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="24"/>
-      <c r="D420" s="24"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="23"/>
+      <c r="C420" s="22"/>
+      <c r="D420" s="22"/>
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
       <c r="G420" s="10"/>
@@ -9249,10 +9310,10 @@
       <c r="N420" s="10"/>
     </row>
     <row r="421" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A421" s="24"/>
-      <c r="B421" s="25"/>
-      <c r="C421" s="24"/>
-      <c r="D421" s="24"/>
+      <c r="A421" s="22"/>
+      <c r="B421" s="23"/>
+      <c r="C421" s="22"/>
+      <c r="D421" s="22"/>
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
       <c r="G421" s="10"/>
@@ -9265,10 +9326,10 @@
       <c r="N421" s="10"/>
     </row>
     <row r="422" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A422" s="24"/>
-      <c r="B422" s="25"/>
-      <c r="C422" s="24"/>
-      <c r="D422" s="24"/>
+      <c r="A422" s="22"/>
+      <c r="B422" s="23"/>
+      <c r="C422" s="22"/>
+      <c r="D422" s="22"/>
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
       <c r="G422" s="10"/>
@@ -9281,10 +9342,10 @@
       <c r="N422" s="10"/>
     </row>
     <row r="423" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A423" s="24"/>
-      <c r="B423" s="25"/>
-      <c r="C423" s="24"/>
-      <c r="D423" s="24"/>
+      <c r="A423" s="22"/>
+      <c r="B423" s="23"/>
+      <c r="C423" s="22"/>
+      <c r="D423" s="22"/>
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
       <c r="G423" s="10"/>
@@ -9297,10 +9358,10 @@
       <c r="N423" s="10"/>
     </row>
     <row r="424" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A424" s="24"/>
-      <c r="B424" s="25"/>
-      <c r="C424" s="24"/>
-      <c r="D424" s="24"/>
+      <c r="A424" s="22"/>
+      <c r="B424" s="23"/>
+      <c r="C424" s="22"/>
+      <c r="D424" s="22"/>
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
       <c r="G424" s="10"/>
@@ -9313,10 +9374,10 @@
       <c r="N424" s="10"/>
     </row>
     <row r="425" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A425" s="24"/>
-      <c r="B425" s="25"/>
-      <c r="C425" s="24"/>
-      <c r="D425" s="24"/>
+      <c r="A425" s="22"/>
+      <c r="B425" s="23"/>
+      <c r="C425" s="22"/>
+      <c r="D425" s="22"/>
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
       <c r="G425" s="10"/>
@@ -9329,10 +9390,10 @@
       <c r="N425" s="10"/>
     </row>
     <row r="426" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A426" s="24"/>
-      <c r="B426" s="25"/>
-      <c r="C426" s="24"/>
-      <c r="D426" s="24"/>
+      <c r="A426" s="22"/>
+      <c r="B426" s="23"/>
+      <c r="C426" s="22"/>
+      <c r="D426" s="22"/>
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
       <c r="G426" s="10"/>
@@ -9345,10 +9406,10 @@
       <c r="N426" s="10"/>
     </row>
     <row r="427" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A427" s="24"/>
-      <c r="B427" s="25"/>
-      <c r="C427" s="24"/>
-      <c r="D427" s="24"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="23"/>
+      <c r="C427" s="22"/>
+      <c r="D427" s="22"/>
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
       <c r="G427" s="10"/>
@@ -9361,10 +9422,10 @@
       <c r="N427" s="10"/>
     </row>
     <row r="428" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A428" s="24"/>
-      <c r="B428" s="24"/>
-      <c r="C428" s="24"/>
-      <c r="D428" s="24"/>
+      <c r="A428" s="22"/>
+      <c r="B428" s="22"/>
+      <c r="C428" s="22"/>
+      <c r="D428" s="22"/>
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
       <c r="G428" s="10"/>
@@ -9377,10 +9438,10 @@
       <c r="N428" s="10"/>
     </row>
     <row r="429" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A429" s="24"/>
-      <c r="B429" s="24"/>
-      <c r="C429" s="24"/>
-      <c r="D429" s="24"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
+      <c r="D429" s="22"/>
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
       <c r="G429" s="10"/>
@@ -9393,10 +9454,10 @@
       <c r="N429" s="10"/>
     </row>
     <row r="430" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A430" s="24"/>
-      <c r="B430" s="24"/>
-      <c r="C430" s="24"/>
-      <c r="D430" s="24"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
+      <c r="D430" s="22"/>
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
       <c r="G430" s="10"/>
@@ -9409,10 +9470,10 @@
       <c r="N430" s="10"/>
     </row>
     <row r="431" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A431" s="24"/>
-      <c r="B431" s="24"/>
-      <c r="C431" s="24"/>
-      <c r="D431" s="24"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
+      <c r="D431" s="22"/>
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
       <c r="G431" s="10"/>
@@ -9425,10 +9486,10 @@
       <c r="N431" s="10"/>
     </row>
     <row r="432" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A432" s="24"/>
-      <c r="B432" s="24"/>
-      <c r="C432" s="24"/>
-      <c r="D432" s="24"/>
+      <c r="A432" s="22"/>
+      <c r="B432" s="22"/>
+      <c r="C432" s="22"/>
+      <c r="D432" s="22"/>
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
       <c r="G432" s="10"/>
@@ -9441,10 +9502,10 @@
       <c r="N432" s="10"/>
     </row>
     <row r="433" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A433" s="24"/>
-      <c r="B433" s="24"/>
-      <c r="C433" s="24"/>
-      <c r="D433" s="24"/>
+      <c r="A433" s="22"/>
+      <c r="B433" s="22"/>
+      <c r="C433" s="22"/>
+      <c r="D433" s="22"/>
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
       <c r="G433" s="10"/>
@@ -9457,10 +9518,10 @@
       <c r="N433" s="10"/>
     </row>
     <row r="434" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A434" s="24"/>
-      <c r="B434" s="24"/>
-      <c r="C434" s="24"/>
-      <c r="D434" s="24"/>
+      <c r="A434" s="22"/>
+      <c r="B434" s="22"/>
+      <c r="C434" s="22"/>
+      <c r="D434" s="22"/>
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
       <c r="G434" s="10"/>
@@ -9473,10 +9534,10 @@
       <c r="N434" s="10"/>
     </row>
     <row r="435" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A435" s="24"/>
-      <c r="B435" s="24"/>
-      <c r="C435" s="24"/>
-      <c r="D435" s="24"/>
+      <c r="A435" s="22"/>
+      <c r="B435" s="22"/>
+      <c r="C435" s="22"/>
+      <c r="D435" s="22"/>
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
       <c r="G435" s="10"/>
@@ -9489,10 +9550,10 @@
       <c r="N435" s="10"/>
     </row>
     <row r="436" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A436" s="24"/>
-      <c r="B436" s="24"/>
-      <c r="C436" s="24"/>
-      <c r="D436" s="24"/>
+      <c r="A436" s="22"/>
+      <c r="B436" s="22"/>
+      <c r="C436" s="22"/>
+      <c r="D436" s="22"/>
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
       <c r="G436" s="10"/>
@@ -9505,10 +9566,10 @@
       <c r="N436" s="10"/>
     </row>
     <row r="437" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A437" s="24"/>
-      <c r="B437" s="24"/>
-      <c r="C437" s="24"/>
-      <c r="D437" s="24"/>
+      <c r="A437" s="22"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
+      <c r="D437" s="22"/>
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
       <c r="G437" s="10"/>
@@ -9533,10 +9594,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Iza,Klaudia,Piotr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Nowe,W trakcie,Blokowane/Wstrzymane,Do weryfikacji/Testowane,Zakończone,Anulowane"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9550,7 +9611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9562,7 +9623,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="10"/>
@@ -9571,14 +9632,14 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="25"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="10"/>
@@ -9587,7 +9648,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="10"/>
@@ -9596,7 +9657,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="10"/>
@@ -9612,7 +9673,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="10"/>
@@ -9621,14 +9682,14 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="10"/>
@@ -9637,7 +9698,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="10"/>
@@ -9653,7 +9714,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="10"/>
@@ -9662,14 +9723,14 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="10"/>
@@ -9678,7 +9739,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="10"/>
@@ -9687,7 +9748,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="10"/>
@@ -9705,7 +9766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9717,424 +9778,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2F26AF-4BFB-411E-B397-D284EE6E2873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912A3EE-8B1A-4523-A8CB-E51DB1F58450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -409,6 +409,36 @@
   </si>
   <si>
     <t>Średnie wynagrodzenie a cena mieszkania</t>
+  </si>
+  <si>
+    <t>Zmiana nazw opisu na wykresie walidacji np. Rooms…0</t>
+  </si>
+  <si>
+    <t>Zmodyfikować tabelę przy data wranglingu</t>
+  </si>
+  <si>
+    <t>Boxplot - zmodyfikować, po osi X, bez legendy</t>
+  </si>
+  <si>
+    <t>Analiza udogodnień w nieruchomościach - zmiksować opisy</t>
+  </si>
+  <si>
+    <t>ANOVA Porównanie średnich cen w różnych miastach (np. Warszawa vs Kraków vs Gdańsk)</t>
+  </si>
+  <si>
+    <t>Chi-kwadrat</t>
+  </si>
+  <si>
+    <t>Korelacja, normalność Pearson, Shapiro – Wilka</t>
+  </si>
+  <si>
+    <t>Modelowanie - zdecydować jaki rodzaj na podstawie wykonanych testów</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Analiza dyskryminacyjna</t>
   </si>
 </sst>
 </file>
@@ -737,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -817,10 +847,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -833,6 +859,11 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2085,11 +2116,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2168,7 +2199,7 @@
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3010,7 +3041,9 @@
         <v>19</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
@@ -3032,7 +3065,9 @@
         <v>19</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
@@ -3149,13 +3184,13 @@
       <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <v>45662</v>
       </c>
       <c r="E37" s="20" t="s">
@@ -3175,13 +3210,13 @@
       <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="40">
         <v>45662</v>
       </c>
       <c r="E38" s="22" t="s">
@@ -3199,10 +3234,18 @@
     </row>
     <row r="39" spans="1:14" ht="13.5" customHeight="1">
       <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="40">
+        <v>45664</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3215,10 +3258,18 @@
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1">
       <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="10"/>
+      <c r="B40" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="40">
+        <v>45664</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -3231,10 +3282,18 @@
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1">
       <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="40">
+        <v>45664</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3247,10 +3306,18 @@
     </row>
     <row r="42" spans="1:14" ht="13.5" customHeight="1">
       <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="40">
+        <v>45664</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3263,9 +3330,15 @@
     </row>
     <row r="43" spans="1:14" ht="13.5" customHeight="1">
       <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="40">
+        <v>45664</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -3279,9 +3352,15 @@
     </row>
     <row r="44" spans="1:14" ht="13.5" customHeight="1">
       <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="40">
+        <v>45664</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -3295,9 +3374,15 @@
     </row>
     <row r="45" spans="1:14" ht="13.5" customHeight="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="B45" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="40">
+        <v>45664</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -3311,11 +3396,17 @@
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1">
       <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="40">
+        <v>45664</v>
+      </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="43" t="s">
+        <v>91</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -3327,9 +3418,15 @@
     </row>
     <row r="47" spans="1:14" ht="13.5" customHeight="1">
       <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="40">
+        <v>45664</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia\Desktop\projekty GIT\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912A3EE-8B1A-4523-A8CB-E51DB1F58450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Oem</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -399,9 +398,6 @@
     <t>Rozbić tabelę z legendą dzielnic na 2</t>
   </si>
   <si>
-    <t>Zapomniałem o tym i zrobiłem</t>
-  </si>
-  <si>
     <t>Dodać GUS - Bazę danych lokalnych do źródeł i pliczek z wynagrodzeniami</t>
   </si>
   <si>
@@ -440,11 +436,17 @@
   <si>
     <t>Analiza dyskryminacyjna</t>
   </si>
+  <si>
+    <t>Zapomniałem o tym i zrobiłem (a ja nie zapomniałam i uzupełniłam trochę)</t>
+  </si>
+  <si>
+    <t>zrobione :)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -767,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -821,7 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,7 +864,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -994,7 +1006,7 @@
         <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -2116,11 +2128,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2186,20 +2198,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do"/>
+    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24"/>
+    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2208,8 +2220,8 @@
     <col min="2" max="2" width="72.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="43" customWidth="1"/>
     <col min="7" max="15" width="8.85546875" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="5"/>
   </cols>
@@ -2963,9 +2975,11 @@
       <c r="D28" s="14">
         <v>45660</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="36" t="s">
-        <v>79</v>
+      <c r="E28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -3034,15 +3048,17 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="14">
+        <v>45659</v>
+      </c>
       <c r="E31" s="19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="9"/>
@@ -3058,15 +3074,17 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="14">
+        <v>45659</v>
+      </c>
       <c r="E32" s="19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="9"/>
@@ -3082,13 +3100,15 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="14">
+        <v>45659</v>
+      </c>
       <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
@@ -3106,7 +3126,7 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="19"/>
@@ -3116,7 +3136,7 @@
       <c r="E34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>77</v>
       </c>
       <c r="G34" s="9"/>
@@ -3132,8 +3152,8 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>81</v>
+      <c r="B35" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>17</v>
@@ -3158,7 +3178,7 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -3184,19 +3204,19 @@
       <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>80</v>
+      <c r="B37" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="38">
         <v>45662</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -3207,22 +3227,22 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="39">
         <v>45662</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -3233,20 +3253,24 @@
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>45664</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -3257,20 +3281,22 @@
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="39">
         <v>45664</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -3281,20 +3307,22 @@
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>45664</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -3305,20 +3333,22 @@
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="22" t="s">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="39">
         <v>45664</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="42"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -3329,18 +3359,20 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="39">
         <v>45664</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -3351,18 +3383,22 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="39">
         <v>45664</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="42"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -3373,18 +3409,20 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="22" t="s">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>45664</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -3395,17 +3433,19 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="38" t="s">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="39">
+        <v>45664</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="40">
-        <v>45664</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -3417,18 +3457,20 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="A47" s="21">
+        <v>46</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>45664</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -3439,12 +3481,12 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -3455,12 +3497,12 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -3471,12 +3513,12 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -3487,12 +3529,12 @@
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -3503,12 +3545,12 @@
       <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -3519,12 +3561,12 @@
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -3535,12 +3577,12 @@
       <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -3551,12 +3593,12 @@
       <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -3567,12 +3609,12 @@
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -3583,12 +3625,12 @@
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -3599,12 +3641,12 @@
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -3615,12 +3657,12 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -3631,12 +3673,12 @@
       <c r="N59" s="10"/>
     </row>
     <row r="60" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -3647,12 +3689,12 @@
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
@@ -3663,12 +3705,12 @@
       <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -3679,12 +3721,12 @@
       <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -3695,12 +3737,12 @@
       <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -3711,12 +3753,12 @@
       <c r="N64" s="10"/>
     </row>
     <row r="65" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -3727,12 +3769,12 @@
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -3743,12 +3785,12 @@
       <c r="N66" s="10"/>
     </row>
     <row r="67" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -3759,12 +3801,12 @@
       <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -3775,12 +3817,12 @@
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -3791,12 +3833,12 @@
       <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
@@ -3807,12 +3849,12 @@
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -3823,12 +3865,12 @@
       <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -3839,12 +3881,12 @@
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
@@ -3855,12 +3897,12 @@
       <c r="N73" s="10"/>
     </row>
     <row r="74" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -3871,12 +3913,12 @@
       <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
@@ -3887,12 +3929,12 @@
       <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
@@ -3903,12 +3945,12 @@
       <c r="N76" s="10"/>
     </row>
     <row r="77" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
@@ -3919,12 +3961,12 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
@@ -3935,12 +3977,12 @@
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
@@ -3951,12 +3993,12 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
@@ -3967,12 +4009,12 @@
       <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
@@ -3983,12 +4025,12 @@
       <c r="N81" s="10"/>
     </row>
     <row r="82" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
@@ -3999,12 +4041,12 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
@@ -4015,12 +4057,12 @@
       <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -4031,12 +4073,12 @@
       <c r="N84" s="10"/>
     </row>
     <row r="85" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -4047,12 +4089,12 @@
       <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
@@ -4063,12 +4105,12 @@
       <c r="N86" s="10"/>
     </row>
     <row r="87" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
@@ -4079,12 +4121,12 @@
       <c r="N87" s="10"/>
     </row>
     <row r="88" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
@@ -4095,12 +4137,12 @@
       <c r="N88" s="10"/>
     </row>
     <row r="89" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
@@ -4111,12 +4153,12 @@
       <c r="N89" s="10"/>
     </row>
     <row r="90" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
@@ -4127,12 +4169,12 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
@@ -4143,12 +4185,12 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
@@ -4159,12 +4201,12 @@
       <c r="N92" s="10"/>
     </row>
     <row r="93" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
@@ -4175,12 +4217,12 @@
       <c r="N93" s="10"/>
     </row>
     <row r="94" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
@@ -4191,12 +4233,12 @@
       <c r="N94" s="10"/>
     </row>
     <row r="95" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -4207,12 +4249,12 @@
       <c r="N95" s="10"/>
     </row>
     <row r="96" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
@@ -4223,12 +4265,12 @@
       <c r="N96" s="10"/>
     </row>
     <row r="97" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
@@ -4239,12 +4281,12 @@
       <c r="N97" s="10"/>
     </row>
     <row r="98" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
@@ -4255,12 +4297,12 @@
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
@@ -4271,12 +4313,12 @@
       <c r="N99" s="10"/>
     </row>
     <row r="100" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -4287,12 +4329,12 @@
       <c r="N100" s="10"/>
     </row>
     <row r="101" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -4303,12 +4345,12 @@
       <c r="N101" s="10"/>
     </row>
     <row r="102" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -4319,12 +4361,12 @@
       <c r="N102" s="10"/>
     </row>
     <row r="103" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
@@ -4335,12 +4377,12 @@
       <c r="N103" s="10"/>
     </row>
     <row r="104" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -4351,12 +4393,12 @@
       <c r="N104" s="10"/>
     </row>
     <row r="105" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -4367,12 +4409,12 @@
       <c r="N105" s="10"/>
     </row>
     <row r="106" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -4383,12 +4425,12 @@
       <c r="N106" s="10"/>
     </row>
     <row r="107" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
@@ -4399,12 +4441,12 @@
       <c r="N107" s="10"/>
     </row>
     <row r="108" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -4415,12 +4457,12 @@
       <c r="N108" s="10"/>
     </row>
     <row r="109" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
@@ -4431,12 +4473,12 @@
       <c r="N109" s="10"/>
     </row>
     <row r="110" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
@@ -4447,12 +4489,12 @@
       <c r="N110" s="10"/>
     </row>
     <row r="111" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
@@ -4463,12 +4505,12 @@
       <c r="N111" s="10"/>
     </row>
     <row r="112" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
@@ -4479,12 +4521,12 @@
       <c r="N112" s="10"/>
     </row>
     <row r="113" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -4495,12 +4537,12 @@
       <c r="N113" s="10"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
@@ -4511,12 +4553,12 @@
       <c r="N114" s="10"/>
     </row>
     <row r="115" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
@@ -4527,12 +4569,12 @@
       <c r="N115" s="10"/>
     </row>
     <row r="116" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
@@ -4543,12 +4585,12 @@
       <c r="N116" s="10"/>
     </row>
     <row r="117" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
@@ -4559,12 +4601,12 @@
       <c r="N117" s="10"/>
     </row>
     <row r="118" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
@@ -4575,12 +4617,12 @@
       <c r="N118" s="10"/>
     </row>
     <row r="119" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -4591,12 +4633,12 @@
       <c r="N119" s="10"/>
     </row>
     <row r="120" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
@@ -4607,12 +4649,12 @@
       <c r="N120" s="10"/>
     </row>
     <row r="121" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
@@ -4623,12 +4665,12 @@
       <c r="N121" s="10"/>
     </row>
     <row r="122" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
@@ -4639,12 +4681,12 @@
       <c r="N122" s="10"/>
     </row>
     <row r="123" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A123" s="22"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
@@ -4655,12 +4697,12 @@
       <c r="N123" s="10"/>
     </row>
     <row r="124" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="10"/>
@@ -4671,12 +4713,12 @@
       <c r="N124" s="10"/>
     </row>
     <row r="125" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A125" s="22"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -4687,12 +4729,12 @@
       <c r="N125" s="10"/>
     </row>
     <row r="126" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
@@ -4703,12 +4745,12 @@
       <c r="N126" s="10"/>
     </row>
     <row r="127" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A127" s="22"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
@@ -4719,12 +4761,12 @@
       <c r="N127" s="10"/>
     </row>
     <row r="128" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
@@ -4735,12 +4777,12 @@
       <c r="N128" s="10"/>
     </row>
     <row r="129" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A129" s="22"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
@@ -4751,12 +4793,12 @@
       <c r="N129" s="10"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A130" s="22"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
@@ -4767,12 +4809,12 @@
       <c r="N130" s="10"/>
     </row>
     <row r="131" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A131" s="22"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
@@ -4783,12 +4825,12 @@
       <c r="N131" s="10"/>
     </row>
     <row r="132" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
@@ -4799,12 +4841,12 @@
       <c r="N132" s="10"/>
     </row>
     <row r="133" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A133" s="22"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
@@ -4815,12 +4857,12 @@
       <c r="N133" s="10"/>
     </row>
     <row r="134" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
@@ -4831,12 +4873,12 @@
       <c r="N134" s="10"/>
     </row>
     <row r="135" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
@@ -4847,12 +4889,12 @@
       <c r="N135" s="10"/>
     </row>
     <row r="136" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
@@ -4863,12 +4905,12 @@
       <c r="N136" s="10"/>
     </row>
     <row r="137" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A137" s="22"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
@@ -4879,12 +4921,12 @@
       <c r="N137" s="10"/>
     </row>
     <row r="138" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
@@ -4895,12 +4937,12 @@
       <c r="N138" s="10"/>
     </row>
     <row r="139" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A139" s="22"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
@@ -4911,12 +4953,12 @@
       <c r="N139" s="10"/>
     </row>
     <row r="140" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
@@ -4927,12 +4969,12 @@
       <c r="N140" s="10"/>
     </row>
     <row r="141" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
@@ -4943,12 +4985,12 @@
       <c r="N141" s="10"/>
     </row>
     <row r="142" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="42"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
@@ -4959,12 +5001,12 @@
       <c r="N142" s="10"/>
     </row>
     <row r="143" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
@@ -4975,12 +5017,12 @@
       <c r="N143" s="10"/>
     </row>
     <row r="144" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
@@ -4991,12 +5033,12 @@
       <c r="N144" s="10"/>
     </row>
     <row r="145" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
@@ -5007,12 +5049,12 @@
       <c r="N145" s="10"/>
     </row>
     <row r="146" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
@@ -5023,12 +5065,12 @@
       <c r="N146" s="10"/>
     </row>
     <row r="147" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
@@ -5039,12 +5081,12 @@
       <c r="N147" s="10"/>
     </row>
     <row r="148" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
@@ -5055,12 +5097,12 @@
       <c r="N148" s="10"/>
     </row>
     <row r="149" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A149" s="22"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
@@ -5071,12 +5113,12 @@
       <c r="N149" s="10"/>
     </row>
     <row r="150" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
@@ -5087,12 +5129,12 @@
       <c r="N150" s="10"/>
     </row>
     <row r="151" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A151" s="22"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
@@ -5103,12 +5145,12 @@
       <c r="N151" s="10"/>
     </row>
     <row r="152" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
@@ -5119,12 +5161,12 @@
       <c r="N152" s="10"/>
     </row>
     <row r="153" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
@@ -5135,12 +5177,12 @@
       <c r="N153" s="10"/>
     </row>
     <row r="154" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
@@ -5151,12 +5193,12 @@
       <c r="N154" s="10"/>
     </row>
     <row r="155" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
@@ -5167,12 +5209,12 @@
       <c r="N155" s="10"/>
     </row>
     <row r="156" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
@@ -5183,12 +5225,12 @@
       <c r="N156" s="10"/>
     </row>
     <row r="157" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
@@ -5199,12 +5241,12 @@
       <c r="N157" s="10"/>
     </row>
     <row r="158" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
@@ -5215,12 +5257,12 @@
       <c r="N158" s="10"/>
     </row>
     <row r="159" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
@@ -5231,12 +5273,12 @@
       <c r="N159" s="10"/>
     </row>
     <row r="160" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
@@ -5247,12 +5289,12 @@
       <c r="N160" s="10"/>
     </row>
     <row r="161" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -5263,12 +5305,12 @@
       <c r="N161" s="10"/>
     </row>
     <row r="162" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10"/>
@@ -5279,12 +5321,12 @@
       <c r="N162" s="10"/>
     </row>
     <row r="163" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
@@ -5295,12 +5337,12 @@
       <c r="N163" s="10"/>
     </row>
     <row r="164" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
@@ -5311,12 +5353,12 @@
       <c r="N164" s="10"/>
     </row>
     <row r="165" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A165" s="22"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
@@ -5327,12 +5369,12 @@
       <c r="N165" s="10"/>
     </row>
     <row r="166" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
@@ -5343,12 +5385,12 @@
       <c r="N166" s="10"/>
     </row>
     <row r="167" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
@@ -5359,12 +5401,12 @@
       <c r="N167" s="10"/>
     </row>
     <row r="168" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
@@ -5375,12 +5417,12 @@
       <c r="N168" s="10"/>
     </row>
     <row r="169" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
@@ -5391,12 +5433,12 @@
       <c r="N169" s="10"/>
     </row>
     <row r="170" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A170" s="22"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
@@ -5407,12 +5449,12 @@
       <c r="N170" s="10"/>
     </row>
     <row r="171" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A171" s="22"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
@@ -5423,12 +5465,12 @@
       <c r="N171" s="10"/>
     </row>
     <row r="172" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
@@ -5439,12 +5481,12 @@
       <c r="N172" s="10"/>
     </row>
     <row r="173" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A173" s="22"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
@@ -5455,12 +5497,12 @@
       <c r="N173" s="10"/>
     </row>
     <row r="174" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
@@ -5471,12 +5513,12 @@
       <c r="N174" s="10"/>
     </row>
     <row r="175" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A175" s="22"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
@@ -5487,12 +5529,12 @@
       <c r="N175" s="10"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -5503,12 +5545,12 @@
       <c r="N176" s="10"/>
     </row>
     <row r="177" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="42"/>
+      <c r="F177" s="42"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
@@ -5519,12 +5561,12 @@
       <c r="N177" s="10"/>
     </row>
     <row r="178" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
@@ -5535,12 +5577,12 @@
       <c r="N178" s="10"/>
     </row>
     <row r="179" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A179" s="22"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="42"/>
+      <c r="F179" s="42"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
@@ -5551,12 +5593,12 @@
       <c r="N179" s="10"/>
     </row>
     <row r="180" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A180" s="22"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
@@ -5567,12 +5609,12 @@
       <c r="N180" s="10"/>
     </row>
     <row r="181" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A181" s="22"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="42"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
@@ -5583,12 +5625,12 @@
       <c r="N181" s="10"/>
     </row>
     <row r="182" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A182" s="22"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
@@ -5599,12 +5641,12 @@
       <c r="N182" s="10"/>
     </row>
     <row r="183" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A183" s="22"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
@@ -5615,12 +5657,12 @@
       <c r="N183" s="10"/>
     </row>
     <row r="184" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A184" s="22"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
       <c r="I184" s="10"/>
@@ -5631,12 +5673,12 @@
       <c r="N184" s="10"/>
     </row>
     <row r="185" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A185" s="22"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
@@ -5647,12 +5689,12 @@
       <c r="N185" s="10"/>
     </row>
     <row r="186" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A186" s="22"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
@@ -5663,12 +5705,12 @@
       <c r="N186" s="10"/>
     </row>
     <row r="187" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
@@ -5679,12 +5721,12 @@
       <c r="N187" s="10"/>
     </row>
     <row r="188" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
@@ -5695,12 +5737,12 @@
       <c r="N188" s="10"/>
     </row>
     <row r="189" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A189" s="22"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="42"/>
+      <c r="F189" s="42"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
@@ -5711,12 +5753,12 @@
       <c r="N189" s="10"/>
     </row>
     <row r="190" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A190" s="22"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="42"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
@@ -5727,12 +5769,12 @@
       <c r="N190" s="10"/>
     </row>
     <row r="191" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A191" s="22"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
@@ -5743,12 +5785,12 @@
       <c r="N191" s="10"/>
     </row>
     <row r="192" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A192" s="22"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
@@ -5759,12 +5801,12 @@
       <c r="N192" s="10"/>
     </row>
     <row r="193" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A193" s="22"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="42"/>
+      <c r="F193" s="42"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
@@ -5775,12 +5817,12 @@
       <c r="N193" s="10"/>
     </row>
     <row r="194" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A194" s="22"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
@@ -5791,12 +5833,12 @@
       <c r="N194" s="10"/>
     </row>
     <row r="195" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A195" s="22"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
@@ -5807,12 +5849,12 @@
       <c r="N195" s="10"/>
     </row>
     <row r="196" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A196" s="22"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
@@ -5823,12 +5865,12 @@
       <c r="N196" s="10"/>
     </row>
     <row r="197" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A197" s="22"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
@@ -5839,12 +5881,12 @@
       <c r="N197" s="10"/>
     </row>
     <row r="198" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A198" s="22"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
@@ -5855,12 +5897,12 @@
       <c r="N198" s="10"/>
     </row>
     <row r="199" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A199" s="22"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
@@ -5871,12 +5913,12 @@
       <c r="N199" s="10"/>
     </row>
     <row r="200" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A200" s="22"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
       <c r="I200" s="10"/>
@@ -5887,12 +5929,12 @@
       <c r="N200" s="10"/>
     </row>
     <row r="201" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A201" s="22"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
+      <c r="A201" s="21"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
       <c r="I201" s="10"/>
@@ -5903,12 +5945,12 @@
       <c r="N201" s="10"/>
     </row>
     <row r="202" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A202" s="22"/>
-      <c r="B202" s="23"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
       <c r="I202" s="10"/>
@@ -5919,12 +5961,12 @@
       <c r="N202" s="10"/>
     </row>
     <row r="203" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A203" s="22"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
+      <c r="A203" s="21"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
@@ -5935,12 +5977,12 @@
       <c r="N203" s="10"/>
     </row>
     <row r="204" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A204" s="22"/>
-      <c r="B204" s="23"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
+      <c r="A204" s="21"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
       <c r="I204" s="10"/>
@@ -5951,12 +5993,12 @@
       <c r="N204" s="10"/>
     </row>
     <row r="205" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A205" s="22"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
+      <c r="A205" s="21"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
       <c r="I205" s="10"/>
@@ -5967,12 +6009,12 @@
       <c r="N205" s="10"/>
     </row>
     <row r="206" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A206" s="22"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
@@ -5983,12 +6025,12 @@
       <c r="N206" s="10"/>
     </row>
     <row r="207" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A207" s="22"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
+      <c r="A207" s="21"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
@@ -5999,12 +6041,12 @@
       <c r="N207" s="10"/>
     </row>
     <row r="208" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A208" s="22"/>
-      <c r="B208" s="23"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
@@ -6015,12 +6057,12 @@
       <c r="N208" s="10"/>
     </row>
     <row r="209" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A209" s="22"/>
-      <c r="B209" s="23"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
+      <c r="A209" s="21"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -6031,12 +6073,12 @@
       <c r="N209" s="10"/>
     </row>
     <row r="210" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A210" s="22"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
+      <c r="A210" s="21"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
@@ -6047,12 +6089,12 @@
       <c r="N210" s="10"/>
     </row>
     <row r="211" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A211" s="22"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
+      <c r="A211" s="21"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
       <c r="I211" s="10"/>
@@ -6063,12 +6105,12 @@
       <c r="N211" s="10"/>
     </row>
     <row r="212" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A212" s="22"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
+      <c r="A212" s="21"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
@@ -6079,12 +6121,12 @@
       <c r="N212" s="10"/>
     </row>
     <row r="213" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A213" s="22"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
+      <c r="A213" s="21"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
@@ -6095,12 +6137,12 @@
       <c r="N213" s="10"/>
     </row>
     <row r="214" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A214" s="22"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
@@ -6111,12 +6153,12 @@
       <c r="N214" s="10"/>
     </row>
     <row r="215" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A215" s="22"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
@@ -6127,12 +6169,12 @@
       <c r="N215" s="10"/>
     </row>
     <row r="216" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A216" s="22"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
       <c r="I216" s="10"/>
@@ -6143,12 +6185,12 @@
       <c r="N216" s="10"/>
     </row>
     <row r="217" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A217" s="22"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
@@ -6159,12 +6201,12 @@
       <c r="N217" s="10"/>
     </row>
     <row r="218" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A218" s="22"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
@@ -6175,12 +6217,12 @@
       <c r="N218" s="10"/>
     </row>
     <row r="219" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A219" s="22"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="42"/>
+      <c r="F219" s="42"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
@@ -6191,12 +6233,12 @@
       <c r="N219" s="10"/>
     </row>
     <row r="220" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A220" s="22"/>
-      <c r="B220" s="23"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
@@ -6207,12 +6249,12 @@
       <c r="N220" s="10"/>
     </row>
     <row r="221" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A221" s="22"/>
-      <c r="B221" s="23"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
+      <c r="A221" s="21"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
@@ -6223,12 +6265,12 @@
       <c r="N221" s="10"/>
     </row>
     <row r="222" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A222" s="22"/>
-      <c r="B222" s="23"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
+      <c r="A222" s="21"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
@@ -6239,12 +6281,12 @@
       <c r="N222" s="10"/>
     </row>
     <row r="223" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A223" s="22"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
+      <c r="A223" s="21"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="42"/>
+      <c r="F223" s="42"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
@@ -6255,12 +6297,12 @@
       <c r="N223" s="10"/>
     </row>
     <row r="224" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A224" s="22"/>
-      <c r="B224" s="23"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="42"/>
+      <c r="F224" s="42"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
@@ -6271,12 +6313,12 @@
       <c r="N224" s="10"/>
     </row>
     <row r="225" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A225" s="22"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
+      <c r="A225" s="21"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
       <c r="I225" s="10"/>
@@ -6287,12 +6329,12 @@
       <c r="N225" s="10"/>
     </row>
     <row r="226" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A226" s="22"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
+      <c r="A226" s="21"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="42"/>
+      <c r="F226" s="42"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
@@ -6303,12 +6345,12 @@
       <c r="N226" s="10"/>
     </row>
     <row r="227" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A227" s="22"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
+      <c r="A227" s="21"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="42"/>
+      <c r="F227" s="42"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
@@ -6319,12 +6361,12 @@
       <c r="N227" s="10"/>
     </row>
     <row r="228" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A228" s="22"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
       <c r="I228" s="10"/>
@@ -6335,12 +6377,12 @@
       <c r="N228" s="10"/>
     </row>
     <row r="229" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A229" s="22"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
+      <c r="A229" s="21"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
@@ -6351,12 +6393,12 @@
       <c r="N229" s="10"/>
     </row>
     <row r="230" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A230" s="22"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="22"/>
-      <c r="D230" s="22"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
+      <c r="A230" s="21"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
       <c r="I230" s="10"/>
@@ -6367,12 +6409,12 @@
       <c r="N230" s="10"/>
     </row>
     <row r="231" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A231" s="22"/>
-      <c r="B231" s="23"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="22"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
+      <c r="A231" s="21"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
       <c r="I231" s="10"/>
@@ -6383,12 +6425,12 @@
       <c r="N231" s="10"/>
     </row>
     <row r="232" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A232" s="22"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
+      <c r="A232" s="21"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
@@ -6399,12 +6441,12 @@
       <c r="N232" s="10"/>
     </row>
     <row r="233" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A233" s="22"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
+      <c r="A233" s="21"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
@@ -6415,12 +6457,12 @@
       <c r="N233" s="10"/>
     </row>
     <row r="234" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A234" s="22"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
@@ -6431,12 +6473,12 @@
       <c r="N234" s="10"/>
     </row>
     <row r="235" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A235" s="22"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
+      <c r="A235" s="21"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="42"/>
+      <c r="F235" s="42"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
@@ -6447,12 +6489,12 @@
       <c r="N235" s="10"/>
     </row>
     <row r="236" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A236" s="22"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
+      <c r="A236" s="21"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
@@ -6463,12 +6505,12 @@
       <c r="N236" s="10"/>
     </row>
     <row r="237" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A237" s="22"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
+      <c r="A237" s="21"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="42"/>
+      <c r="F237" s="42"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
@@ -6479,12 +6521,12 @@
       <c r="N237" s="10"/>
     </row>
     <row r="238" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A238" s="22"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
+      <c r="A238" s="21"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="42"/>
+      <c r="F238" s="42"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
@@ -6495,12 +6537,12 @@
       <c r="N238" s="10"/>
     </row>
     <row r="239" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A239" s="22"/>
-      <c r="B239" s="23"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
+      <c r="A239" s="21"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="42"/>
+      <c r="F239" s="42"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
@@ -6511,12 +6553,12 @@
       <c r="N239" s="10"/>
     </row>
     <row r="240" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A240" s="22"/>
-      <c r="B240" s="23"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="42"/>
+      <c r="F240" s="42"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
@@ -6527,12 +6569,12 @@
       <c r="N240" s="10"/>
     </row>
     <row r="241" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A241" s="22"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="22"/>
-      <c r="D241" s="22"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
+      <c r="A241" s="21"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
@@ -6543,12 +6585,12 @@
       <c r="N241" s="10"/>
     </row>
     <row r="242" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A242" s="22"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="22"/>
-      <c r="D242" s="22"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
+      <c r="A242" s="21"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
@@ -6559,12 +6601,12 @@
       <c r="N242" s="10"/>
     </row>
     <row r="243" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A243" s="22"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
+      <c r="A243" s="21"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
@@ -6575,12 +6617,12 @@
       <c r="N243" s="10"/>
     </row>
     <row r="244" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A244" s="22"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
+      <c r="A244" s="21"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="42"/>
+      <c r="F244" s="42"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
@@ -6591,12 +6633,12 @@
       <c r="N244" s="10"/>
     </row>
     <row r="245" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A245" s="22"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
+      <c r="A245" s="21"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="42"/>
+      <c r="F245" s="42"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
@@ -6607,12 +6649,12 @@
       <c r="N245" s="10"/>
     </row>
     <row r="246" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A246" s="22"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="22"/>
-      <c r="D246" s="22"/>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
+      <c r="A246" s="21"/>
+      <c r="B246" s="22"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="42"/>
+      <c r="F246" s="42"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
@@ -6623,12 +6665,12 @@
       <c r="N246" s="10"/>
     </row>
     <row r="247" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A247" s="22"/>
-      <c r="B247" s="23"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="22"/>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
+      <c r="A247" s="21"/>
+      <c r="B247" s="22"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="42"/>
+      <c r="F247" s="42"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
@@ -6639,12 +6681,12 @@
       <c r="N247" s="10"/>
     </row>
     <row r="248" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A248" s="22"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
+      <c r="A248" s="21"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="42"/>
+      <c r="F248" s="42"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
@@ -6655,12 +6697,12 @@
       <c r="N248" s="10"/>
     </row>
     <row r="249" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A249" s="22"/>
-      <c r="B249" s="23"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10"/>
+      <c r="A249" s="21"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="42"/>
+      <c r="F249" s="42"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
@@ -6671,12 +6713,12 @@
       <c r="N249" s="10"/>
     </row>
     <row r="250" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A250" s="22"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
+      <c r="A250" s="21"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
@@ -6687,12 +6729,12 @@
       <c r="N250" s="10"/>
     </row>
     <row r="251" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A251" s="22"/>
-      <c r="B251" s="23"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="22"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
+      <c r="A251" s="21"/>
+      <c r="B251" s="22"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="42"/>
+      <c r="F251" s="42"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
@@ -6703,12 +6745,12 @@
       <c r="N251" s="10"/>
     </row>
     <row r="252" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A252" s="22"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="22"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="42"/>
+      <c r="F252" s="42"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
@@ -6719,12 +6761,12 @@
       <c r="N252" s="10"/>
     </row>
     <row r="253" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A253" s="22"/>
-      <c r="B253" s="23"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
+      <c r="A253" s="21"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="42"/>
+      <c r="F253" s="42"/>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
@@ -6735,12 +6777,12 @@
       <c r="N253" s="10"/>
     </row>
     <row r="254" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A254" s="22"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
+      <c r="A254" s="21"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
@@ -6751,12 +6793,12 @@
       <c r="N254" s="10"/>
     </row>
     <row r="255" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A255" s="22"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
+      <c r="A255" s="21"/>
+      <c r="B255" s="22"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
@@ -6767,12 +6809,12 @@
       <c r="N255" s="10"/>
     </row>
     <row r="256" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A256" s="22"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
+      <c r="A256" s="21"/>
+      <c r="B256" s="22"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="42"/>
+      <c r="F256" s="42"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
@@ -6783,12 +6825,12 @@
       <c r="N256" s="10"/>
     </row>
     <row r="257" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A257" s="22"/>
-      <c r="B257" s="23"/>
-      <c r="C257" s="22"/>
-      <c r="D257" s="22"/>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
+      <c r="A257" s="21"/>
+      <c r="B257" s="22"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="42"/>
+      <c r="F257" s="42"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
@@ -6799,12 +6841,12 @@
       <c r="N257" s="10"/>
     </row>
     <row r="258" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A258" s="22"/>
-      <c r="B258" s="23"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
+      <c r="A258" s="21"/>
+      <c r="B258" s="22"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
       <c r="I258" s="10"/>
@@ -6815,12 +6857,12 @@
       <c r="N258" s="10"/>
     </row>
     <row r="259" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A259" s="22"/>
-      <c r="B259" s="23"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
+      <c r="A259" s="21"/>
+      <c r="B259" s="22"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="42"/>
+      <c r="F259" s="42"/>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
@@ -6831,12 +6873,12 @@
       <c r="N259" s="10"/>
     </row>
     <row r="260" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A260" s="22"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="42"/>
+      <c r="F260" s="42"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
@@ -6847,12 +6889,12 @@
       <c r="N260" s="10"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A261" s="22"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
+      <c r="A261" s="21"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="42"/>
+      <c r="F261" s="42"/>
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
@@ -6863,12 +6905,12 @@
       <c r="N261" s="10"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A262" s="22"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="22"/>
-      <c r="D262" s="22"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
+      <c r="A262" s="21"/>
+      <c r="B262" s="22"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="42"/>
+      <c r="F262" s="42"/>
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
@@ -6879,12 +6921,12 @@
       <c r="N262" s="10"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A263" s="22"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="22"/>
-      <c r="D263" s="22"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
+      <c r="A263" s="21"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="42"/>
+      <c r="F263" s="42"/>
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
@@ -6895,12 +6937,12 @@
       <c r="N263" s="10"/>
     </row>
     <row r="264" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A264" s="22"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
+      <c r="A264" s="21"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="42"/>
+      <c r="F264" s="42"/>
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
@@ -6911,12 +6953,12 @@
       <c r="N264" s="10"/>
     </row>
     <row r="265" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A265" s="22"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
+      <c r="A265" s="21"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="42"/>
+      <c r="F265" s="42"/>
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
@@ -6927,12 +6969,12 @@
       <c r="N265" s="10"/>
     </row>
     <row r="266" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A266" s="22"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
+      <c r="A266" s="21"/>
+      <c r="B266" s="22"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="42"/>
+      <c r="F266" s="42"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
       <c r="I266" s="10"/>
@@ -6943,12 +6985,12 @@
       <c r="N266" s="10"/>
     </row>
     <row r="267" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A267" s="22"/>
-      <c r="B267" s="23"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
+      <c r="A267" s="21"/>
+      <c r="B267" s="22"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="42"/>
+      <c r="F267" s="42"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
@@ -6959,12 +7001,12 @@
       <c r="N267" s="10"/>
     </row>
     <row r="268" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A268" s="22"/>
-      <c r="B268" s="23"/>
-      <c r="C268" s="22"/>
-      <c r="D268" s="22"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
+      <c r="A268" s="21"/>
+      <c r="B268" s="22"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="42"/>
+      <c r="F268" s="42"/>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
@@ -6975,12 +7017,12 @@
       <c r="N268" s="10"/>
     </row>
     <row r="269" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A269" s="22"/>
-      <c r="B269" s="23"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
+      <c r="A269" s="21"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="42"/>
+      <c r="F269" s="42"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
@@ -6991,12 +7033,12 @@
       <c r="N269" s="10"/>
     </row>
     <row r="270" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A270" s="22"/>
-      <c r="B270" s="23"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
+      <c r="A270" s="21"/>
+      <c r="B270" s="22"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="42"/>
+      <c r="F270" s="42"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
       <c r="I270" s="10"/>
@@ -7007,12 +7049,12 @@
       <c r="N270" s="10"/>
     </row>
     <row r="271" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A271" s="22"/>
-      <c r="B271" s="23"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
+      <c r="A271" s="21"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="42"/>
+      <c r="F271" s="42"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
       <c r="I271" s="10"/>
@@ -7023,12 +7065,12 @@
       <c r="N271" s="10"/>
     </row>
     <row r="272" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A272" s="22"/>
-      <c r="B272" s="23"/>
-      <c r="C272" s="22"/>
-      <c r="D272" s="22"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
+      <c r="A272" s="21"/>
+      <c r="B272" s="22"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="42"/>
+      <c r="F272" s="42"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
@@ -7039,12 +7081,12 @@
       <c r="N272" s="10"/>
     </row>
     <row r="273" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A273" s="22"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
+      <c r="A273" s="21"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="42"/>
+      <c r="F273" s="42"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
       <c r="I273" s="10"/>
@@ -7055,12 +7097,12 @@
       <c r="N273" s="10"/>
     </row>
     <row r="274" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A274" s="22"/>
-      <c r="B274" s="23"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
+      <c r="A274" s="21"/>
+      <c r="B274" s="22"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="42"/>
+      <c r="F274" s="42"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
@@ -7071,12 +7113,12 @@
       <c r="N274" s="10"/>
     </row>
     <row r="275" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A275" s="22"/>
-      <c r="B275" s="23"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
+      <c r="A275" s="21"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="42"/>
+      <c r="F275" s="42"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
@@ -7087,12 +7129,12 @@
       <c r="N275" s="10"/>
     </row>
     <row r="276" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A276" s="22"/>
-      <c r="B276" s="23"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
+      <c r="A276" s="21"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="42"/>
+      <c r="F276" s="42"/>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
@@ -7103,12 +7145,12 @@
       <c r="N276" s="10"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A277" s="22"/>
-      <c r="B277" s="23"/>
-      <c r="C277" s="22"/>
-      <c r="D277" s="22"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
+      <c r="A277" s="21"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="42"/>
+      <c r="F277" s="42"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
@@ -7119,12 +7161,12 @@
       <c r="N277" s="10"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A278" s="22"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="22"/>
-      <c r="D278" s="22"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
+      <c r="A278" s="21"/>
+      <c r="B278" s="22"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="42"/>
+      <c r="F278" s="42"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
@@ -7135,12 +7177,12 @@
       <c r="N278" s="10"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A279" s="22"/>
-      <c r="B279" s="23"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
+      <c r="A279" s="21"/>
+      <c r="B279" s="22"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="42"/>
+      <c r="F279" s="42"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
       <c r="I279" s="10"/>
@@ -7151,12 +7193,12 @@
       <c r="N279" s="10"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A280" s="22"/>
-      <c r="B280" s="23"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
+      <c r="A280" s="21"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="42"/>
+      <c r="F280" s="42"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
@@ -7167,12 +7209,12 @@
       <c r="N280" s="10"/>
     </row>
     <row r="281" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A281" s="22"/>
-      <c r="B281" s="23"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="42"/>
+      <c r="F281" s="42"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
@@ -7183,12 +7225,12 @@
       <c r="N281" s="10"/>
     </row>
     <row r="282" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A282" s="22"/>
-      <c r="B282" s="23"/>
-      <c r="C282" s="22"/>
-      <c r="D282" s="22"/>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="22"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="42"/>
+      <c r="F282" s="42"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
       <c r="I282" s="10"/>
@@ -7199,12 +7241,12 @@
       <c r="N282" s="10"/>
     </row>
     <row r="283" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A283" s="22"/>
-      <c r="B283" s="23"/>
-      <c r="C283" s="22"/>
-      <c r="D283" s="22"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
+      <c r="A283" s="21"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="42"/>
+      <c r="F283" s="42"/>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
@@ -7215,12 +7257,12 @@
       <c r="N283" s="10"/>
     </row>
     <row r="284" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A284" s="22"/>
-      <c r="B284" s="23"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
+      <c r="A284" s="21"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="42"/>
+      <c r="F284" s="42"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
       <c r="I284" s="10"/>
@@ -7231,12 +7273,12 @@
       <c r="N284" s="10"/>
     </row>
     <row r="285" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A285" s="22"/>
-      <c r="B285" s="23"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
+      <c r="A285" s="21"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
+      <c r="E285" s="42"/>
+      <c r="F285" s="42"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
@@ -7247,12 +7289,12 @@
       <c r="N285" s="10"/>
     </row>
     <row r="286" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A286" s="22"/>
-      <c r="B286" s="23"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
+      <c r="A286" s="21"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="42"/>
+      <c r="F286" s="42"/>
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
@@ -7263,12 +7305,12 @@
       <c r="N286" s="10"/>
     </row>
     <row r="287" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A287" s="22"/>
-      <c r="B287" s="23"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="22"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
+      <c r="A287" s="21"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="42"/>
+      <c r="F287" s="42"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
@@ -7279,12 +7321,12 @@
       <c r="N287" s="10"/>
     </row>
     <row r="288" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A288" s="22"/>
-      <c r="B288" s="23"/>
-      <c r="C288" s="22"/>
-      <c r="D288" s="22"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
+      <c r="A288" s="21"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="42"/>
+      <c r="F288" s="42"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
@@ -7295,12 +7337,12 @@
       <c r="N288" s="10"/>
     </row>
     <row r="289" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A289" s="22"/>
-      <c r="B289" s="23"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="22"/>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
+      <c r="A289" s="21"/>
+      <c r="B289" s="22"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="42"/>
+      <c r="F289" s="42"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
@@ -7311,12 +7353,12 @@
       <c r="N289" s="10"/>
     </row>
     <row r="290" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A290" s="22"/>
-      <c r="B290" s="23"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
+      <c r="A290" s="21"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="42"/>
+      <c r="F290" s="42"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
@@ -7327,12 +7369,12 @@
       <c r="N290" s="10"/>
     </row>
     <row r="291" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A291" s="22"/>
-      <c r="B291" s="23"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
+      <c r="A291" s="21"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="42"/>
+      <c r="F291" s="42"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
@@ -7343,12 +7385,12 @@
       <c r="N291" s="10"/>
     </row>
     <row r="292" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A292" s="22"/>
-      <c r="B292" s="23"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
+      <c r="A292" s="21"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="42"/>
+      <c r="F292" s="42"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
@@ -7359,12 +7401,12 @@
       <c r="N292" s="10"/>
     </row>
     <row r="293" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A293" s="22"/>
-      <c r="B293" s="23"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="22"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
+      <c r="A293" s="21"/>
+      <c r="B293" s="22"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="42"/>
+      <c r="F293" s="42"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
@@ -7375,12 +7417,12 @@
       <c r="N293" s="10"/>
     </row>
     <row r="294" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A294" s="22"/>
-      <c r="B294" s="23"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="22"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
+      <c r="A294" s="21"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="42"/>
+      <c r="F294" s="42"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
@@ -7391,12 +7433,12 @@
       <c r="N294" s="10"/>
     </row>
     <row r="295" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A295" s="22"/>
-      <c r="B295" s="23"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
+      <c r="A295" s="21"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
+      <c r="E295" s="42"/>
+      <c r="F295" s="42"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
@@ -7407,12 +7449,12 @@
       <c r="N295" s="10"/>
     </row>
     <row r="296" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A296" s="22"/>
-      <c r="B296" s="23"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
+      <c r="A296" s="21"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="42"/>
+      <c r="F296" s="42"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
@@ -7423,12 +7465,12 @@
       <c r="N296" s="10"/>
     </row>
     <row r="297" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A297" s="22"/>
-      <c r="B297" s="23"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
+      <c r="A297" s="21"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="42"/>
+      <c r="F297" s="42"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
       <c r="I297" s="10"/>
@@ -7439,12 +7481,12 @@
       <c r="N297" s="10"/>
     </row>
     <row r="298" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A298" s="22"/>
-      <c r="B298" s="23"/>
-      <c r="C298" s="22"/>
-      <c r="D298" s="22"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
+      <c r="A298" s="21"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="42"/>
+      <c r="F298" s="42"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
@@ -7455,12 +7497,12 @@
       <c r="N298" s="10"/>
     </row>
     <row r="299" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A299" s="22"/>
-      <c r="B299" s="23"/>
-      <c r="C299" s="22"/>
-      <c r="D299" s="22"/>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
+      <c r="A299" s="21"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="42"/>
+      <c r="F299" s="42"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
@@ -7471,12 +7513,12 @@
       <c r="N299" s="10"/>
     </row>
     <row r="300" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A300" s="22"/>
-      <c r="B300" s="23"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
+      <c r="A300" s="21"/>
+      <c r="B300" s="22"/>
+      <c r="C300" s="21"/>
+      <c r="D300" s="21"/>
+      <c r="E300" s="42"/>
+      <c r="F300" s="42"/>
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
       <c r="I300" s="10"/>
@@ -7487,12 +7529,12 @@
       <c r="N300" s="10"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A301" s="22"/>
-      <c r="B301" s="23"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
+      <c r="A301" s="21"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="21"/>
+      <c r="D301" s="21"/>
+      <c r="E301" s="42"/>
+      <c r="F301" s="42"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
@@ -7503,12 +7545,12 @@
       <c r="N301" s="10"/>
     </row>
     <row r="302" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A302" s="22"/>
-      <c r="B302" s="23"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
+      <c r="A302" s="21"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="42"/>
+      <c r="F302" s="42"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
@@ -7519,12 +7561,12 @@
       <c r="N302" s="10"/>
     </row>
     <row r="303" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A303" s="22"/>
-      <c r="B303" s="23"/>
-      <c r="C303" s="22"/>
-      <c r="D303" s="22"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
+      <c r="A303" s="21"/>
+      <c r="B303" s="22"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="42"/>
+      <c r="F303" s="42"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
       <c r="I303" s="10"/>
@@ -7535,12 +7577,12 @@
       <c r="N303" s="10"/>
     </row>
     <row r="304" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A304" s="22"/>
-      <c r="B304" s="23"/>
-      <c r="C304" s="22"/>
-      <c r="D304" s="22"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
+      <c r="A304" s="21"/>
+      <c r="B304" s="22"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="42"/>
+      <c r="F304" s="42"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
@@ -7551,12 +7593,12 @@
       <c r="N304" s="10"/>
     </row>
     <row r="305" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A305" s="22"/>
-      <c r="B305" s="23"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
+      <c r="A305" s="21"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="42"/>
+      <c r="F305" s="42"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
       <c r="I305" s="10"/>
@@ -7567,12 +7609,12 @@
       <c r="N305" s="10"/>
     </row>
     <row r="306" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A306" s="22"/>
-      <c r="B306" s="23"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
+      <c r="A306" s="21"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="42"/>
+      <c r="F306" s="42"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
       <c r="I306" s="10"/>
@@ -7583,12 +7625,12 @@
       <c r="N306" s="10"/>
     </row>
     <row r="307" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A307" s="22"/>
-      <c r="B307" s="23"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
+      <c r="A307" s="21"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="42"/>
+      <c r="F307" s="42"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
       <c r="I307" s="10"/>
@@ -7599,12 +7641,12 @@
       <c r="N307" s="10"/>
     </row>
     <row r="308" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A308" s="22"/>
-      <c r="B308" s="23"/>
-      <c r="C308" s="22"/>
-      <c r="D308" s="22"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
+      <c r="A308" s="21"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="42"/>
+      <c r="F308" s="42"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
@@ -7615,12 +7657,12 @@
       <c r="N308" s="10"/>
     </row>
     <row r="309" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A309" s="22"/>
-      <c r="B309" s="23"/>
-      <c r="C309" s="22"/>
-      <c r="D309" s="22"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
+      <c r="A309" s="21"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="42"/>
+      <c r="F309" s="42"/>
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
       <c r="I309" s="10"/>
@@ -7631,12 +7673,12 @@
       <c r="N309" s="10"/>
     </row>
     <row r="310" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A310" s="22"/>
-      <c r="B310" s="23"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
+      <c r="A310" s="21"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="42"/>
+      <c r="F310" s="42"/>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
       <c r="I310" s="10"/>
@@ -7647,12 +7689,12 @@
       <c r="N310" s="10"/>
     </row>
     <row r="311" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A311" s="22"/>
-      <c r="B311" s="23"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
+      <c r="A311" s="21"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="42"/>
+      <c r="F311" s="42"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
@@ -7663,12 +7705,12 @@
       <c r="N311" s="10"/>
     </row>
     <row r="312" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A312" s="22"/>
-      <c r="B312" s="23"/>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
-      <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="21"/>
+      <c r="D312" s="21"/>
+      <c r="E312" s="42"/>
+      <c r="F312" s="42"/>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
       <c r="I312" s="10"/>
@@ -7679,12 +7721,12 @@
       <c r="N312" s="10"/>
     </row>
     <row r="313" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A313" s="22"/>
-      <c r="B313" s="23"/>
-      <c r="C313" s="22"/>
-      <c r="D313" s="22"/>
-      <c r="E313" s="10"/>
-      <c r="F313" s="10"/>
+      <c r="A313" s="21"/>
+      <c r="B313" s="22"/>
+      <c r="C313" s="21"/>
+      <c r="D313" s="21"/>
+      <c r="E313" s="42"/>
+      <c r="F313" s="42"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
@@ -7695,12 +7737,12 @@
       <c r="N313" s="10"/>
     </row>
     <row r="314" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A314" s="22"/>
-      <c r="B314" s="23"/>
-      <c r="C314" s="22"/>
-      <c r="D314" s="22"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
+      <c r="A314" s="21"/>
+      <c r="B314" s="22"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="42"/>
+      <c r="F314" s="42"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
       <c r="I314" s="10"/>
@@ -7711,12 +7753,12 @@
       <c r="N314" s="10"/>
     </row>
     <row r="315" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A315" s="22"/>
-      <c r="B315" s="23"/>
-      <c r="C315" s="22"/>
-      <c r="D315" s="22"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
+      <c r="A315" s="21"/>
+      <c r="B315" s="22"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="42"/>
+      <c r="F315" s="42"/>
       <c r="G315" s="10"/>
       <c r="H315" s="10"/>
       <c r="I315" s="10"/>
@@ -7727,12 +7769,12 @@
       <c r="N315" s="10"/>
     </row>
     <row r="316" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A316" s="22"/>
-      <c r="B316" s="23"/>
-      <c r="C316" s="22"/>
-      <c r="D316" s="22"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
+      <c r="A316" s="21"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="42"/>
+      <c r="F316" s="42"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
       <c r="I316" s="10"/>
@@ -7743,12 +7785,12 @@
       <c r="N316" s="10"/>
     </row>
     <row r="317" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A317" s="22"/>
-      <c r="B317" s="23"/>
-      <c r="C317" s="22"/>
-      <c r="D317" s="22"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
+      <c r="A317" s="21"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="42"/>
+      <c r="F317" s="42"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
@@ -7759,12 +7801,12 @@
       <c r="N317" s="10"/>
     </row>
     <row r="318" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A318" s="22"/>
-      <c r="B318" s="23"/>
-      <c r="C318" s="22"/>
-      <c r="D318" s="22"/>
-      <c r="E318" s="10"/>
-      <c r="F318" s="10"/>
+      <c r="A318" s="21"/>
+      <c r="B318" s="22"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="21"/>
+      <c r="E318" s="42"/>
+      <c r="F318" s="42"/>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
       <c r="I318" s="10"/>
@@ -7775,12 +7817,12 @@
       <c r="N318" s="10"/>
     </row>
     <row r="319" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A319" s="22"/>
-      <c r="B319" s="23"/>
-      <c r="C319" s="22"/>
-      <c r="D319" s="22"/>
-      <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
+      <c r="A319" s="21"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
+      <c r="E319" s="42"/>
+      <c r="F319" s="42"/>
       <c r="G319" s="10"/>
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
@@ -7791,12 +7833,12 @@
       <c r="N319" s="10"/>
     </row>
     <row r="320" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A320" s="22"/>
-      <c r="B320" s="23"/>
-      <c r="C320" s="22"/>
-      <c r="D320" s="22"/>
-      <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
+      <c r="A320" s="21"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="42"/>
+      <c r="F320" s="42"/>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
@@ -7807,12 +7849,12 @@
       <c r="N320" s="10"/>
     </row>
     <row r="321" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A321" s="22"/>
-      <c r="B321" s="23"/>
-      <c r="C321" s="22"/>
-      <c r="D321" s="22"/>
-      <c r="E321" s="10"/>
-      <c r="F321" s="10"/>
+      <c r="A321" s="21"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="42"/>
+      <c r="F321" s="42"/>
       <c r="G321" s="10"/>
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
@@ -7823,12 +7865,12 @@
       <c r="N321" s="10"/>
     </row>
     <row r="322" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A322" s="22"/>
-      <c r="B322" s="23"/>
-      <c r="C322" s="22"/>
-      <c r="D322" s="22"/>
-      <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
+      <c r="A322" s="21"/>
+      <c r="B322" s="22"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
+      <c r="E322" s="42"/>
+      <c r="F322" s="42"/>
       <c r="G322" s="10"/>
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
@@ -7839,12 +7881,12 @@
       <c r="N322" s="10"/>
     </row>
     <row r="323" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A323" s="22"/>
-      <c r="B323" s="23"/>
-      <c r="C323" s="22"/>
-      <c r="D323" s="22"/>
-      <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
+      <c r="A323" s="21"/>
+      <c r="B323" s="22"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
+      <c r="E323" s="42"/>
+      <c r="F323" s="42"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>
       <c r="I323" s="10"/>
@@ -7855,12 +7897,12 @@
       <c r="N323" s="10"/>
     </row>
     <row r="324" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A324" s="22"/>
-      <c r="B324" s="23"/>
-      <c r="C324" s="22"/>
-      <c r="D324" s="22"/>
-      <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
+      <c r="A324" s="21"/>
+      <c r="B324" s="22"/>
+      <c r="C324" s="21"/>
+      <c r="D324" s="21"/>
+      <c r="E324" s="42"/>
+      <c r="F324" s="42"/>
       <c r="G324" s="10"/>
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
@@ -7871,12 +7913,12 @@
       <c r="N324" s="10"/>
     </row>
     <row r="325" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A325" s="22"/>
-      <c r="B325" s="23"/>
-      <c r="C325" s="22"/>
-      <c r="D325" s="22"/>
-      <c r="E325" s="10"/>
-      <c r="F325" s="10"/>
+      <c r="A325" s="21"/>
+      <c r="B325" s="22"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
+      <c r="E325" s="42"/>
+      <c r="F325" s="42"/>
       <c r="G325" s="10"/>
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
@@ -7887,12 +7929,12 @@
       <c r="N325" s="10"/>
     </row>
     <row r="326" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A326" s="22"/>
-      <c r="B326" s="23"/>
-      <c r="C326" s="22"/>
-      <c r="D326" s="22"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
+      <c r="A326" s="21"/>
+      <c r="B326" s="22"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="21"/>
+      <c r="E326" s="42"/>
+      <c r="F326" s="42"/>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
       <c r="I326" s="10"/>
@@ -7903,12 +7945,12 @@
       <c r="N326" s="10"/>
     </row>
     <row r="327" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A327" s="22"/>
-      <c r="B327" s="23"/>
-      <c r="C327" s="22"/>
-      <c r="D327" s="22"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
+      <c r="A327" s="21"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="21"/>
+      <c r="E327" s="42"/>
+      <c r="F327" s="42"/>
       <c r="G327" s="10"/>
       <c r="H327" s="10"/>
       <c r="I327" s="10"/>
@@ -7919,12 +7961,12 @@
       <c r="N327" s="10"/>
     </row>
     <row r="328" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A328" s="22"/>
-      <c r="B328" s="23"/>
-      <c r="C328" s="22"/>
-      <c r="D328" s="22"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
+      <c r="A328" s="21"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="21"/>
+      <c r="D328" s="21"/>
+      <c r="E328" s="42"/>
+      <c r="F328" s="42"/>
       <c r="G328" s="10"/>
       <c r="H328" s="10"/>
       <c r="I328" s="10"/>
@@ -7935,12 +7977,12 @@
       <c r="N328" s="10"/>
     </row>
     <row r="329" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A329" s="22"/>
-      <c r="B329" s="23"/>
-      <c r="C329" s="22"/>
-      <c r="D329" s="22"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
+      <c r="A329" s="21"/>
+      <c r="B329" s="22"/>
+      <c r="C329" s="21"/>
+      <c r="D329" s="21"/>
+      <c r="E329" s="42"/>
+      <c r="F329" s="42"/>
       <c r="G329" s="10"/>
       <c r="H329" s="10"/>
       <c r="I329" s="10"/>
@@ -7951,12 +7993,12 @@
       <c r="N329" s="10"/>
     </row>
     <row r="330" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A330" s="22"/>
-      <c r="B330" s="23"/>
-      <c r="C330" s="22"/>
-      <c r="D330" s="22"/>
-      <c r="E330" s="10"/>
-      <c r="F330" s="10"/>
+      <c r="A330" s="21"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
       <c r="G330" s="10"/>
       <c r="H330" s="10"/>
       <c r="I330" s="10"/>
@@ -7967,12 +8009,12 @@
       <c r="N330" s="10"/>
     </row>
     <row r="331" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A331" s="22"/>
-      <c r="B331" s="23"/>
-      <c r="C331" s="22"/>
-      <c r="D331" s="22"/>
-      <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
+      <c r="A331" s="21"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="21"/>
+      <c r="D331" s="21"/>
+      <c r="E331" s="42"/>
+      <c r="F331" s="42"/>
       <c r="G331" s="10"/>
       <c r="H331" s="10"/>
       <c r="I331" s="10"/>
@@ -7983,12 +8025,12 @@
       <c r="N331" s="10"/>
     </row>
     <row r="332" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A332" s="22"/>
-      <c r="B332" s="23"/>
-      <c r="C332" s="22"/>
-      <c r="D332" s="22"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
+      <c r="A332" s="21"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
       <c r="G332" s="10"/>
       <c r="H332" s="10"/>
       <c r="I332" s="10"/>
@@ -7999,12 +8041,12 @@
       <c r="N332" s="10"/>
     </row>
     <row r="333" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A333" s="22"/>
-      <c r="B333" s="23"/>
-      <c r="C333" s="22"/>
-      <c r="D333" s="22"/>
-      <c r="E333" s="10"/>
-      <c r="F333" s="10"/>
+      <c r="A333" s="21"/>
+      <c r="B333" s="22"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
       <c r="G333" s="10"/>
       <c r="H333" s="10"/>
       <c r="I333" s="10"/>
@@ -8015,12 +8057,12 @@
       <c r="N333" s="10"/>
     </row>
     <row r="334" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A334" s="22"/>
-      <c r="B334" s="23"/>
-      <c r="C334" s="22"/>
-      <c r="D334" s="22"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="10"/>
+      <c r="A334" s="21"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="21"/>
+      <c r="D334" s="21"/>
+      <c r="E334" s="42"/>
+      <c r="F334" s="42"/>
       <c r="G334" s="10"/>
       <c r="H334" s="10"/>
       <c r="I334" s="10"/>
@@ -8031,12 +8073,12 @@
       <c r="N334" s="10"/>
     </row>
     <row r="335" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A335" s="22"/>
-      <c r="B335" s="23"/>
-      <c r="C335" s="22"/>
-      <c r="D335" s="22"/>
-      <c r="E335" s="10"/>
-      <c r="F335" s="10"/>
+      <c r="A335" s="21"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="21"/>
+      <c r="D335" s="21"/>
+      <c r="E335" s="42"/>
+      <c r="F335" s="42"/>
       <c r="G335" s="10"/>
       <c r="H335" s="10"/>
       <c r="I335" s="10"/>
@@ -8047,12 +8089,12 @@
       <c r="N335" s="10"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A336" s="22"/>
-      <c r="B336" s="23"/>
-      <c r="C336" s="22"/>
-      <c r="D336" s="22"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
+      <c r="A336" s="21"/>
+      <c r="B336" s="22"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="42"/>
+      <c r="F336" s="42"/>
       <c r="G336" s="10"/>
       <c r="H336" s="10"/>
       <c r="I336" s="10"/>
@@ -8063,12 +8105,12 @@
       <c r="N336" s="10"/>
     </row>
     <row r="337" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A337" s="22"/>
-      <c r="B337" s="23"/>
-      <c r="C337" s="22"/>
-      <c r="D337" s="22"/>
-      <c r="E337" s="10"/>
-      <c r="F337" s="10"/>
+      <c r="A337" s="21"/>
+      <c r="B337" s="22"/>
+      <c r="C337" s="21"/>
+      <c r="D337" s="21"/>
+      <c r="E337" s="42"/>
+      <c r="F337" s="42"/>
       <c r="G337" s="10"/>
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
@@ -8079,12 +8121,12 @@
       <c r="N337" s="10"/>
     </row>
     <row r="338" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A338" s="22"/>
-      <c r="B338" s="23"/>
-      <c r="C338" s="22"/>
-      <c r="D338" s="22"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
+      <c r="A338" s="21"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
+      <c r="E338" s="42"/>
+      <c r="F338" s="42"/>
       <c r="G338" s="10"/>
       <c r="H338" s="10"/>
       <c r="I338" s="10"/>
@@ -8095,12 +8137,12 @@
       <c r="N338" s="10"/>
     </row>
     <row r="339" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A339" s="22"/>
-      <c r="B339" s="23"/>
-      <c r="C339" s="22"/>
-      <c r="D339" s="22"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
+      <c r="A339" s="21"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="21"/>
+      <c r="E339" s="42"/>
+      <c r="F339" s="42"/>
       <c r="G339" s="10"/>
       <c r="H339" s="10"/>
       <c r="I339" s="10"/>
@@ -8111,12 +8153,12 @@
       <c r="N339" s="10"/>
     </row>
     <row r="340" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A340" s="22"/>
-      <c r="B340" s="23"/>
-      <c r="C340" s="22"/>
-      <c r="D340" s="22"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
+      <c r="A340" s="21"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="42"/>
+      <c r="F340" s="42"/>
       <c r="G340" s="10"/>
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
@@ -8127,12 +8169,12 @@
       <c r="N340" s="10"/>
     </row>
     <row r="341" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A341" s="22"/>
-      <c r="B341" s="23"/>
-      <c r="C341" s="22"/>
-      <c r="D341" s="22"/>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
+      <c r="A341" s="21"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="21"/>
+      <c r="E341" s="42"/>
+      <c r="F341" s="42"/>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
       <c r="I341" s="10"/>
@@ -8143,12 +8185,12 @@
       <c r="N341" s="10"/>
     </row>
     <row r="342" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A342" s="22"/>
-      <c r="B342" s="23"/>
-      <c r="C342" s="22"/>
-      <c r="D342" s="22"/>
-      <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
+      <c r="A342" s="21"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="21"/>
+      <c r="E342" s="42"/>
+      <c r="F342" s="42"/>
       <c r="G342" s="10"/>
       <c r="H342" s="10"/>
       <c r="I342" s="10"/>
@@ -8159,12 +8201,12 @@
       <c r="N342" s="10"/>
     </row>
     <row r="343" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A343" s="22"/>
-      <c r="B343" s="23"/>
-      <c r="C343" s="22"/>
-      <c r="D343" s="22"/>
-      <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
+      <c r="A343" s="21"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="21"/>
+      <c r="E343" s="42"/>
+      <c r="F343" s="42"/>
       <c r="G343" s="10"/>
       <c r="H343" s="10"/>
       <c r="I343" s="10"/>
@@ -8175,12 +8217,12 @@
       <c r="N343" s="10"/>
     </row>
     <row r="344" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A344" s="22"/>
-      <c r="B344" s="23"/>
-      <c r="C344" s="22"/>
-      <c r="D344" s="22"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
+      <c r="A344" s="21"/>
+      <c r="B344" s="22"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="21"/>
+      <c r="E344" s="42"/>
+      <c r="F344" s="42"/>
       <c r="G344" s="10"/>
       <c r="H344" s="10"/>
       <c r="I344" s="10"/>
@@ -8191,12 +8233,12 @@
       <c r="N344" s="10"/>
     </row>
     <row r="345" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A345" s="22"/>
-      <c r="B345" s="23"/>
-      <c r="C345" s="22"/>
-      <c r="D345" s="22"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
+      <c r="A345" s="21"/>
+      <c r="B345" s="22"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="42"/>
+      <c r="F345" s="42"/>
       <c r="G345" s="10"/>
       <c r="H345" s="10"/>
       <c r="I345" s="10"/>
@@ -8207,12 +8249,12 @@
       <c r="N345" s="10"/>
     </row>
     <row r="346" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A346" s="22"/>
-      <c r="B346" s="23"/>
-      <c r="C346" s="22"/>
-      <c r="D346" s="22"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
+      <c r="A346" s="21"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="21"/>
+      <c r="D346" s="21"/>
+      <c r="E346" s="42"/>
+      <c r="F346" s="42"/>
       <c r="G346" s="10"/>
       <c r="H346" s="10"/>
       <c r="I346" s="10"/>
@@ -8223,12 +8265,12 @@
       <c r="N346" s="10"/>
     </row>
     <row r="347" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A347" s="22"/>
-      <c r="B347" s="23"/>
-      <c r="C347" s="22"/>
-      <c r="D347" s="22"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
+      <c r="A347" s="21"/>
+      <c r="B347" s="22"/>
+      <c r="C347" s="21"/>
+      <c r="D347" s="21"/>
+      <c r="E347" s="42"/>
+      <c r="F347" s="42"/>
       <c r="G347" s="10"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
@@ -8239,12 +8281,12 @@
       <c r="N347" s="10"/>
     </row>
     <row r="348" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A348" s="22"/>
-      <c r="B348" s="23"/>
-      <c r="C348" s="22"/>
-      <c r="D348" s="22"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
+      <c r="A348" s="21"/>
+      <c r="B348" s="22"/>
+      <c r="C348" s="21"/>
+      <c r="D348" s="21"/>
+      <c r="E348" s="42"/>
+      <c r="F348" s="42"/>
       <c r="G348" s="10"/>
       <c r="H348" s="10"/>
       <c r="I348" s="10"/>
@@ -8255,12 +8297,12 @@
       <c r="N348" s="10"/>
     </row>
     <row r="349" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A349" s="22"/>
-      <c r="B349" s="23"/>
-      <c r="C349" s="22"/>
-      <c r="D349" s="22"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
+      <c r="A349" s="21"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="21"/>
+      <c r="D349" s="21"/>
+      <c r="E349" s="42"/>
+      <c r="F349" s="42"/>
       <c r="G349" s="10"/>
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
@@ -8271,12 +8313,12 @@
       <c r="N349" s="10"/>
     </row>
     <row r="350" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A350" s="22"/>
-      <c r="B350" s="23"/>
-      <c r="C350" s="22"/>
-      <c r="D350" s="22"/>
-      <c r="E350" s="10"/>
-      <c r="F350" s="10"/>
+      <c r="A350" s="21"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
+      <c r="E350" s="42"/>
+      <c r="F350" s="42"/>
       <c r="G350" s="10"/>
       <c r="H350" s="10"/>
       <c r="I350" s="10"/>
@@ -8287,12 +8329,12 @@
       <c r="N350" s="10"/>
     </row>
     <row r="351" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A351" s="22"/>
-      <c r="B351" s="23"/>
-      <c r="C351" s="22"/>
-      <c r="D351" s="22"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
+      <c r="A351" s="21"/>
+      <c r="B351" s="22"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
+      <c r="E351" s="42"/>
+      <c r="F351" s="42"/>
       <c r="G351" s="10"/>
       <c r="H351" s="10"/>
       <c r="I351" s="10"/>
@@ -8303,12 +8345,12 @@
       <c r="N351" s="10"/>
     </row>
     <row r="352" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A352" s="22"/>
-      <c r="B352" s="23"/>
-      <c r="C352" s="22"/>
-      <c r="D352" s="22"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
+      <c r="A352" s="21"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
+      <c r="E352" s="42"/>
+      <c r="F352" s="42"/>
       <c r="G352" s="10"/>
       <c r="H352" s="10"/>
       <c r="I352" s="10"/>
@@ -8319,12 +8361,12 @@
       <c r="N352" s="10"/>
     </row>
     <row r="353" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A353" s="22"/>
-      <c r="B353" s="23"/>
-      <c r="C353" s="22"/>
-      <c r="D353" s="22"/>
-      <c r="E353" s="10"/>
-      <c r="F353" s="10"/>
+      <c r="A353" s="21"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
+      <c r="E353" s="42"/>
+      <c r="F353" s="42"/>
       <c r="G353" s="10"/>
       <c r="H353" s="10"/>
       <c r="I353" s="10"/>
@@ -8335,12 +8377,12 @@
       <c r="N353" s="10"/>
     </row>
     <row r="354" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A354" s="22"/>
-      <c r="B354" s="23"/>
-      <c r="C354" s="22"/>
-      <c r="D354" s="22"/>
-      <c r="E354" s="10"/>
-      <c r="F354" s="10"/>
+      <c r="A354" s="21"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="42"/>
+      <c r="F354" s="42"/>
       <c r="G354" s="10"/>
       <c r="H354" s="10"/>
       <c r="I354" s="10"/>
@@ -8351,12 +8393,12 @@
       <c r="N354" s="10"/>
     </row>
     <row r="355" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A355" s="22"/>
-      <c r="B355" s="23"/>
-      <c r="C355" s="22"/>
-      <c r="D355" s="22"/>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
+      <c r="A355" s="21"/>
+      <c r="B355" s="22"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="42"/>
+      <c r="F355" s="42"/>
       <c r="G355" s="10"/>
       <c r="H355" s="10"/>
       <c r="I355" s="10"/>
@@ -8367,12 +8409,12 @@
       <c r="N355" s="10"/>
     </row>
     <row r="356" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A356" s="22"/>
-      <c r="B356" s="23"/>
-      <c r="C356" s="22"/>
-      <c r="D356" s="22"/>
-      <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
+      <c r="A356" s="21"/>
+      <c r="B356" s="22"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
+      <c r="E356" s="42"/>
+      <c r="F356" s="42"/>
       <c r="G356" s="10"/>
       <c r="H356" s="10"/>
       <c r="I356" s="10"/>
@@ -8383,12 +8425,12 @@
       <c r="N356" s="10"/>
     </row>
     <row r="357" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A357" s="22"/>
-      <c r="B357" s="23"/>
-      <c r="C357" s="22"/>
-      <c r="D357" s="22"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
+      <c r="A357" s="21"/>
+      <c r="B357" s="22"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="42"/>
+      <c r="F357" s="42"/>
       <c r="G357" s="10"/>
       <c r="H357" s="10"/>
       <c r="I357" s="10"/>
@@ -8399,12 +8441,12 @@
       <c r="N357" s="10"/>
     </row>
     <row r="358" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A358" s="22"/>
-      <c r="B358" s="23"/>
-      <c r="C358" s="22"/>
-      <c r="D358" s="22"/>
-      <c r="E358" s="10"/>
-      <c r="F358" s="10"/>
+      <c r="A358" s="21"/>
+      <c r="B358" s="22"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
+      <c r="E358" s="42"/>
+      <c r="F358" s="42"/>
       <c r="G358" s="10"/>
       <c r="H358" s="10"/>
       <c r="I358" s="10"/>
@@ -8415,12 +8457,12 @@
       <c r="N358" s="10"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A359" s="22"/>
-      <c r="B359" s="23"/>
-      <c r="C359" s="22"/>
-      <c r="D359" s="22"/>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
+      <c r="A359" s="21"/>
+      <c r="B359" s="22"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="42"/>
+      <c r="F359" s="42"/>
       <c r="G359" s="10"/>
       <c r="H359" s="10"/>
       <c r="I359" s="10"/>
@@ -8431,12 +8473,12 @@
       <c r="N359" s="10"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A360" s="22"/>
-      <c r="B360" s="23"/>
-      <c r="C360" s="22"/>
-      <c r="D360" s="22"/>
-      <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
+      <c r="A360" s="21"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="42"/>
+      <c r="F360" s="42"/>
       <c r="G360" s="10"/>
       <c r="H360" s="10"/>
       <c r="I360" s="10"/>
@@ -8447,12 +8489,12 @@
       <c r="N360" s="10"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A361" s="22"/>
-      <c r="B361" s="23"/>
-      <c r="C361" s="22"/>
-      <c r="D361" s="22"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
+      <c r="A361" s="21"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
+      <c r="E361" s="42"/>
+      <c r="F361" s="42"/>
       <c r="G361" s="10"/>
       <c r="H361" s="10"/>
       <c r="I361" s="10"/>
@@ -8463,12 +8505,12 @@
       <c r="N361" s="10"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A362" s="22"/>
-      <c r="B362" s="23"/>
-      <c r="C362" s="22"/>
-      <c r="D362" s="22"/>
-      <c r="E362" s="10"/>
-      <c r="F362" s="10"/>
+      <c r="A362" s="21"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
+      <c r="E362" s="42"/>
+      <c r="F362" s="42"/>
       <c r="G362" s="10"/>
       <c r="H362" s="10"/>
       <c r="I362" s="10"/>
@@ -8479,12 +8521,12 @@
       <c r="N362" s="10"/>
     </row>
     <row r="363" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A363" s="22"/>
-      <c r="B363" s="23"/>
-      <c r="C363" s="22"/>
-      <c r="D363" s="22"/>
-      <c r="E363" s="10"/>
-      <c r="F363" s="10"/>
+      <c r="A363" s="21"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
+      <c r="E363" s="42"/>
+      <c r="F363" s="42"/>
       <c r="G363" s="10"/>
       <c r="H363" s="10"/>
       <c r="I363" s="10"/>
@@ -8495,12 +8537,12 @@
       <c r="N363" s="10"/>
     </row>
     <row r="364" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A364" s="22"/>
-      <c r="B364" s="23"/>
-      <c r="C364" s="22"/>
-      <c r="D364" s="22"/>
-      <c r="E364" s="10"/>
-      <c r="F364" s="10"/>
+      <c r="A364" s="21"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
+      <c r="E364" s="42"/>
+      <c r="F364" s="42"/>
       <c r="G364" s="10"/>
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
@@ -8511,12 +8553,12 @@
       <c r="N364" s="10"/>
     </row>
     <row r="365" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A365" s="22"/>
-      <c r="B365" s="23"/>
-      <c r="C365" s="22"/>
-      <c r="D365" s="22"/>
-      <c r="E365" s="10"/>
-      <c r="F365" s="10"/>
+      <c r="A365" s="21"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
+      <c r="E365" s="42"/>
+      <c r="F365" s="42"/>
       <c r="G365" s="10"/>
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
@@ -8527,12 +8569,12 @@
       <c r="N365" s="10"/>
     </row>
     <row r="366" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A366" s="22"/>
-      <c r="B366" s="23"/>
-      <c r="C366" s="22"/>
-      <c r="D366" s="22"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="10"/>
+      <c r="A366" s="21"/>
+      <c r="B366" s="22"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
+      <c r="E366" s="42"/>
+      <c r="F366" s="42"/>
       <c r="G366" s="10"/>
       <c r="H366" s="10"/>
       <c r="I366" s="10"/>
@@ -8543,12 +8585,12 @@
       <c r="N366" s="10"/>
     </row>
     <row r="367" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A367" s="22"/>
-      <c r="B367" s="23"/>
-      <c r="C367" s="22"/>
-      <c r="D367" s="22"/>
-      <c r="E367" s="10"/>
-      <c r="F367" s="10"/>
+      <c r="A367" s="21"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="21"/>
+      <c r="D367" s="21"/>
+      <c r="E367" s="42"/>
+      <c r="F367" s="42"/>
       <c r="G367" s="10"/>
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
@@ -8559,12 +8601,12 @@
       <c r="N367" s="10"/>
     </row>
     <row r="368" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A368" s="22"/>
-      <c r="B368" s="23"/>
-      <c r="C368" s="22"/>
-      <c r="D368" s="22"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
+      <c r="A368" s="21"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
+      <c r="E368" s="42"/>
+      <c r="F368" s="42"/>
       <c r="G368" s="10"/>
       <c r="H368" s="10"/>
       <c r="I368" s="10"/>
@@ -8575,12 +8617,12 @@
       <c r="N368" s="10"/>
     </row>
     <row r="369" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A369" s="22"/>
-      <c r="B369" s="23"/>
-      <c r="C369" s="22"/>
-      <c r="D369" s="22"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="10"/>
+      <c r="A369" s="21"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
+      <c r="E369" s="42"/>
+      <c r="F369" s="42"/>
       <c r="G369" s="10"/>
       <c r="H369" s="10"/>
       <c r="I369" s="10"/>
@@ -8591,12 +8633,12 @@
       <c r="N369" s="10"/>
     </row>
     <row r="370" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A370" s="22"/>
-      <c r="B370" s="23"/>
-      <c r="C370" s="22"/>
-      <c r="D370" s="22"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="10"/>
+      <c r="A370" s="21"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="42"/>
+      <c r="F370" s="42"/>
       <c r="G370" s="10"/>
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
@@ -8607,12 +8649,12 @@
       <c r="N370" s="10"/>
     </row>
     <row r="371" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A371" s="22"/>
-      <c r="B371" s="23"/>
-      <c r="C371" s="22"/>
-      <c r="D371" s="22"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
+      <c r="A371" s="21"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
+      <c r="E371" s="42"/>
+      <c r="F371" s="42"/>
       <c r="G371" s="10"/>
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
@@ -8623,12 +8665,12 @@
       <c r="N371" s="10"/>
     </row>
     <row r="372" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A372" s="22"/>
-      <c r="B372" s="23"/>
-      <c r="C372" s="22"/>
-      <c r="D372" s="22"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="10"/>
+      <c r="A372" s="21"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
+      <c r="E372" s="42"/>
+      <c r="F372" s="42"/>
       <c r="G372" s="10"/>
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
@@ -8639,12 +8681,12 @@
       <c r="N372" s="10"/>
     </row>
     <row r="373" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A373" s="22"/>
-      <c r="B373" s="23"/>
-      <c r="C373" s="22"/>
-      <c r="D373" s="22"/>
-      <c r="E373" s="10"/>
-      <c r="F373" s="10"/>
+      <c r="A373" s="21"/>
+      <c r="B373" s="22"/>
+      <c r="C373" s="21"/>
+      <c r="D373" s="21"/>
+      <c r="E373" s="42"/>
+      <c r="F373" s="42"/>
       <c r="G373" s="10"/>
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
@@ -8655,12 +8697,12 @@
       <c r="N373" s="10"/>
     </row>
     <row r="374" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A374" s="22"/>
-      <c r="B374" s="23"/>
-      <c r="C374" s="22"/>
-      <c r="D374" s="22"/>
-      <c r="E374" s="10"/>
-      <c r="F374" s="10"/>
+      <c r="A374" s="21"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="21"/>
+      <c r="D374" s="21"/>
+      <c r="E374" s="42"/>
+      <c r="F374" s="42"/>
       <c r="G374" s="10"/>
       <c r="H374" s="10"/>
       <c r="I374" s="10"/>
@@ -8671,12 +8713,12 @@
       <c r="N374" s="10"/>
     </row>
     <row r="375" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A375" s="22"/>
-      <c r="B375" s="23"/>
-      <c r="C375" s="22"/>
-      <c r="D375" s="22"/>
-      <c r="E375" s="10"/>
-      <c r="F375" s="10"/>
+      <c r="A375" s="21"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="21"/>
+      <c r="D375" s="21"/>
+      <c r="E375" s="42"/>
+      <c r="F375" s="42"/>
       <c r="G375" s="10"/>
       <c r="H375" s="10"/>
       <c r="I375" s="10"/>
@@ -8687,12 +8729,12 @@
       <c r="N375" s="10"/>
     </row>
     <row r="376" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A376" s="22"/>
-      <c r="B376" s="23"/>
-      <c r="C376" s="22"/>
-      <c r="D376" s="22"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="10"/>
+      <c r="A376" s="21"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
+      <c r="E376" s="42"/>
+      <c r="F376" s="42"/>
       <c r="G376" s="10"/>
       <c r="H376" s="10"/>
       <c r="I376" s="10"/>
@@ -8703,12 +8745,12 @@
       <c r="N376" s="10"/>
     </row>
     <row r="377" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A377" s="22"/>
-      <c r="B377" s="23"/>
-      <c r="C377" s="22"/>
-      <c r="D377" s="22"/>
-      <c r="E377" s="10"/>
-      <c r="F377" s="10"/>
+      <c r="A377" s="21"/>
+      <c r="B377" s="22"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="42"/>
+      <c r="F377" s="42"/>
       <c r="G377" s="10"/>
       <c r="H377" s="10"/>
       <c r="I377" s="10"/>
@@ -8719,12 +8761,12 @@
       <c r="N377" s="10"/>
     </row>
     <row r="378" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A378" s="22"/>
-      <c r="B378" s="23"/>
-      <c r="C378" s="22"/>
-      <c r="D378" s="22"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="10"/>
+      <c r="A378" s="21"/>
+      <c r="B378" s="22"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
+      <c r="E378" s="42"/>
+      <c r="F378" s="42"/>
       <c r="G378" s="10"/>
       <c r="H378" s="10"/>
       <c r="I378" s="10"/>
@@ -8735,12 +8777,12 @@
       <c r="N378" s="10"/>
     </row>
     <row r="379" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A379" s="22"/>
-      <c r="B379" s="23"/>
-      <c r="C379" s="22"/>
-      <c r="D379" s="22"/>
-      <c r="E379" s="10"/>
-      <c r="F379" s="10"/>
+      <c r="A379" s="21"/>
+      <c r="B379" s="22"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="42"/>
+      <c r="F379" s="42"/>
       <c r="G379" s="10"/>
       <c r="H379" s="10"/>
       <c r="I379" s="10"/>
@@ -8751,12 +8793,12 @@
       <c r="N379" s="10"/>
     </row>
     <row r="380" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A380" s="22"/>
-      <c r="B380" s="23"/>
-      <c r="C380" s="22"/>
-      <c r="D380" s="22"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="10"/>
+      <c r="A380" s="21"/>
+      <c r="B380" s="22"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
+      <c r="E380" s="42"/>
+      <c r="F380" s="42"/>
       <c r="G380" s="10"/>
       <c r="H380" s="10"/>
       <c r="I380" s="10"/>
@@ -8767,12 +8809,12 @@
       <c r="N380" s="10"/>
     </row>
     <row r="381" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A381" s="22"/>
-      <c r="B381" s="23"/>
-      <c r="C381" s="22"/>
-      <c r="D381" s="22"/>
-      <c r="E381" s="10"/>
-      <c r="F381" s="10"/>
+      <c r="A381" s="21"/>
+      <c r="B381" s="22"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
+      <c r="E381" s="42"/>
+      <c r="F381" s="42"/>
       <c r="G381" s="10"/>
       <c r="H381" s="10"/>
       <c r="I381" s="10"/>
@@ -8783,12 +8825,12 @@
       <c r="N381" s="10"/>
     </row>
     <row r="382" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A382" s="22"/>
-      <c r="B382" s="23"/>
-      <c r="C382" s="22"/>
-      <c r="D382" s="22"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="10"/>
+      <c r="A382" s="21"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="21"/>
+      <c r="E382" s="42"/>
+      <c r="F382" s="42"/>
       <c r="G382" s="10"/>
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
@@ -8799,12 +8841,12 @@
       <c r="N382" s="10"/>
     </row>
     <row r="383" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A383" s="22"/>
-      <c r="B383" s="23"/>
-      <c r="C383" s="22"/>
-      <c r="D383" s="22"/>
-      <c r="E383" s="10"/>
-      <c r="F383" s="10"/>
+      <c r="A383" s="21"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
+      <c r="E383" s="42"/>
+      <c r="F383" s="42"/>
       <c r="G383" s="10"/>
       <c r="H383" s="10"/>
       <c r="I383" s="10"/>
@@ -8815,12 +8857,12 @@
       <c r="N383" s="10"/>
     </row>
     <row r="384" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A384" s="22"/>
-      <c r="B384" s="23"/>
-      <c r="C384" s="22"/>
-      <c r="D384" s="22"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
+      <c r="A384" s="21"/>
+      <c r="B384" s="22"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
+      <c r="E384" s="42"/>
+      <c r="F384" s="42"/>
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
       <c r="I384" s="10"/>
@@ -8831,12 +8873,12 @@
       <c r="N384" s="10"/>
     </row>
     <row r="385" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A385" s="22"/>
-      <c r="B385" s="23"/>
-      <c r="C385" s="22"/>
-      <c r="D385" s="22"/>
-      <c r="E385" s="10"/>
-      <c r="F385" s="10"/>
+      <c r="A385" s="21"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
+      <c r="E385" s="42"/>
+      <c r="F385" s="42"/>
       <c r="G385" s="10"/>
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
@@ -8847,12 +8889,12 @@
       <c r="N385" s="10"/>
     </row>
     <row r="386" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A386" s="22"/>
-      <c r="B386" s="23"/>
-      <c r="C386" s="22"/>
-      <c r="D386" s="22"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="10"/>
+      <c r="A386" s="21"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
+      <c r="E386" s="42"/>
+      <c r="F386" s="42"/>
       <c r="G386" s="10"/>
       <c r="H386" s="10"/>
       <c r="I386" s="10"/>
@@ -8863,12 +8905,12 @@
       <c r="N386" s="10"/>
     </row>
     <row r="387" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A387" s="22"/>
-      <c r="B387" s="23"/>
-      <c r="C387" s="22"/>
-      <c r="D387" s="22"/>
-      <c r="E387" s="10"/>
-      <c r="F387" s="10"/>
+      <c r="A387" s="21"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="21"/>
+      <c r="E387" s="42"/>
+      <c r="F387" s="42"/>
       <c r="G387" s="10"/>
       <c r="H387" s="10"/>
       <c r="I387" s="10"/>
@@ -8879,12 +8921,12 @@
       <c r="N387" s="10"/>
     </row>
     <row r="388" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A388" s="22"/>
-      <c r="B388" s="23"/>
-      <c r="C388" s="22"/>
-      <c r="D388" s="22"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
+      <c r="A388" s="21"/>
+      <c r="B388" s="22"/>
+      <c r="C388" s="21"/>
+      <c r="D388" s="21"/>
+      <c r="E388" s="42"/>
+      <c r="F388" s="42"/>
       <c r="G388" s="10"/>
       <c r="H388" s="10"/>
       <c r="I388" s="10"/>
@@ -8895,12 +8937,12 @@
       <c r="N388" s="10"/>
     </row>
     <row r="389" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A389" s="22"/>
-      <c r="B389" s="23"/>
-      <c r="C389" s="22"/>
-      <c r="D389" s="22"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
+      <c r="A389" s="21"/>
+      <c r="B389" s="22"/>
+      <c r="C389" s="21"/>
+      <c r="D389" s="21"/>
+      <c r="E389" s="42"/>
+      <c r="F389" s="42"/>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
       <c r="I389" s="10"/>
@@ -8911,12 +8953,12 @@
       <c r="N389" s="10"/>
     </row>
     <row r="390" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A390" s="22"/>
-      <c r="B390" s="23"/>
-      <c r="C390" s="22"/>
-      <c r="D390" s="22"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
+      <c r="A390" s="21"/>
+      <c r="B390" s="22"/>
+      <c r="C390" s="21"/>
+      <c r="D390" s="21"/>
+      <c r="E390" s="42"/>
+      <c r="F390" s="42"/>
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
       <c r="I390" s="10"/>
@@ -8927,12 +8969,12 @@
       <c r="N390" s="10"/>
     </row>
     <row r="391" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A391" s="22"/>
-      <c r="B391" s="23"/>
-      <c r="C391" s="22"/>
-      <c r="D391" s="22"/>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
+      <c r="A391" s="21"/>
+      <c r="B391" s="22"/>
+      <c r="C391" s="21"/>
+      <c r="D391" s="21"/>
+      <c r="E391" s="42"/>
+      <c r="F391" s="42"/>
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
@@ -8943,12 +8985,12 @@
       <c r="N391" s="10"/>
     </row>
     <row r="392" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A392" s="22"/>
-      <c r="B392" s="23"/>
-      <c r="C392" s="22"/>
-      <c r="D392" s="22"/>
-      <c r="E392" s="10"/>
-      <c r="F392" s="10"/>
+      <c r="A392" s="21"/>
+      <c r="B392" s="22"/>
+      <c r="C392" s="21"/>
+      <c r="D392" s="21"/>
+      <c r="E392" s="42"/>
+      <c r="F392" s="42"/>
       <c r="G392" s="10"/>
       <c r="H392" s="10"/>
       <c r="I392" s="10"/>
@@ -8959,12 +9001,12 @@
       <c r="N392" s="10"/>
     </row>
     <row r="393" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A393" s="22"/>
-      <c r="B393" s="23"/>
-      <c r="C393" s="22"/>
-      <c r="D393" s="22"/>
-      <c r="E393" s="10"/>
-      <c r="F393" s="10"/>
+      <c r="A393" s="21"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="21"/>
+      <c r="D393" s="21"/>
+      <c r="E393" s="42"/>
+      <c r="F393" s="42"/>
       <c r="G393" s="10"/>
       <c r="H393" s="10"/>
       <c r="I393" s="10"/>
@@ -8975,12 +9017,12 @@
       <c r="N393" s="10"/>
     </row>
     <row r="394" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A394" s="22"/>
-      <c r="B394" s="23"/>
-      <c r="C394" s="22"/>
-      <c r="D394" s="22"/>
-      <c r="E394" s="10"/>
-      <c r="F394" s="10"/>
+      <c r="A394" s="21"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="21"/>
+      <c r="D394" s="21"/>
+      <c r="E394" s="42"/>
+      <c r="F394" s="42"/>
       <c r="G394" s="10"/>
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
@@ -8991,12 +9033,12 @@
       <c r="N394" s="10"/>
     </row>
     <row r="395" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A395" s="22"/>
-      <c r="B395" s="23"/>
-      <c r="C395" s="22"/>
-      <c r="D395" s="22"/>
-      <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
+      <c r="A395" s="21"/>
+      <c r="B395" s="22"/>
+      <c r="C395" s="21"/>
+      <c r="D395" s="21"/>
+      <c r="E395" s="42"/>
+      <c r="F395" s="42"/>
       <c r="G395" s="10"/>
       <c r="H395" s="10"/>
       <c r="I395" s="10"/>
@@ -9007,12 +9049,12 @@
       <c r="N395" s="10"/>
     </row>
     <row r="396" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A396" s="22"/>
-      <c r="B396" s="23"/>
-      <c r="C396" s="22"/>
-      <c r="D396" s="22"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
+      <c r="A396" s="21"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="21"/>
+      <c r="D396" s="21"/>
+      <c r="E396" s="42"/>
+      <c r="F396" s="42"/>
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
       <c r="I396" s="10"/>
@@ -9023,12 +9065,12 @@
       <c r="N396" s="10"/>
     </row>
     <row r="397" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A397" s="22"/>
-      <c r="B397" s="23"/>
-      <c r="C397" s="22"/>
-      <c r="D397" s="22"/>
-      <c r="E397" s="10"/>
-      <c r="F397" s="10"/>
+      <c r="A397" s="21"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="21"/>
+      <c r="D397" s="21"/>
+      <c r="E397" s="42"/>
+      <c r="F397" s="42"/>
       <c r="G397" s="10"/>
       <c r="H397" s="10"/>
       <c r="I397" s="10"/>
@@ -9039,12 +9081,12 @@
       <c r="N397" s="10"/>
     </row>
     <row r="398" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A398" s="22"/>
-      <c r="B398" s="23"/>
-      <c r="C398" s="22"/>
-      <c r="D398" s="22"/>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
+      <c r="A398" s="21"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="21"/>
+      <c r="D398" s="21"/>
+      <c r="E398" s="42"/>
+      <c r="F398" s="42"/>
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
       <c r="I398" s="10"/>
@@ -9055,12 +9097,12 @@
       <c r="N398" s="10"/>
     </row>
     <row r="399" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A399" s="22"/>
-      <c r="B399" s="23"/>
-      <c r="C399" s="22"/>
-      <c r="D399" s="22"/>
-      <c r="E399" s="10"/>
-      <c r="F399" s="10"/>
+      <c r="A399" s="21"/>
+      <c r="B399" s="22"/>
+      <c r="C399" s="21"/>
+      <c r="D399" s="21"/>
+      <c r="E399" s="42"/>
+      <c r="F399" s="42"/>
       <c r="G399" s="10"/>
       <c r="H399" s="10"/>
       <c r="I399" s="10"/>
@@ -9071,12 +9113,12 @@
       <c r="N399" s="10"/>
     </row>
     <row r="400" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A400" s="22"/>
-      <c r="B400" s="23"/>
-      <c r="C400" s="22"/>
-      <c r="D400" s="22"/>
-      <c r="E400" s="10"/>
-      <c r="F400" s="10"/>
+      <c r="A400" s="21"/>
+      <c r="B400" s="22"/>
+      <c r="C400" s="21"/>
+      <c r="D400" s="21"/>
+      <c r="E400" s="42"/>
+      <c r="F400" s="42"/>
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
@@ -9087,12 +9129,12 @@
       <c r="N400" s="10"/>
     </row>
     <row r="401" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A401" s="22"/>
-      <c r="B401" s="23"/>
-      <c r="C401" s="22"/>
-      <c r="D401" s="22"/>
-      <c r="E401" s="10"/>
-      <c r="F401" s="10"/>
+      <c r="A401" s="21"/>
+      <c r="B401" s="22"/>
+      <c r="C401" s="21"/>
+      <c r="D401" s="21"/>
+      <c r="E401" s="42"/>
+      <c r="F401" s="42"/>
       <c r="G401" s="10"/>
       <c r="H401" s="10"/>
       <c r="I401" s="10"/>
@@ -9103,12 +9145,12 @@
       <c r="N401" s="10"/>
     </row>
     <row r="402" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A402" s="22"/>
-      <c r="B402" s="23"/>
-      <c r="C402" s="22"/>
-      <c r="D402" s="22"/>
-      <c r="E402" s="10"/>
-      <c r="F402" s="10"/>
+      <c r="A402" s="21"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="21"/>
+      <c r="D402" s="21"/>
+      <c r="E402" s="42"/>
+      <c r="F402" s="42"/>
       <c r="G402" s="10"/>
       <c r="H402" s="10"/>
       <c r="I402" s="10"/>
@@ -9119,12 +9161,12 @@
       <c r="N402" s="10"/>
     </row>
     <row r="403" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A403" s="22"/>
-      <c r="B403" s="23"/>
-      <c r="C403" s="22"/>
-      <c r="D403" s="22"/>
-      <c r="E403" s="10"/>
-      <c r="F403" s="10"/>
+      <c r="A403" s="21"/>
+      <c r="B403" s="22"/>
+      <c r="C403" s="21"/>
+      <c r="D403" s="21"/>
+      <c r="E403" s="42"/>
+      <c r="F403" s="42"/>
       <c r="G403" s="10"/>
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
@@ -9135,12 +9177,12 @@
       <c r="N403" s="10"/>
     </row>
     <row r="404" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A404" s="22"/>
-      <c r="B404" s="23"/>
-      <c r="C404" s="22"/>
-      <c r="D404" s="22"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="10"/>
+      <c r="A404" s="21"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="21"/>
+      <c r="D404" s="21"/>
+      <c r="E404" s="42"/>
+      <c r="F404" s="42"/>
       <c r="G404" s="10"/>
       <c r="H404" s="10"/>
       <c r="I404" s="10"/>
@@ -9151,12 +9193,12 @@
       <c r="N404" s="10"/>
     </row>
     <row r="405" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A405" s="22"/>
-      <c r="B405" s="23"/>
-      <c r="C405" s="22"/>
-      <c r="D405" s="22"/>
-      <c r="E405" s="10"/>
-      <c r="F405" s="10"/>
+      <c r="A405" s="21"/>
+      <c r="B405" s="22"/>
+      <c r="C405" s="21"/>
+      <c r="D405" s="21"/>
+      <c r="E405" s="42"/>
+      <c r="F405" s="42"/>
       <c r="G405" s="10"/>
       <c r="H405" s="10"/>
       <c r="I405" s="10"/>
@@ -9167,12 +9209,12 @@
       <c r="N405" s="10"/>
     </row>
     <row r="406" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A406" s="22"/>
-      <c r="B406" s="23"/>
-      <c r="C406" s="22"/>
-      <c r="D406" s="22"/>
-      <c r="E406" s="10"/>
-      <c r="F406" s="10"/>
+      <c r="A406" s="21"/>
+      <c r="B406" s="22"/>
+      <c r="C406" s="21"/>
+      <c r="D406" s="21"/>
+      <c r="E406" s="42"/>
+      <c r="F406" s="42"/>
       <c r="G406" s="10"/>
       <c r="H406" s="10"/>
       <c r="I406" s="10"/>
@@ -9183,12 +9225,12 @@
       <c r="N406" s="10"/>
     </row>
     <row r="407" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A407" s="22"/>
-      <c r="B407" s="23"/>
-      <c r="C407" s="22"/>
-      <c r="D407" s="22"/>
-      <c r="E407" s="10"/>
-      <c r="F407" s="10"/>
+      <c r="A407" s="21"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="21"/>
+      <c r="D407" s="21"/>
+      <c r="E407" s="42"/>
+      <c r="F407" s="42"/>
       <c r="G407" s="10"/>
       <c r="H407" s="10"/>
       <c r="I407" s="10"/>
@@ -9199,12 +9241,12 @@
       <c r="N407" s="10"/>
     </row>
     <row r="408" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A408" s="22"/>
-      <c r="B408" s="23"/>
-      <c r="C408" s="22"/>
-      <c r="D408" s="22"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
+      <c r="A408" s="21"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="21"/>
+      <c r="D408" s="21"/>
+      <c r="E408" s="42"/>
+      <c r="F408" s="42"/>
       <c r="G408" s="10"/>
       <c r="H408" s="10"/>
       <c r="I408" s="10"/>
@@ -9215,12 +9257,12 @@
       <c r="N408" s="10"/>
     </row>
     <row r="409" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A409" s="22"/>
-      <c r="B409" s="23"/>
-      <c r="C409" s="22"/>
-      <c r="D409" s="22"/>
-      <c r="E409" s="10"/>
-      <c r="F409" s="10"/>
+      <c r="A409" s="21"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="21"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="42"/>
+      <c r="F409" s="42"/>
       <c r="G409" s="10"/>
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
@@ -9231,12 +9273,12 @@
       <c r="N409" s="10"/>
     </row>
     <row r="410" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A410" s="22"/>
-      <c r="B410" s="23"/>
-      <c r="C410" s="22"/>
-      <c r="D410" s="22"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="10"/>
+      <c r="A410" s="21"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="21"/>
+      <c r="D410" s="21"/>
+      <c r="E410" s="42"/>
+      <c r="F410" s="42"/>
       <c r="G410" s="10"/>
       <c r="H410" s="10"/>
       <c r="I410" s="10"/>
@@ -9247,12 +9289,12 @@
       <c r="N410" s="10"/>
     </row>
     <row r="411" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A411" s="22"/>
-      <c r="B411" s="23"/>
-      <c r="C411" s="22"/>
-      <c r="D411" s="22"/>
-      <c r="E411" s="10"/>
-      <c r="F411" s="10"/>
+      <c r="A411" s="21"/>
+      <c r="B411" s="22"/>
+      <c r="C411" s="21"/>
+      <c r="D411" s="21"/>
+      <c r="E411" s="42"/>
+      <c r="F411" s="42"/>
       <c r="G411" s="10"/>
       <c r="H411" s="10"/>
       <c r="I411" s="10"/>
@@ -9263,12 +9305,12 @@
       <c r="N411" s="10"/>
     </row>
     <row r="412" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A412" s="22"/>
-      <c r="B412" s="23"/>
-      <c r="C412" s="22"/>
-      <c r="D412" s="22"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
+      <c r="A412" s="21"/>
+      <c r="B412" s="22"/>
+      <c r="C412" s="21"/>
+      <c r="D412" s="21"/>
+      <c r="E412" s="42"/>
+      <c r="F412" s="42"/>
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
@@ -9279,12 +9321,12 @@
       <c r="N412" s="10"/>
     </row>
     <row r="413" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A413" s="22"/>
-      <c r="B413" s="23"/>
-      <c r="C413" s="22"/>
-      <c r="D413" s="22"/>
-      <c r="E413" s="10"/>
-      <c r="F413" s="10"/>
+      <c r="A413" s="21"/>
+      <c r="B413" s="22"/>
+      <c r="C413" s="21"/>
+      <c r="D413" s="21"/>
+      <c r="E413" s="42"/>
+      <c r="F413" s="42"/>
       <c r="G413" s="10"/>
       <c r="H413" s="10"/>
       <c r="I413" s="10"/>
@@ -9295,12 +9337,12 @@
       <c r="N413" s="10"/>
     </row>
     <row r="414" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A414" s="22"/>
-      <c r="B414" s="23"/>
-      <c r="C414" s="22"/>
-      <c r="D414" s="22"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
+      <c r="A414" s="21"/>
+      <c r="B414" s="22"/>
+      <c r="C414" s="21"/>
+      <c r="D414" s="21"/>
+      <c r="E414" s="42"/>
+      <c r="F414" s="42"/>
       <c r="G414" s="10"/>
       <c r="H414" s="10"/>
       <c r="I414" s="10"/>
@@ -9311,12 +9353,12 @@
       <c r="N414" s="10"/>
     </row>
     <row r="415" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A415" s="22"/>
-      <c r="B415" s="23"/>
-      <c r="C415" s="22"/>
-      <c r="D415" s="22"/>
-      <c r="E415" s="10"/>
-      <c r="F415" s="10"/>
+      <c r="A415" s="21"/>
+      <c r="B415" s="22"/>
+      <c r="C415" s="21"/>
+      <c r="D415" s="21"/>
+      <c r="E415" s="42"/>
+      <c r="F415" s="42"/>
       <c r="G415" s="10"/>
       <c r="H415" s="10"/>
       <c r="I415" s="10"/>
@@ -9327,12 +9369,12 @@
       <c r="N415" s="10"/>
     </row>
     <row r="416" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A416" s="22"/>
-      <c r="B416" s="23"/>
-      <c r="C416" s="22"/>
-      <c r="D416" s="22"/>
-      <c r="E416" s="10"/>
-      <c r="F416" s="10"/>
+      <c r="A416" s="21"/>
+      <c r="B416" s="22"/>
+      <c r="C416" s="21"/>
+      <c r="D416" s="21"/>
+      <c r="E416" s="42"/>
+      <c r="F416" s="42"/>
       <c r="G416" s="10"/>
       <c r="H416" s="10"/>
       <c r="I416" s="10"/>
@@ -9343,12 +9385,12 @@
       <c r="N416" s="10"/>
     </row>
     <row r="417" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A417" s="22"/>
-      <c r="B417" s="23"/>
-      <c r="C417" s="22"/>
-      <c r="D417" s="22"/>
-      <c r="E417" s="10"/>
-      <c r="F417" s="10"/>
+      <c r="A417" s="21"/>
+      <c r="B417" s="22"/>
+      <c r="C417" s="21"/>
+      <c r="D417" s="21"/>
+      <c r="E417" s="42"/>
+      <c r="F417" s="42"/>
       <c r="G417" s="10"/>
       <c r="H417" s="10"/>
       <c r="I417" s="10"/>
@@ -9359,12 +9401,12 @@
       <c r="N417" s="10"/>
     </row>
     <row r="418" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A418" s="22"/>
-      <c r="B418" s="23"/>
-      <c r="C418" s="22"/>
-      <c r="D418" s="22"/>
-      <c r="E418" s="10"/>
-      <c r="F418" s="10"/>
+      <c r="A418" s="21"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="21"/>
+      <c r="D418" s="21"/>
+      <c r="E418" s="42"/>
+      <c r="F418" s="42"/>
       <c r="G418" s="10"/>
       <c r="H418" s="10"/>
       <c r="I418" s="10"/>
@@ -9375,12 +9417,12 @@
       <c r="N418" s="10"/>
     </row>
     <row r="419" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A419" s="22"/>
-      <c r="B419" s="23"/>
-      <c r="C419" s="22"/>
-      <c r="D419" s="22"/>
-      <c r="E419" s="10"/>
-      <c r="F419" s="10"/>
+      <c r="A419" s="21"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="21"/>
+      <c r="D419" s="21"/>
+      <c r="E419" s="42"/>
+      <c r="F419" s="42"/>
       <c r="G419" s="10"/>
       <c r="H419" s="10"/>
       <c r="I419" s="10"/>
@@ -9391,12 +9433,12 @@
       <c r="N419" s="10"/>
     </row>
     <row r="420" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A420" s="22"/>
-      <c r="B420" s="23"/>
-      <c r="C420" s="22"/>
-      <c r="D420" s="22"/>
-      <c r="E420" s="10"/>
-      <c r="F420" s="10"/>
+      <c r="A420" s="21"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="21"/>
+      <c r="D420" s="21"/>
+      <c r="E420" s="42"/>
+      <c r="F420" s="42"/>
       <c r="G420" s="10"/>
       <c r="H420" s="10"/>
       <c r="I420" s="10"/>
@@ -9407,12 +9449,12 @@
       <c r="N420" s="10"/>
     </row>
     <row r="421" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A421" s="22"/>
-      <c r="B421" s="23"/>
-      <c r="C421" s="22"/>
-      <c r="D421" s="22"/>
-      <c r="E421" s="10"/>
-      <c r="F421" s="10"/>
+      <c r="A421" s="21"/>
+      <c r="B421" s="22"/>
+      <c r="C421" s="21"/>
+      <c r="D421" s="21"/>
+      <c r="E421" s="42"/>
+      <c r="F421" s="42"/>
       <c r="G421" s="10"/>
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
@@ -9423,12 +9465,12 @@
       <c r="N421" s="10"/>
     </row>
     <row r="422" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A422" s="22"/>
-      <c r="B422" s="23"/>
-      <c r="C422" s="22"/>
-      <c r="D422" s="22"/>
-      <c r="E422" s="10"/>
-      <c r="F422" s="10"/>
+      <c r="A422" s="21"/>
+      <c r="B422" s="22"/>
+      <c r="C422" s="21"/>
+      <c r="D422" s="21"/>
+      <c r="E422" s="42"/>
+      <c r="F422" s="42"/>
       <c r="G422" s="10"/>
       <c r="H422" s="10"/>
       <c r="I422" s="10"/>
@@ -9439,12 +9481,12 @@
       <c r="N422" s="10"/>
     </row>
     <row r="423" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A423" s="22"/>
-      <c r="B423" s="23"/>
-      <c r="C423" s="22"/>
-      <c r="D423" s="22"/>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
+      <c r="A423" s="21"/>
+      <c r="B423" s="22"/>
+      <c r="C423" s="21"/>
+      <c r="D423" s="21"/>
+      <c r="E423" s="42"/>
+      <c r="F423" s="42"/>
       <c r="G423" s="10"/>
       <c r="H423" s="10"/>
       <c r="I423" s="10"/>
@@ -9455,12 +9497,12 @@
       <c r="N423" s="10"/>
     </row>
     <row r="424" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A424" s="22"/>
-      <c r="B424" s="23"/>
-      <c r="C424" s="22"/>
-      <c r="D424" s="22"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
+      <c r="A424" s="21"/>
+      <c r="B424" s="22"/>
+      <c r="C424" s="21"/>
+      <c r="D424" s="21"/>
+      <c r="E424" s="42"/>
+      <c r="F424" s="42"/>
       <c r="G424" s="10"/>
       <c r="H424" s="10"/>
       <c r="I424" s="10"/>
@@ -9471,12 +9513,12 @@
       <c r="N424" s="10"/>
     </row>
     <row r="425" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A425" s="22"/>
-      <c r="B425" s="23"/>
-      <c r="C425" s="22"/>
-      <c r="D425" s="22"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
+      <c r="A425" s="21"/>
+      <c r="B425" s="22"/>
+      <c r="C425" s="21"/>
+      <c r="D425" s="21"/>
+      <c r="E425" s="42"/>
+      <c r="F425" s="42"/>
       <c r="G425" s="10"/>
       <c r="H425" s="10"/>
       <c r="I425" s="10"/>
@@ -9487,12 +9529,12 @@
       <c r="N425" s="10"/>
     </row>
     <row r="426" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A426" s="22"/>
-      <c r="B426" s="23"/>
-      <c r="C426" s="22"/>
-      <c r="D426" s="22"/>
-      <c r="E426" s="10"/>
-      <c r="F426" s="10"/>
+      <c r="A426" s="21"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="21"/>
+      <c r="D426" s="21"/>
+      <c r="E426" s="42"/>
+      <c r="F426" s="42"/>
       <c r="G426" s="10"/>
       <c r="H426" s="10"/>
       <c r="I426" s="10"/>
@@ -9503,12 +9545,12 @@
       <c r="N426" s="10"/>
     </row>
     <row r="427" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A427" s="22"/>
-      <c r="B427" s="23"/>
-      <c r="C427" s="22"/>
-      <c r="D427" s="22"/>
-      <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
+      <c r="A427" s="21"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="21"/>
+      <c r="D427" s="21"/>
+      <c r="E427" s="42"/>
+      <c r="F427" s="42"/>
       <c r="G427" s="10"/>
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
@@ -9519,12 +9561,12 @@
       <c r="N427" s="10"/>
     </row>
     <row r="428" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A428" s="22"/>
-      <c r="B428" s="22"/>
-      <c r="C428" s="22"/>
-      <c r="D428" s="22"/>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
+      <c r="A428" s="21"/>
+      <c r="B428" s="21"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="21"/>
+      <c r="E428" s="42"/>
+      <c r="F428" s="42"/>
       <c r="G428" s="10"/>
       <c r="H428" s="10"/>
       <c r="I428" s="10"/>
@@ -9535,12 +9577,12 @@
       <c r="N428" s="10"/>
     </row>
     <row r="429" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A429" s="22"/>
-      <c r="B429" s="22"/>
-      <c r="C429" s="22"/>
-      <c r="D429" s="22"/>
-      <c r="E429" s="10"/>
-      <c r="F429" s="10"/>
+      <c r="A429" s="21"/>
+      <c r="B429" s="21"/>
+      <c r="C429" s="21"/>
+      <c r="D429" s="21"/>
+      <c r="E429" s="42"/>
+      <c r="F429" s="42"/>
       <c r="G429" s="10"/>
       <c r="H429" s="10"/>
       <c r="I429" s="10"/>
@@ -9551,12 +9593,12 @@
       <c r="N429" s="10"/>
     </row>
     <row r="430" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A430" s="22"/>
-      <c r="B430" s="22"/>
-      <c r="C430" s="22"/>
-      <c r="D430" s="22"/>
-      <c r="E430" s="10"/>
-      <c r="F430" s="10"/>
+      <c r="A430" s="21"/>
+      <c r="B430" s="21"/>
+      <c r="C430" s="21"/>
+      <c r="D430" s="21"/>
+      <c r="E430" s="42"/>
+      <c r="F430" s="42"/>
       <c r="G430" s="10"/>
       <c r="H430" s="10"/>
       <c r="I430" s="10"/>
@@ -9567,12 +9609,12 @@
       <c r="N430" s="10"/>
     </row>
     <row r="431" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A431" s="22"/>
-      <c r="B431" s="22"/>
-      <c r="C431" s="22"/>
-      <c r="D431" s="22"/>
-      <c r="E431" s="10"/>
-      <c r="F431" s="10"/>
+      <c r="A431" s="21"/>
+      <c r="B431" s="21"/>
+      <c r="C431" s="21"/>
+      <c r="D431" s="21"/>
+      <c r="E431" s="42"/>
+      <c r="F431" s="42"/>
       <c r="G431" s="10"/>
       <c r="H431" s="10"/>
       <c r="I431" s="10"/>
@@ -9583,12 +9625,12 @@
       <c r="N431" s="10"/>
     </row>
     <row r="432" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A432" s="22"/>
-      <c r="B432" s="22"/>
-      <c r="C432" s="22"/>
-      <c r="D432" s="22"/>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
+      <c r="A432" s="21"/>
+      <c r="B432" s="21"/>
+      <c r="C432" s="21"/>
+      <c r="D432" s="21"/>
+      <c r="E432" s="42"/>
+      <c r="F432" s="42"/>
       <c r="G432" s="10"/>
       <c r="H432" s="10"/>
       <c r="I432" s="10"/>
@@ -9599,12 +9641,12 @@
       <c r="N432" s="10"/>
     </row>
     <row r="433" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A433" s="22"/>
-      <c r="B433" s="22"/>
-      <c r="C433" s="22"/>
-      <c r="D433" s="22"/>
-      <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
+      <c r="A433" s="21"/>
+      <c r="B433" s="21"/>
+      <c r="C433" s="21"/>
+      <c r="D433" s="21"/>
+      <c r="E433" s="42"/>
+      <c r="F433" s="42"/>
       <c r="G433" s="10"/>
       <c r="H433" s="10"/>
       <c r="I433" s="10"/>
@@ -9615,12 +9657,12 @@
       <c r="N433" s="10"/>
     </row>
     <row r="434" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A434" s="22"/>
-      <c r="B434" s="22"/>
-      <c r="C434" s="22"/>
-      <c r="D434" s="22"/>
-      <c r="E434" s="10"/>
-      <c r="F434" s="10"/>
+      <c r="A434" s="21"/>
+      <c r="B434" s="21"/>
+      <c r="C434" s="21"/>
+      <c r="D434" s="21"/>
+      <c r="E434" s="42"/>
+      <c r="F434" s="42"/>
       <c r="G434" s="10"/>
       <c r="H434" s="10"/>
       <c r="I434" s="10"/>
@@ -9631,12 +9673,12 @@
       <c r="N434" s="10"/>
     </row>
     <row r="435" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A435" s="22"/>
-      <c r="B435" s="22"/>
-      <c r="C435" s="22"/>
-      <c r="D435" s="22"/>
-      <c r="E435" s="10"/>
-      <c r="F435" s="10"/>
+      <c r="A435" s="21"/>
+      <c r="B435" s="21"/>
+      <c r="C435" s="21"/>
+      <c r="D435" s="21"/>
+      <c r="E435" s="42"/>
+      <c r="F435" s="42"/>
       <c r="G435" s="10"/>
       <c r="H435" s="10"/>
       <c r="I435" s="10"/>
@@ -9647,12 +9689,12 @@
       <c r="N435" s="10"/>
     </row>
     <row r="436" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A436" s="22"/>
-      <c r="B436" s="22"/>
-      <c r="C436" s="22"/>
-      <c r="D436" s="22"/>
-      <c r="E436" s="10"/>
-      <c r="F436" s="10"/>
+      <c r="A436" s="21"/>
+      <c r="B436" s="21"/>
+      <c r="C436" s="21"/>
+      <c r="D436" s="21"/>
+      <c r="E436" s="42"/>
+      <c r="F436" s="42"/>
       <c r="G436" s="10"/>
       <c r="H436" s="10"/>
       <c r="I436" s="10"/>
@@ -9663,12 +9705,12 @@
       <c r="N436" s="10"/>
     </row>
     <row r="437" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A437" s="22"/>
-      <c r="B437" s="22"/>
-      <c r="C437" s="22"/>
-      <c r="D437" s="22"/>
-      <c r="E437" s="10"/>
-      <c r="F437" s="10"/>
+      <c r="A437" s="21"/>
+      <c r="B437" s="21"/>
+      <c r="C437" s="21"/>
+      <c r="D437" s="21"/>
+      <c r="E437" s="42"/>
+      <c r="F437" s="42"/>
       <c r="G437" s="10"/>
       <c r="H437" s="10"/>
       <c r="I437" s="10"/>
@@ -9691,10 +9733,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437">
       <formula1>"Iza,Klaudia,Piotr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318">
       <formula1>"Nowe,W trakcie,Blokowane/Wstrzymane,Do weryfikacji/Testowane,Zakończone,Anulowane"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9708,7 +9750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9720,7 +9762,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="10"/>
@@ -9729,14 +9771,14 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="10"/>
@@ -9745,7 +9787,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="10"/>
@@ -9754,7 +9796,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="10"/>
@@ -9770,7 +9812,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="10"/>
@@ -9779,14 +9821,14 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="10"/>
@@ -9795,7 +9837,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="10"/>
@@ -9811,7 +9853,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="10"/>
@@ -9820,14 +9862,14 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="10"/>
@@ -9836,7 +9878,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="10"/>
@@ -9845,7 +9887,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="10"/>
@@ -9863,7 +9905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9875,424 +9917,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia\Desktop\projekty GIT\Cenowe_Rozkminy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D1739-8EF6-43DB-B5A8-4418E074502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Oem</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -860,10 +861,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,6 +873,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1006,7 +1007,7 @@
         <xdr:cNvPr id="5" name="Obraz 1" descr="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -2128,11 +2129,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2198,20 +2199,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do"/>
-    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24"/>
-    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots"/>
+    <hyperlink ref="D10" location="'To_Do'!R1C1" display="To_Do" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Notatki_11_12_24'!R1C1" display="Notatki_11_12_24" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Error_ScreenShots'!R1C1" display="Error_ScreenShots" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2220,8 +2221,8 @@
     <col min="2" max="2" width="72.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="41" customWidth="1"/>
     <col min="7" max="15" width="8.85546875" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="5"/>
   </cols>
@@ -3214,9 +3215,9 @@
         <v>45662</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="44"/>
+        <v>14</v>
+      </c>
+      <c r="F37" s="42"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -3242,7 +3243,7 @@
       <c r="E38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -3268,7 +3269,7 @@
       <c r="E39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="40" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="10"/>
@@ -3296,7 +3297,7 @@
       <c r="E40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -3322,7 +3323,7 @@
       <c r="E41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -3348,7 +3349,7 @@
       <c r="E42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -3371,8 +3372,8 @@
       <c r="D43" s="39">
         <v>45664</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -3395,10 +3396,10 @@
       <c r="D44" s="39">
         <v>45664</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -3421,8 +3422,8 @@
       <c r="D45" s="39">
         <v>45664</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -3443,8 +3444,8 @@
       <c r="D46" s="39">
         <v>45664</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="45" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="43" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="10"/>
@@ -3469,8 +3470,8 @@
       <c r="D47" s="39">
         <v>45664</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -3485,8 +3486,8 @@
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -3501,8 +3502,8 @@
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -3517,8 +3518,8 @@
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -3533,8 +3534,8 @@
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -3549,8 +3550,8 @@
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -3565,8 +3566,8 @@
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -3581,8 +3582,8 @@
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -3597,8 +3598,8 @@
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -3613,8 +3614,8 @@
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -3629,8 +3630,8 @@
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -3645,8 +3646,8 @@
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -3661,8 +3662,8 @@
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -3677,8 +3678,8 @@
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -3693,8 +3694,8 @@
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
@@ -3709,8 +3710,8 @@
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -3725,8 +3726,8 @@
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -3741,8 +3742,8 @@
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -3757,8 +3758,8 @@
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -3773,8 +3774,8 @@
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -3789,8 +3790,8 @@
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -3805,8 +3806,8 @@
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -3821,8 +3822,8 @@
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -3837,8 +3838,8 @@
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
@@ -3853,8 +3854,8 @@
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -3869,8 +3870,8 @@
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -3885,8 +3886,8 @@
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
@@ -3901,8 +3902,8 @@
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -3917,8 +3918,8 @@
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
@@ -3933,8 +3934,8 @@
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
@@ -3949,8 +3950,8 @@
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
@@ -3965,8 +3966,8 @@
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
@@ -3981,8 +3982,8 @@
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
@@ -3997,8 +3998,8 @@
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
@@ -4013,8 +4014,8 @@
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
@@ -4029,8 +4030,8 @@
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
@@ -4045,8 +4046,8 @@
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
@@ -4061,8 +4062,8 @@
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -4077,8 +4078,8 @@
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -4093,8 +4094,8 @@
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
@@ -4109,8 +4110,8 @@
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
@@ -4125,8 +4126,8 @@
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
@@ -4141,8 +4142,8 @@
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
@@ -4157,8 +4158,8 @@
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
@@ -4173,8 +4174,8 @@
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
@@ -4189,8 +4190,8 @@
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
@@ -4205,8 +4206,8 @@
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
@@ -4221,8 +4222,8 @@
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
@@ -4237,8 +4238,8 @@
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -4253,8 +4254,8 @@
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
@@ -4269,8 +4270,8 @@
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
@@ -4285,8 +4286,8 @@
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
@@ -4301,8 +4302,8 @@
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
@@ -4317,8 +4318,8 @@
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -4333,8 +4334,8 @@
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -4349,8 +4350,8 @@
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -4365,8 +4366,8 @@
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
@@ -4381,8 +4382,8 @@
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -4397,8 +4398,8 @@
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -4413,8 +4414,8 @@
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -4429,8 +4430,8 @@
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
@@ -4445,8 +4446,8 @@
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -4461,8 +4462,8 @@
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
@@ -4477,8 +4478,8 @@
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
@@ -4493,8 +4494,8 @@
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
@@ -4509,8 +4510,8 @@
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
@@ -4525,8 +4526,8 @@
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -4541,8 +4542,8 @@
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
@@ -4557,8 +4558,8 @@
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
@@ -4573,8 +4574,8 @@
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
@@ -4589,8 +4590,8 @@
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
@@ -4605,8 +4606,8 @@
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
@@ -4621,8 +4622,8 @@
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -4637,8 +4638,8 @@
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
@@ -4653,8 +4654,8 @@
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
@@ -4669,8 +4670,8 @@
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
@@ -4685,8 +4686,8 @@
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
@@ -4701,8 +4702,8 @@
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="10"/>
@@ -4717,8 +4718,8 @@
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -4733,8 +4734,8 @@
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
@@ -4749,8 +4750,8 @@
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
@@ -4765,8 +4766,8 @@
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
@@ -4781,8 +4782,8 @@
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
@@ -4797,8 +4798,8 @@
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
@@ -4813,8 +4814,8 @@
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
       <c r="D131" s="21"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
@@ -4829,8 +4830,8 @@
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
       <c r="D132" s="21"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
@@ -4845,8 +4846,8 @@
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
@@ -4861,8 +4862,8 @@
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="40"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
@@ -4877,8 +4878,8 @@
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
@@ -4893,8 +4894,8 @@
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
       <c r="D136" s="21"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
@@ -4909,8 +4910,8 @@
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="40"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
@@ -4925,8 +4926,8 @@
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="40"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
@@ -4941,8 +4942,8 @@
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="40"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
@@ -4957,8 +4958,8 @@
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
@@ -4973,8 +4974,8 @@
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="42"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="40"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
@@ -4989,8 +4990,8 @@
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="40"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
@@ -5005,8 +5006,8 @@
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="40"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
@@ -5021,8 +5022,8 @@
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
       <c r="D144" s="21"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
@@ -5037,8 +5038,8 @@
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="40"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
@@ -5053,8 +5054,8 @@
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="40"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
@@ -5069,8 +5070,8 @@
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="40"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
@@ -5085,8 +5086,8 @@
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="40"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
@@ -5101,8 +5102,8 @@
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="40"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
@@ -5117,8 +5118,8 @@
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
@@ -5133,8 +5134,8 @@
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
@@ -5149,8 +5150,8 @@
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
@@ -5165,8 +5166,8 @@
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="40"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
@@ -5181,8 +5182,8 @@
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
       <c r="D154" s="21"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
@@ -5197,8 +5198,8 @@
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
@@ -5213,8 +5214,8 @@
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
       <c r="D156" s="21"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
@@ -5229,8 +5230,8 @@
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
@@ -5245,8 +5246,8 @@
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="40"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
@@ -5261,8 +5262,8 @@
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
       <c r="D159" s="21"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
@@ -5277,8 +5278,8 @@
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
       <c r="D160" s="21"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="40"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
@@ -5293,8 +5294,8 @@
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
       <c r="D161" s="21"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="40"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -5309,8 +5310,8 @@
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10"/>
@@ -5325,8 +5326,8 @@
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="40"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
@@ -5341,8 +5342,8 @@
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
+      <c r="E164" s="40"/>
+      <c r="F164" s="40"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
@@ -5357,8 +5358,8 @@
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
       <c r="D165" s="21"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="40"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
@@ -5373,8 +5374,8 @@
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="40"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
@@ -5389,8 +5390,8 @@
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
       <c r="D167" s="21"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="40"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
@@ -5405,8 +5406,8 @@
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
       <c r="D168" s="21"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
@@ -5421,8 +5422,8 @@
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
@@ -5437,8 +5438,8 @@
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="40"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
@@ -5453,8 +5454,8 @@
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
       <c r="D171" s="21"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
@@ -5469,8 +5470,8 @@
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
       <c r="D172" s="21"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="40"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
@@ -5485,8 +5486,8 @@
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
       <c r="D173" s="21"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
@@ -5501,8 +5502,8 @@
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
       <c r="D174" s="21"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="42"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
@@ -5517,8 +5518,8 @@
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
       <c r="D175" s="21"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="42"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
@@ -5533,8 +5534,8 @@
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
       <c r="D176" s="21"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -5549,8 +5550,8 @@
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
       <c r="D177" s="21"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
@@ -5565,8 +5566,8 @@
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
       <c r="D178" s="21"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
@@ -5581,8 +5582,8 @@
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
       <c r="D179" s="21"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
@@ -5597,8 +5598,8 @@
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
       <c r="D180" s="21"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="40"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
@@ -5613,8 +5614,8 @@
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="40"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
@@ -5629,8 +5630,8 @@
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="40"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
@@ -5645,8 +5646,8 @@
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
@@ -5661,8 +5662,8 @@
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
       <c r="D184" s="21"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
       <c r="I184" s="10"/>
@@ -5677,8 +5678,8 @@
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
       <c r="D185" s="21"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="40"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
@@ -5693,8 +5694,8 @@
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
       <c r="D186" s="21"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="42"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="40"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
@@ -5709,8 +5710,8 @@
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
       <c r="D187" s="21"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
@@ -5725,8 +5726,8 @@
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="42"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="40"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
@@ -5741,8 +5742,8 @@
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
       <c r="D189" s="21"/>
-      <c r="E189" s="42"/>
-      <c r="F189" s="42"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="40"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
@@ -5757,8 +5758,8 @@
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
       <c r="D190" s="21"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="42"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="40"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
@@ -5773,8 +5774,8 @@
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="42"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
@@ -5789,8 +5790,8 @@
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
-      <c r="E192" s="42"/>
-      <c r="F192" s="42"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
@@ -5805,8 +5806,8 @@
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
-      <c r="E193" s="42"/>
-      <c r="F193" s="42"/>
+      <c r="E193" s="40"/>
+      <c r="F193" s="40"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
@@ -5821,8 +5822,8 @@
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
@@ -5837,8 +5838,8 @@
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
@@ -5853,8 +5854,8 @@
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
       <c r="D196" s="21"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="40"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
@@ -5869,8 +5870,8 @@
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
       <c r="D197" s="21"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
+      <c r="E197" s="40"/>
+      <c r="F197" s="40"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
@@ -5885,8 +5886,8 @@
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
+      <c r="E198" s="40"/>
+      <c r="F198" s="40"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
@@ -5901,8 +5902,8 @@
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="42"/>
+      <c r="E199" s="40"/>
+      <c r="F199" s="40"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
@@ -5917,8 +5918,8 @@
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="42"/>
+      <c r="E200" s="40"/>
+      <c r="F200" s="40"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
       <c r="I200" s="10"/>
@@ -5933,8 +5934,8 @@
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="40"/>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
       <c r="I201" s="10"/>
@@ -5949,8 +5950,8 @@
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="42"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="40"/>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
       <c r="I202" s="10"/>
@@ -5965,8 +5966,8 @@
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="42"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="40"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
@@ -5981,8 +5982,8 @@
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="42"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="40"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
       <c r="I204" s="10"/>
@@ -5997,8 +5998,8 @@
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
+      <c r="E205" s="40"/>
+      <c r="F205" s="40"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
       <c r="I205" s="10"/>
@@ -6013,8 +6014,8 @@
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
       <c r="D206" s="21"/>
-      <c r="E206" s="42"/>
-      <c r="F206" s="42"/>
+      <c r="E206" s="40"/>
+      <c r="F206" s="40"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
@@ -6029,8 +6030,8 @@
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
       <c r="D207" s="21"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
+      <c r="E207" s="40"/>
+      <c r="F207" s="40"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
@@ -6045,8 +6046,8 @@
       <c r="B208" s="22"/>
       <c r="C208" s="21"/>
       <c r="D208" s="21"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="40"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
@@ -6061,8 +6062,8 @@
       <c r="B209" s="22"/>
       <c r="C209" s="21"/>
       <c r="D209" s="21"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
+      <c r="E209" s="40"/>
+      <c r="F209" s="40"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -6077,8 +6078,8 @@
       <c r="B210" s="22"/>
       <c r="C210" s="21"/>
       <c r="D210" s="21"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="40"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
@@ -6093,8 +6094,8 @@
       <c r="B211" s="22"/>
       <c r="C211" s="21"/>
       <c r="D211" s="21"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
+      <c r="E211" s="40"/>
+      <c r="F211" s="40"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
       <c r="I211" s="10"/>
@@ -6109,8 +6110,8 @@
       <c r="B212" s="22"/>
       <c r="C212" s="21"/>
       <c r="D212" s="21"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
@@ -6125,8 +6126,8 @@
       <c r="B213" s="22"/>
       <c r="C213" s="21"/>
       <c r="D213" s="21"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
@@ -6141,8 +6142,8 @@
       <c r="B214" s="22"/>
       <c r="C214" s="21"/>
       <c r="D214" s="21"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="40"/>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
@@ -6157,8 +6158,8 @@
       <c r="B215" s="22"/>
       <c r="C215" s="21"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="40"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
@@ -6173,8 +6174,8 @@
       <c r="B216" s="22"/>
       <c r="C216" s="21"/>
       <c r="D216" s="21"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="40"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
       <c r="I216" s="10"/>
@@ -6189,8 +6190,8 @@
       <c r="B217" s="22"/>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
+      <c r="E217" s="40"/>
+      <c r="F217" s="40"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
@@ -6205,8 +6206,8 @@
       <c r="B218" s="22"/>
       <c r="C218" s="21"/>
       <c r="D218" s="21"/>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="40"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
@@ -6221,8 +6222,8 @@
       <c r="B219" s="22"/>
       <c r="C219" s="21"/>
       <c r="D219" s="21"/>
-      <c r="E219" s="42"/>
-      <c r="F219" s="42"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="40"/>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
@@ -6237,8 +6238,8 @@
       <c r="B220" s="22"/>
       <c r="C220" s="21"/>
       <c r="D220" s="21"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
+      <c r="E220" s="40"/>
+      <c r="F220" s="40"/>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
@@ -6253,8 +6254,8 @@
       <c r="B221" s="22"/>
       <c r="C221" s="21"/>
       <c r="D221" s="21"/>
-      <c r="E221" s="42"/>
-      <c r="F221" s="42"/>
+      <c r="E221" s="40"/>
+      <c r="F221" s="40"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
@@ -6269,8 +6270,8 @@
       <c r="B222" s="22"/>
       <c r="C222" s="21"/>
       <c r="D222" s="21"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="42"/>
+      <c r="E222" s="40"/>
+      <c r="F222" s="40"/>
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
@@ -6285,8 +6286,8 @@
       <c r="B223" s="22"/>
       <c r="C223" s="21"/>
       <c r="D223" s="21"/>
-      <c r="E223" s="42"/>
-      <c r="F223" s="42"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="40"/>
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
@@ -6301,8 +6302,8 @@
       <c r="B224" s="22"/>
       <c r="C224" s="21"/>
       <c r="D224" s="21"/>
-      <c r="E224" s="42"/>
-      <c r="F224" s="42"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="40"/>
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
@@ -6317,8 +6318,8 @@
       <c r="B225" s="22"/>
       <c r="C225" s="21"/>
       <c r="D225" s="21"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
+      <c r="E225" s="40"/>
+      <c r="F225" s="40"/>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
       <c r="I225" s="10"/>
@@ -6333,8 +6334,8 @@
       <c r="B226" s="22"/>
       <c r="C226" s="21"/>
       <c r="D226" s="21"/>
-      <c r="E226" s="42"/>
-      <c r="F226" s="42"/>
+      <c r="E226" s="40"/>
+      <c r="F226" s="40"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
@@ -6349,8 +6350,8 @@
       <c r="B227" s="22"/>
       <c r="C227" s="21"/>
       <c r="D227" s="21"/>
-      <c r="E227" s="42"/>
-      <c r="F227" s="42"/>
+      <c r="E227" s="40"/>
+      <c r="F227" s="40"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
@@ -6365,8 +6366,8 @@
       <c r="B228" s="22"/>
       <c r="C228" s="21"/>
       <c r="D228" s="21"/>
-      <c r="E228" s="42"/>
-      <c r="F228" s="42"/>
+      <c r="E228" s="40"/>
+      <c r="F228" s="40"/>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
       <c r="I228" s="10"/>
@@ -6381,8 +6382,8 @@
       <c r="B229" s="22"/>
       <c r="C229" s="21"/>
       <c r="D229" s="21"/>
-      <c r="E229" s="42"/>
-      <c r="F229" s="42"/>
+      <c r="E229" s="40"/>
+      <c r="F229" s="40"/>
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
@@ -6397,8 +6398,8 @@
       <c r="B230" s="22"/>
       <c r="C230" s="21"/>
       <c r="D230" s="21"/>
-      <c r="E230" s="42"/>
-      <c r="F230" s="42"/>
+      <c r="E230" s="40"/>
+      <c r="F230" s="40"/>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
       <c r="I230" s="10"/>
@@ -6413,8 +6414,8 @@
       <c r="B231" s="22"/>
       <c r="C231" s="21"/>
       <c r="D231" s="21"/>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42"/>
+      <c r="E231" s="40"/>
+      <c r="F231" s="40"/>
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
       <c r="I231" s="10"/>
@@ -6429,8 +6430,8 @@
       <c r="B232" s="22"/>
       <c r="C232" s="21"/>
       <c r="D232" s="21"/>
-      <c r="E232" s="42"/>
-      <c r="F232" s="42"/>
+      <c r="E232" s="40"/>
+      <c r="F232" s="40"/>
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
@@ -6445,8 +6446,8 @@
       <c r="B233" s="22"/>
       <c r="C233" s="21"/>
       <c r="D233" s="21"/>
-      <c r="E233" s="42"/>
-      <c r="F233" s="42"/>
+      <c r="E233" s="40"/>
+      <c r="F233" s="40"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
@@ -6461,8 +6462,8 @@
       <c r="B234" s="22"/>
       <c r="C234" s="21"/>
       <c r="D234" s="21"/>
-      <c r="E234" s="42"/>
-      <c r="F234" s="42"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="40"/>
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
@@ -6477,8 +6478,8 @@
       <c r="B235" s="22"/>
       <c r="C235" s="21"/>
       <c r="D235" s="21"/>
-      <c r="E235" s="42"/>
-      <c r="F235" s="42"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="40"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
@@ -6493,8 +6494,8 @@
       <c r="B236" s="22"/>
       <c r="C236" s="21"/>
       <c r="D236" s="21"/>
-      <c r="E236" s="42"/>
-      <c r="F236" s="42"/>
+      <c r="E236" s="40"/>
+      <c r="F236" s="40"/>
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
@@ -6509,8 +6510,8 @@
       <c r="B237" s="22"/>
       <c r="C237" s="21"/>
       <c r="D237" s="21"/>
-      <c r="E237" s="42"/>
-      <c r="F237" s="42"/>
+      <c r="E237" s="40"/>
+      <c r="F237" s="40"/>
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
@@ -6525,8 +6526,8 @@
       <c r="B238" s="22"/>
       <c r="C238" s="21"/>
       <c r="D238" s="21"/>
-      <c r="E238" s="42"/>
-      <c r="F238" s="42"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="40"/>
       <c r="G238" s="10"/>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
@@ -6541,8 +6542,8 @@
       <c r="B239" s="22"/>
       <c r="C239" s="21"/>
       <c r="D239" s="21"/>
-      <c r="E239" s="42"/>
-      <c r="F239" s="42"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="40"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
@@ -6557,8 +6558,8 @@
       <c r="B240" s="22"/>
       <c r="C240" s="21"/>
       <c r="D240" s="21"/>
-      <c r="E240" s="42"/>
-      <c r="F240" s="42"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="40"/>
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
@@ -6573,8 +6574,8 @@
       <c r="B241" s="22"/>
       <c r="C241" s="21"/>
       <c r="D241" s="21"/>
-      <c r="E241" s="42"/>
-      <c r="F241" s="42"/>
+      <c r="E241" s="40"/>
+      <c r="F241" s="40"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
@@ -6589,8 +6590,8 @@
       <c r="B242" s="22"/>
       <c r="C242" s="21"/>
       <c r="D242" s="21"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="42"/>
+      <c r="E242" s="40"/>
+      <c r="F242" s="40"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
@@ -6605,8 +6606,8 @@
       <c r="B243" s="22"/>
       <c r="C243" s="21"/>
       <c r="D243" s="21"/>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
+      <c r="E243" s="40"/>
+      <c r="F243" s="40"/>
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
@@ -6621,8 +6622,8 @@
       <c r="B244" s="22"/>
       <c r="C244" s="21"/>
       <c r="D244" s="21"/>
-      <c r="E244" s="42"/>
-      <c r="F244" s="42"/>
+      <c r="E244" s="40"/>
+      <c r="F244" s="40"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
@@ -6637,8 +6638,8 @@
       <c r="B245" s="22"/>
       <c r="C245" s="21"/>
       <c r="D245" s="21"/>
-      <c r="E245" s="42"/>
-      <c r="F245" s="42"/>
+      <c r="E245" s="40"/>
+      <c r="F245" s="40"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
@@ -6653,8 +6654,8 @@
       <c r="B246" s="22"/>
       <c r="C246" s="21"/>
       <c r="D246" s="21"/>
-      <c r="E246" s="42"/>
-      <c r="F246" s="42"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="40"/>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
@@ -6669,8 +6670,8 @@
       <c r="B247" s="22"/>
       <c r="C247" s="21"/>
       <c r="D247" s="21"/>
-      <c r="E247" s="42"/>
-      <c r="F247" s="42"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="40"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
@@ -6685,8 +6686,8 @@
       <c r="B248" s="22"/>
       <c r="C248" s="21"/>
       <c r="D248" s="21"/>
-      <c r="E248" s="42"/>
-      <c r="F248" s="42"/>
+      <c r="E248" s="40"/>
+      <c r="F248" s="40"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
@@ -6701,8 +6702,8 @@
       <c r="B249" s="22"/>
       <c r="C249" s="21"/>
       <c r="D249" s="21"/>
-      <c r="E249" s="42"/>
-      <c r="F249" s="42"/>
+      <c r="E249" s="40"/>
+      <c r="F249" s="40"/>
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
@@ -6717,8 +6718,8 @@
       <c r="B250" s="22"/>
       <c r="C250" s="21"/>
       <c r="D250" s="21"/>
-      <c r="E250" s="42"/>
-      <c r="F250" s="42"/>
+      <c r="E250" s="40"/>
+      <c r="F250" s="40"/>
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
@@ -6733,8 +6734,8 @@
       <c r="B251" s="22"/>
       <c r="C251" s="21"/>
       <c r="D251" s="21"/>
-      <c r="E251" s="42"/>
-      <c r="F251" s="42"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
@@ -6749,8 +6750,8 @@
       <c r="B252" s="22"/>
       <c r="C252" s="21"/>
       <c r="D252" s="21"/>
-      <c r="E252" s="42"/>
-      <c r="F252" s="42"/>
+      <c r="E252" s="40"/>
+      <c r="F252" s="40"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
@@ -6765,8 +6766,8 @@
       <c r="B253" s="22"/>
       <c r="C253" s="21"/>
       <c r="D253" s="21"/>
-      <c r="E253" s="42"/>
-      <c r="F253" s="42"/>
+      <c r="E253" s="40"/>
+      <c r="F253" s="40"/>
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
@@ -6781,8 +6782,8 @@
       <c r="B254" s="22"/>
       <c r="C254" s="21"/>
       <c r="D254" s="21"/>
-      <c r="E254" s="42"/>
-      <c r="F254" s="42"/>
+      <c r="E254" s="40"/>
+      <c r="F254" s="40"/>
       <c r="G254" s="10"/>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
@@ -6797,8 +6798,8 @@
       <c r="B255" s="22"/>
       <c r="C255" s="21"/>
       <c r="D255" s="21"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="42"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="40"/>
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
@@ -6813,8 +6814,8 @@
       <c r="B256" s="22"/>
       <c r="C256" s="21"/>
       <c r="D256" s="21"/>
-      <c r="E256" s="42"/>
-      <c r="F256" s="42"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="40"/>
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
@@ -6829,8 +6830,8 @@
       <c r="B257" s="22"/>
       <c r="C257" s="21"/>
       <c r="D257" s="21"/>
-      <c r="E257" s="42"/>
-      <c r="F257" s="42"/>
+      <c r="E257" s="40"/>
+      <c r="F257" s="40"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
@@ -6845,8 +6846,8 @@
       <c r="B258" s="22"/>
       <c r="C258" s="21"/>
       <c r="D258" s="21"/>
-      <c r="E258" s="42"/>
-      <c r="F258" s="42"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="40"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
       <c r="I258" s="10"/>
@@ -6861,8 +6862,8 @@
       <c r="B259" s="22"/>
       <c r="C259" s="21"/>
       <c r="D259" s="21"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="42"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="40"/>
       <c r="G259" s="10"/>
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
@@ -6877,8 +6878,8 @@
       <c r="B260" s="22"/>
       <c r="C260" s="21"/>
       <c r="D260" s="21"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="42"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
@@ -6893,8 +6894,8 @@
       <c r="B261" s="22"/>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="42"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="40"/>
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
@@ -6909,8 +6910,8 @@
       <c r="B262" s="22"/>
       <c r="C262" s="21"/>
       <c r="D262" s="21"/>
-      <c r="E262" s="42"/>
-      <c r="F262" s="42"/>
+      <c r="E262" s="40"/>
+      <c r="F262" s="40"/>
       <c r="G262" s="10"/>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
@@ -6925,8 +6926,8 @@
       <c r="B263" s="22"/>
       <c r="C263" s="21"/>
       <c r="D263" s="21"/>
-      <c r="E263" s="42"/>
-      <c r="F263" s="42"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="40"/>
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
@@ -6941,8 +6942,8 @@
       <c r="B264" s="22"/>
       <c r="C264" s="21"/>
       <c r="D264" s="21"/>
-      <c r="E264" s="42"/>
-      <c r="F264" s="42"/>
+      <c r="E264" s="40"/>
+      <c r="F264" s="40"/>
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
@@ -6957,8 +6958,8 @@
       <c r="B265" s="22"/>
       <c r="C265" s="21"/>
       <c r="D265" s="21"/>
-      <c r="E265" s="42"/>
-      <c r="F265" s="42"/>
+      <c r="E265" s="40"/>
+      <c r="F265" s="40"/>
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
@@ -6973,8 +6974,8 @@
       <c r="B266" s="22"/>
       <c r="C266" s="21"/>
       <c r="D266" s="21"/>
-      <c r="E266" s="42"/>
-      <c r="F266" s="42"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="40"/>
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
       <c r="I266" s="10"/>
@@ -6989,8 +6990,8 @@
       <c r="B267" s="22"/>
       <c r="C267" s="21"/>
       <c r="D267" s="21"/>
-      <c r="E267" s="42"/>
-      <c r="F267" s="42"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="40"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
@@ -7005,8 +7006,8 @@
       <c r="B268" s="22"/>
       <c r="C268" s="21"/>
       <c r="D268" s="21"/>
-      <c r="E268" s="42"/>
-      <c r="F268" s="42"/>
+      <c r="E268" s="40"/>
+      <c r="F268" s="40"/>
       <c r="G268" s="10"/>
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
@@ -7021,8 +7022,8 @@
       <c r="B269" s="22"/>
       <c r="C269" s="21"/>
       <c r="D269" s="21"/>
-      <c r="E269" s="42"/>
-      <c r="F269" s="42"/>
+      <c r="E269" s="40"/>
+      <c r="F269" s="40"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
@@ -7037,8 +7038,8 @@
       <c r="B270" s="22"/>
       <c r="C270" s="21"/>
       <c r="D270" s="21"/>
-      <c r="E270" s="42"/>
-      <c r="F270" s="42"/>
+      <c r="E270" s="40"/>
+      <c r="F270" s="40"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
       <c r="I270" s="10"/>
@@ -7053,8 +7054,8 @@
       <c r="B271" s="22"/>
       <c r="C271" s="21"/>
       <c r="D271" s="21"/>
-      <c r="E271" s="42"/>
-      <c r="F271" s="42"/>
+      <c r="E271" s="40"/>
+      <c r="F271" s="40"/>
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
       <c r="I271" s="10"/>
@@ -7069,8 +7070,8 @@
       <c r="B272" s="22"/>
       <c r="C272" s="21"/>
       <c r="D272" s="21"/>
-      <c r="E272" s="42"/>
-      <c r="F272" s="42"/>
+      <c r="E272" s="40"/>
+      <c r="F272" s="40"/>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
@@ -7085,8 +7086,8 @@
       <c r="B273" s="22"/>
       <c r="C273" s="21"/>
       <c r="D273" s="21"/>
-      <c r="E273" s="42"/>
-      <c r="F273" s="42"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="40"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
       <c r="I273" s="10"/>
@@ -7101,8 +7102,8 @@
       <c r="B274" s="22"/>
       <c r="C274" s="21"/>
       <c r="D274" s="21"/>
-      <c r="E274" s="42"/>
-      <c r="F274" s="42"/>
+      <c r="E274" s="40"/>
+      <c r="F274" s="40"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
@@ -7117,8 +7118,8 @@
       <c r="B275" s="22"/>
       <c r="C275" s="21"/>
       <c r="D275" s="21"/>
-      <c r="E275" s="42"/>
-      <c r="F275" s="42"/>
+      <c r="E275" s="40"/>
+      <c r="F275" s="40"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
@@ -7133,8 +7134,8 @@
       <c r="B276" s="22"/>
       <c r="C276" s="21"/>
       <c r="D276" s="21"/>
-      <c r="E276" s="42"/>
-      <c r="F276" s="42"/>
+      <c r="E276" s="40"/>
+      <c r="F276" s="40"/>
       <c r="G276" s="10"/>
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
@@ -7149,8 +7150,8 @@
       <c r="B277" s="22"/>
       <c r="C277" s="21"/>
       <c r="D277" s="21"/>
-      <c r="E277" s="42"/>
-      <c r="F277" s="42"/>
+      <c r="E277" s="40"/>
+      <c r="F277" s="40"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
@@ -7165,8 +7166,8 @@
       <c r="B278" s="22"/>
       <c r="C278" s="21"/>
       <c r="D278" s="21"/>
-      <c r="E278" s="42"/>
-      <c r="F278" s="42"/>
+      <c r="E278" s="40"/>
+      <c r="F278" s="40"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
@@ -7181,8 +7182,8 @@
       <c r="B279" s="22"/>
       <c r="C279" s="21"/>
       <c r="D279" s="21"/>
-      <c r="E279" s="42"/>
-      <c r="F279" s="42"/>
+      <c r="E279" s="40"/>
+      <c r="F279" s="40"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
       <c r="I279" s="10"/>
@@ -7197,8 +7198,8 @@
       <c r="B280" s="22"/>
       <c r="C280" s="21"/>
       <c r="D280" s="21"/>
-      <c r="E280" s="42"/>
-      <c r="F280" s="42"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="40"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
@@ -7213,8 +7214,8 @@
       <c r="B281" s="22"/>
       <c r="C281" s="21"/>
       <c r="D281" s="21"/>
-      <c r="E281" s="42"/>
-      <c r="F281" s="42"/>
+      <c r="E281" s="40"/>
+      <c r="F281" s="40"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
@@ -7229,8 +7230,8 @@
       <c r="B282" s="22"/>
       <c r="C282" s="21"/>
       <c r="D282" s="21"/>
-      <c r="E282" s="42"/>
-      <c r="F282" s="42"/>
+      <c r="E282" s="40"/>
+      <c r="F282" s="40"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
       <c r="I282" s="10"/>
@@ -7245,8 +7246,8 @@
       <c r="B283" s="22"/>
       <c r="C283" s="21"/>
       <c r="D283" s="21"/>
-      <c r="E283" s="42"/>
-      <c r="F283" s="42"/>
+      <c r="E283" s="40"/>
+      <c r="F283" s="40"/>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
@@ -7261,8 +7262,8 @@
       <c r="B284" s="22"/>
       <c r="C284" s="21"/>
       <c r="D284" s="21"/>
-      <c r="E284" s="42"/>
-      <c r="F284" s="42"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
       <c r="I284" s="10"/>
@@ -7277,8 +7278,8 @@
       <c r="B285" s="22"/>
       <c r="C285" s="21"/>
       <c r="D285" s="21"/>
-      <c r="E285" s="42"/>
-      <c r="F285" s="42"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="40"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
@@ -7293,8 +7294,8 @@
       <c r="B286" s="22"/>
       <c r="C286" s="21"/>
       <c r="D286" s="21"/>
-      <c r="E286" s="42"/>
-      <c r="F286" s="42"/>
+      <c r="E286" s="40"/>
+      <c r="F286" s="40"/>
       <c r="G286" s="10"/>
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
@@ -7309,8 +7310,8 @@
       <c r="B287" s="22"/>
       <c r="C287" s="21"/>
       <c r="D287" s="21"/>
-      <c r="E287" s="42"/>
-      <c r="F287" s="42"/>
+      <c r="E287" s="40"/>
+      <c r="F287" s="40"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
@@ -7325,8 +7326,8 @@
       <c r="B288" s="22"/>
       <c r="C288" s="21"/>
       <c r="D288" s="21"/>
-      <c r="E288" s="42"/>
-      <c r="F288" s="42"/>
+      <c r="E288" s="40"/>
+      <c r="F288" s="40"/>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
@@ -7341,8 +7342,8 @@
       <c r="B289" s="22"/>
       <c r="C289" s="21"/>
       <c r="D289" s="21"/>
-      <c r="E289" s="42"/>
-      <c r="F289" s="42"/>
+      <c r="E289" s="40"/>
+      <c r="F289" s="40"/>
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
@@ -7357,8 +7358,8 @@
       <c r="B290" s="22"/>
       <c r="C290" s="21"/>
       <c r="D290" s="21"/>
-      <c r="E290" s="42"/>
-      <c r="F290" s="42"/>
+      <c r="E290" s="40"/>
+      <c r="F290" s="40"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
@@ -7373,8 +7374,8 @@
       <c r="B291" s="22"/>
       <c r="C291" s="21"/>
       <c r="D291" s="21"/>
-      <c r="E291" s="42"/>
-      <c r="F291" s="42"/>
+      <c r="E291" s="40"/>
+      <c r="F291" s="40"/>
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
@@ -7389,8 +7390,8 @@
       <c r="B292" s="22"/>
       <c r="C292" s="21"/>
       <c r="D292" s="21"/>
-      <c r="E292" s="42"/>
-      <c r="F292" s="42"/>
+      <c r="E292" s="40"/>
+      <c r="F292" s="40"/>
       <c r="G292" s="10"/>
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
@@ -7405,8 +7406,8 @@
       <c r="B293" s="22"/>
       <c r="C293" s="21"/>
       <c r="D293" s="21"/>
-      <c r="E293" s="42"/>
-      <c r="F293" s="42"/>
+      <c r="E293" s="40"/>
+      <c r="F293" s="40"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
@@ -7421,8 +7422,8 @@
       <c r="B294" s="22"/>
       <c r="C294" s="21"/>
       <c r="D294" s="21"/>
-      <c r="E294" s="42"/>
-      <c r="F294" s="42"/>
+      <c r="E294" s="40"/>
+      <c r="F294" s="40"/>
       <c r="G294" s="10"/>
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
@@ -7437,8 +7438,8 @@
       <c r="B295" s="22"/>
       <c r="C295" s="21"/>
       <c r="D295" s="21"/>
-      <c r="E295" s="42"/>
-      <c r="F295" s="42"/>
+      <c r="E295" s="40"/>
+      <c r="F295" s="40"/>
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
@@ -7453,8 +7454,8 @@
       <c r="B296" s="22"/>
       <c r="C296" s="21"/>
       <c r="D296" s="21"/>
-      <c r="E296" s="42"/>
-      <c r="F296" s="42"/>
+      <c r="E296" s="40"/>
+      <c r="F296" s="40"/>
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
@@ -7469,8 +7470,8 @@
       <c r="B297" s="22"/>
       <c r="C297" s="21"/>
       <c r="D297" s="21"/>
-      <c r="E297" s="42"/>
-      <c r="F297" s="42"/>
+      <c r="E297" s="40"/>
+      <c r="F297" s="40"/>
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
       <c r="I297" s="10"/>
@@ -7485,8 +7486,8 @@
       <c r="B298" s="22"/>
       <c r="C298" s="21"/>
       <c r="D298" s="21"/>
-      <c r="E298" s="42"/>
-      <c r="F298" s="42"/>
+      <c r="E298" s="40"/>
+      <c r="F298" s="40"/>
       <c r="G298" s="10"/>
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
@@ -7501,8 +7502,8 @@
       <c r="B299" s="22"/>
       <c r="C299" s="21"/>
       <c r="D299" s="21"/>
-      <c r="E299" s="42"/>
-      <c r="F299" s="42"/>
+      <c r="E299" s="40"/>
+      <c r="F299" s="40"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
@@ -7517,8 +7518,8 @@
       <c r="B300" s="22"/>
       <c r="C300" s="21"/>
       <c r="D300" s="21"/>
-      <c r="E300" s="42"/>
-      <c r="F300" s="42"/>
+      <c r="E300" s="40"/>
+      <c r="F300" s="40"/>
       <c r="G300" s="10"/>
       <c r="H300" s="10"/>
       <c r="I300" s="10"/>
@@ -7533,8 +7534,8 @@
       <c r="B301" s="22"/>
       <c r="C301" s="21"/>
       <c r="D301" s="21"/>
-      <c r="E301" s="42"/>
-      <c r="F301" s="42"/>
+      <c r="E301" s="40"/>
+      <c r="F301" s="40"/>
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
@@ -7549,8 +7550,8 @@
       <c r="B302" s="22"/>
       <c r="C302" s="21"/>
       <c r="D302" s="21"/>
-      <c r="E302" s="42"/>
-      <c r="F302" s="42"/>
+      <c r="E302" s="40"/>
+      <c r="F302" s="40"/>
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
@@ -7565,8 +7566,8 @@
       <c r="B303" s="22"/>
       <c r="C303" s="21"/>
       <c r="D303" s="21"/>
-      <c r="E303" s="42"/>
-      <c r="F303" s="42"/>
+      <c r="E303" s="40"/>
+      <c r="F303" s="40"/>
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
       <c r="I303" s="10"/>
@@ -7581,8 +7582,8 @@
       <c r="B304" s="22"/>
       <c r="C304" s="21"/>
       <c r="D304" s="21"/>
-      <c r="E304" s="42"/>
-      <c r="F304" s="42"/>
+      <c r="E304" s="40"/>
+      <c r="F304" s="40"/>
       <c r="G304" s="10"/>
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
@@ -7597,8 +7598,8 @@
       <c r="B305" s="22"/>
       <c r="C305" s="21"/>
       <c r="D305" s="21"/>
-      <c r="E305" s="42"/>
-      <c r="F305" s="42"/>
+      <c r="E305" s="40"/>
+      <c r="F305" s="40"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
       <c r="I305" s="10"/>
@@ -7613,8 +7614,8 @@
       <c r="B306" s="22"/>
       <c r="C306" s="21"/>
       <c r="D306" s="21"/>
-      <c r="E306" s="42"/>
-      <c r="F306" s="42"/>
+      <c r="E306" s="40"/>
+      <c r="F306" s="40"/>
       <c r="G306" s="10"/>
       <c r="H306" s="10"/>
       <c r="I306" s="10"/>
@@ -7629,8 +7630,8 @@
       <c r="B307" s="22"/>
       <c r="C307" s="21"/>
       <c r="D307" s="21"/>
-      <c r="E307" s="42"/>
-      <c r="F307" s="42"/>
+      <c r="E307" s="40"/>
+      <c r="F307" s="40"/>
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
       <c r="I307" s="10"/>
@@ -7645,8 +7646,8 @@
       <c r="B308" s="22"/>
       <c r="C308" s="21"/>
       <c r="D308" s="21"/>
-      <c r="E308" s="42"/>
-      <c r="F308" s="42"/>
+      <c r="E308" s="40"/>
+      <c r="F308" s="40"/>
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
@@ -7661,8 +7662,8 @@
       <c r="B309" s="22"/>
       <c r="C309" s="21"/>
       <c r="D309" s="21"/>
-      <c r="E309" s="42"/>
-      <c r="F309" s="42"/>
+      <c r="E309" s="40"/>
+      <c r="F309" s="40"/>
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
       <c r="I309" s="10"/>
@@ -7677,8 +7678,8 @@
       <c r="B310" s="22"/>
       <c r="C310" s="21"/>
       <c r="D310" s="21"/>
-      <c r="E310" s="42"/>
-      <c r="F310" s="42"/>
+      <c r="E310" s="40"/>
+      <c r="F310" s="40"/>
       <c r="G310" s="10"/>
       <c r="H310" s="10"/>
       <c r="I310" s="10"/>
@@ -7693,8 +7694,8 @@
       <c r="B311" s="22"/>
       <c r="C311" s="21"/>
       <c r="D311" s="21"/>
-      <c r="E311" s="42"/>
-      <c r="F311" s="42"/>
+      <c r="E311" s="40"/>
+      <c r="F311" s="40"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
@@ -7709,8 +7710,8 @@
       <c r="B312" s="22"/>
       <c r="C312" s="21"/>
       <c r="D312" s="21"/>
-      <c r="E312" s="42"/>
-      <c r="F312" s="42"/>
+      <c r="E312" s="40"/>
+      <c r="F312" s="40"/>
       <c r="G312" s="10"/>
       <c r="H312" s="10"/>
       <c r="I312" s="10"/>
@@ -7725,8 +7726,8 @@
       <c r="B313" s="22"/>
       <c r="C313" s="21"/>
       <c r="D313" s="21"/>
-      <c r="E313" s="42"/>
-      <c r="F313" s="42"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="40"/>
       <c r="G313" s="10"/>
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
@@ -7741,8 +7742,8 @@
       <c r="B314" s="22"/>
       <c r="C314" s="21"/>
       <c r="D314" s="21"/>
-      <c r="E314" s="42"/>
-      <c r="F314" s="42"/>
+      <c r="E314" s="40"/>
+      <c r="F314" s="40"/>
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
       <c r="I314" s="10"/>
@@ -7757,8 +7758,8 @@
       <c r="B315" s="22"/>
       <c r="C315" s="21"/>
       <c r="D315" s="21"/>
-      <c r="E315" s="42"/>
-      <c r="F315" s="42"/>
+      <c r="E315" s="40"/>
+      <c r="F315" s="40"/>
       <c r="G315" s="10"/>
       <c r="H315" s="10"/>
       <c r="I315" s="10"/>
@@ -7773,8 +7774,8 @@
       <c r="B316" s="22"/>
       <c r="C316" s="21"/>
       <c r="D316" s="21"/>
-      <c r="E316" s="42"/>
-      <c r="F316" s="42"/>
+      <c r="E316" s="40"/>
+      <c r="F316" s="40"/>
       <c r="G316" s="10"/>
       <c r="H316" s="10"/>
       <c r="I316" s="10"/>
@@ -7789,8 +7790,8 @@
       <c r="B317" s="22"/>
       <c r="C317" s="21"/>
       <c r="D317" s="21"/>
-      <c r="E317" s="42"/>
-      <c r="F317" s="42"/>
+      <c r="E317" s="40"/>
+      <c r="F317" s="40"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
@@ -7805,8 +7806,8 @@
       <c r="B318" s="22"/>
       <c r="C318" s="21"/>
       <c r="D318" s="21"/>
-      <c r="E318" s="42"/>
-      <c r="F318" s="42"/>
+      <c r="E318" s="40"/>
+      <c r="F318" s="40"/>
       <c r="G318" s="10"/>
       <c r="H318" s="10"/>
       <c r="I318" s="10"/>
@@ -7821,8 +7822,8 @@
       <c r="B319" s="22"/>
       <c r="C319" s="21"/>
       <c r="D319" s="21"/>
-      <c r="E319" s="42"/>
-      <c r="F319" s="42"/>
+      <c r="E319" s="40"/>
+      <c r="F319" s="40"/>
       <c r="G319" s="10"/>
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
@@ -7837,8 +7838,8 @@
       <c r="B320" s="22"/>
       <c r="C320" s="21"/>
       <c r="D320" s="21"/>
-      <c r="E320" s="42"/>
-      <c r="F320" s="42"/>
+      <c r="E320" s="40"/>
+      <c r="F320" s="40"/>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
@@ -7853,8 +7854,8 @@
       <c r="B321" s="22"/>
       <c r="C321" s="21"/>
       <c r="D321" s="21"/>
-      <c r="E321" s="42"/>
-      <c r="F321" s="42"/>
+      <c r="E321" s="40"/>
+      <c r="F321" s="40"/>
       <c r="G321" s="10"/>
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
@@ -7869,8 +7870,8 @@
       <c r="B322" s="22"/>
       <c r="C322" s="21"/>
       <c r="D322" s="21"/>
-      <c r="E322" s="42"/>
-      <c r="F322" s="42"/>
+      <c r="E322" s="40"/>
+      <c r="F322" s="40"/>
       <c r="G322" s="10"/>
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
@@ -7885,8 +7886,8 @@
       <c r="B323" s="22"/>
       <c r="C323" s="21"/>
       <c r="D323" s="21"/>
-      <c r="E323" s="42"/>
-      <c r="F323" s="42"/>
+      <c r="E323" s="40"/>
+      <c r="F323" s="40"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>
       <c r="I323" s="10"/>
@@ -7901,8 +7902,8 @@
       <c r="B324" s="22"/>
       <c r="C324" s="21"/>
       <c r="D324" s="21"/>
-      <c r="E324" s="42"/>
-      <c r="F324" s="42"/>
+      <c r="E324" s="40"/>
+      <c r="F324" s="40"/>
       <c r="G324" s="10"/>
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
@@ -7917,8 +7918,8 @@
       <c r="B325" s="22"/>
       <c r="C325" s="21"/>
       <c r="D325" s="21"/>
-      <c r="E325" s="42"/>
-      <c r="F325" s="42"/>
+      <c r="E325" s="40"/>
+      <c r="F325" s="40"/>
       <c r="G325" s="10"/>
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
@@ -7933,8 +7934,8 @@
       <c r="B326" s="22"/>
       <c r="C326" s="21"/>
       <c r="D326" s="21"/>
-      <c r="E326" s="42"/>
-      <c r="F326" s="42"/>
+      <c r="E326" s="40"/>
+      <c r="F326" s="40"/>
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
       <c r="I326" s="10"/>
@@ -7949,8 +7950,8 @@
       <c r="B327" s="22"/>
       <c r="C327" s="21"/>
       <c r="D327" s="21"/>
-      <c r="E327" s="42"/>
-      <c r="F327" s="42"/>
+      <c r="E327" s="40"/>
+      <c r="F327" s="40"/>
       <c r="G327" s="10"/>
       <c r="H327" s="10"/>
       <c r="I327" s="10"/>
@@ -7965,8 +7966,8 @@
       <c r="B328" s="22"/>
       <c r="C328" s="21"/>
       <c r="D328" s="21"/>
-      <c r="E328" s="42"/>
-      <c r="F328" s="42"/>
+      <c r="E328" s="40"/>
+      <c r="F328" s="40"/>
       <c r="G328" s="10"/>
       <c r="H328" s="10"/>
       <c r="I328" s="10"/>
@@ -7981,8 +7982,8 @@
       <c r="B329" s="22"/>
       <c r="C329" s="21"/>
       <c r="D329" s="21"/>
-      <c r="E329" s="42"/>
-      <c r="F329" s="42"/>
+      <c r="E329" s="40"/>
+      <c r="F329" s="40"/>
       <c r="G329" s="10"/>
       <c r="H329" s="10"/>
       <c r="I329" s="10"/>
@@ -7997,8 +7998,8 @@
       <c r="B330" s="22"/>
       <c r="C330" s="21"/>
       <c r="D330" s="21"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
+      <c r="E330" s="40"/>
+      <c r="F330" s="40"/>
       <c r="G330" s="10"/>
       <c r="H330" s="10"/>
       <c r="I330" s="10"/>
@@ -8013,8 +8014,8 @@
       <c r="B331" s="22"/>
       <c r="C331" s="21"/>
       <c r="D331" s="21"/>
-      <c r="E331" s="42"/>
-      <c r="F331" s="42"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="40"/>
       <c r="G331" s="10"/>
       <c r="H331" s="10"/>
       <c r="I331" s="10"/>
@@ -8029,8 +8030,8 @@
       <c r="B332" s="22"/>
       <c r="C332" s="21"/>
       <c r="D332" s="21"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="40"/>
       <c r="G332" s="10"/>
       <c r="H332" s="10"/>
       <c r="I332" s="10"/>
@@ -8045,8 +8046,8 @@
       <c r="B333" s="22"/>
       <c r="C333" s="21"/>
       <c r="D333" s="21"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="40"/>
       <c r="G333" s="10"/>
       <c r="H333" s="10"/>
       <c r="I333" s="10"/>
@@ -8061,8 +8062,8 @@
       <c r="B334" s="22"/>
       <c r="C334" s="21"/>
       <c r="D334" s="21"/>
-      <c r="E334" s="42"/>
-      <c r="F334" s="42"/>
+      <c r="E334" s="40"/>
+      <c r="F334" s="40"/>
       <c r="G334" s="10"/>
       <c r="H334" s="10"/>
       <c r="I334" s="10"/>
@@ -8077,8 +8078,8 @@
       <c r="B335" s="22"/>
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
-      <c r="E335" s="42"/>
-      <c r="F335" s="42"/>
+      <c r="E335" s="40"/>
+      <c r="F335" s="40"/>
       <c r="G335" s="10"/>
       <c r="H335" s="10"/>
       <c r="I335" s="10"/>
@@ -8093,8 +8094,8 @@
       <c r="B336" s="22"/>
       <c r="C336" s="21"/>
       <c r="D336" s="21"/>
-      <c r="E336" s="42"/>
-      <c r="F336" s="42"/>
+      <c r="E336" s="40"/>
+      <c r="F336" s="40"/>
       <c r="G336" s="10"/>
       <c r="H336" s="10"/>
       <c r="I336" s="10"/>
@@ -8109,8 +8110,8 @@
       <c r="B337" s="22"/>
       <c r="C337" s="21"/>
       <c r="D337" s="21"/>
-      <c r="E337" s="42"/>
-      <c r="F337" s="42"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="40"/>
       <c r="G337" s="10"/>
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
@@ -8125,8 +8126,8 @@
       <c r="B338" s="22"/>
       <c r="C338" s="21"/>
       <c r="D338" s="21"/>
-      <c r="E338" s="42"/>
-      <c r="F338" s="42"/>
+      <c r="E338" s="40"/>
+      <c r="F338" s="40"/>
       <c r="G338" s="10"/>
       <c r="H338" s="10"/>
       <c r="I338" s="10"/>
@@ -8141,8 +8142,8 @@
       <c r="B339" s="22"/>
       <c r="C339" s="21"/>
       <c r="D339" s="21"/>
-      <c r="E339" s="42"/>
-      <c r="F339" s="42"/>
+      <c r="E339" s="40"/>
+      <c r="F339" s="40"/>
       <c r="G339" s="10"/>
       <c r="H339" s="10"/>
       <c r="I339" s="10"/>
@@ -8157,8 +8158,8 @@
       <c r="B340" s="22"/>
       <c r="C340" s="21"/>
       <c r="D340" s="21"/>
-      <c r="E340" s="42"/>
-      <c r="F340" s="42"/>
+      <c r="E340" s="40"/>
+      <c r="F340" s="40"/>
       <c r="G340" s="10"/>
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
@@ -8173,8 +8174,8 @@
       <c r="B341" s="22"/>
       <c r="C341" s="21"/>
       <c r="D341" s="21"/>
-      <c r="E341" s="42"/>
-      <c r="F341" s="42"/>
+      <c r="E341" s="40"/>
+      <c r="F341" s="40"/>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
       <c r="I341" s="10"/>
@@ -8189,8 +8190,8 @@
       <c r="B342" s="22"/>
       <c r="C342" s="21"/>
       <c r="D342" s="21"/>
-      <c r="E342" s="42"/>
-      <c r="F342" s="42"/>
+      <c r="E342" s="40"/>
+      <c r="F342" s="40"/>
       <c r="G342" s="10"/>
       <c r="H342" s="10"/>
       <c r="I342" s="10"/>
@@ -8205,8 +8206,8 @@
       <c r="B343" s="22"/>
       <c r="C343" s="21"/>
       <c r="D343" s="21"/>
-      <c r="E343" s="42"/>
-      <c r="F343" s="42"/>
+      <c r="E343" s="40"/>
+      <c r="F343" s="40"/>
       <c r="G343" s="10"/>
       <c r="H343" s="10"/>
       <c r="I343" s="10"/>
@@ -8221,8 +8222,8 @@
       <c r="B344" s="22"/>
       <c r="C344" s="21"/>
       <c r="D344" s="21"/>
-      <c r="E344" s="42"/>
-      <c r="F344" s="42"/>
+      <c r="E344" s="40"/>
+      <c r="F344" s="40"/>
       <c r="G344" s="10"/>
       <c r="H344" s="10"/>
       <c r="I344" s="10"/>
@@ -8237,8 +8238,8 @@
       <c r="B345" s="22"/>
       <c r="C345" s="21"/>
       <c r="D345" s="21"/>
-      <c r="E345" s="42"/>
-      <c r="F345" s="42"/>
+      <c r="E345" s="40"/>
+      <c r="F345" s="40"/>
       <c r="G345" s="10"/>
       <c r="H345" s="10"/>
       <c r="I345" s="10"/>
@@ -8253,8 +8254,8 @@
       <c r="B346" s="22"/>
       <c r="C346" s="21"/>
       <c r="D346" s="21"/>
-      <c r="E346" s="42"/>
-      <c r="F346" s="42"/>
+      <c r="E346" s="40"/>
+      <c r="F346" s="40"/>
       <c r="G346" s="10"/>
       <c r="H346" s="10"/>
       <c r="I346" s="10"/>
@@ -8269,8 +8270,8 @@
       <c r="B347" s="22"/>
       <c r="C347" s="21"/>
       <c r="D347" s="21"/>
-      <c r="E347" s="42"/>
-      <c r="F347" s="42"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="40"/>
       <c r="G347" s="10"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
@@ -8285,8 +8286,8 @@
       <c r="B348" s="22"/>
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
-      <c r="E348" s="42"/>
-      <c r="F348" s="42"/>
+      <c r="E348" s="40"/>
+      <c r="F348" s="40"/>
       <c r="G348" s="10"/>
       <c r="H348" s="10"/>
       <c r="I348" s="10"/>
@@ -8301,8 +8302,8 @@
       <c r="B349" s="22"/>
       <c r="C349" s="21"/>
       <c r="D349" s="21"/>
-      <c r="E349" s="42"/>
-      <c r="F349" s="42"/>
+      <c r="E349" s="40"/>
+      <c r="F349" s="40"/>
       <c r="G349" s="10"/>
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
@@ -8317,8 +8318,8 @@
       <c r="B350" s="22"/>
       <c r="C350" s="21"/>
       <c r="D350" s="21"/>
-      <c r="E350" s="42"/>
-      <c r="F350" s="42"/>
+      <c r="E350" s="40"/>
+      <c r="F350" s="40"/>
       <c r="G350" s="10"/>
       <c r="H350" s="10"/>
       <c r="I350" s="10"/>
@@ -8333,8 +8334,8 @@
       <c r="B351" s="22"/>
       <c r="C351" s="21"/>
       <c r="D351" s="21"/>
-      <c r="E351" s="42"/>
-      <c r="F351" s="42"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="40"/>
       <c r="G351" s="10"/>
       <c r="H351" s="10"/>
       <c r="I351" s="10"/>
@@ -8349,8 +8350,8 @@
       <c r="B352" s="22"/>
       <c r="C352" s="21"/>
       <c r="D352" s="21"/>
-      <c r="E352" s="42"/>
-      <c r="F352" s="42"/>
+      <c r="E352" s="40"/>
+      <c r="F352" s="40"/>
       <c r="G352" s="10"/>
       <c r="H352" s="10"/>
       <c r="I352" s="10"/>
@@ -8365,8 +8366,8 @@
       <c r="B353" s="22"/>
       <c r="C353" s="21"/>
       <c r="D353" s="21"/>
-      <c r="E353" s="42"/>
-      <c r="F353" s="42"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="40"/>
       <c r="G353" s="10"/>
       <c r="H353" s="10"/>
       <c r="I353" s="10"/>
@@ -8381,8 +8382,8 @@
       <c r="B354" s="22"/>
       <c r="C354" s="21"/>
       <c r="D354" s="21"/>
-      <c r="E354" s="42"/>
-      <c r="F354" s="42"/>
+      <c r="E354" s="40"/>
+      <c r="F354" s="40"/>
       <c r="G354" s="10"/>
       <c r="H354" s="10"/>
       <c r="I354" s="10"/>
@@ -8397,8 +8398,8 @@
       <c r="B355" s="22"/>
       <c r="C355" s="21"/>
       <c r="D355" s="21"/>
-      <c r="E355" s="42"/>
-      <c r="F355" s="42"/>
+      <c r="E355" s="40"/>
+      <c r="F355" s="40"/>
       <c r="G355" s="10"/>
       <c r="H355" s="10"/>
       <c r="I355" s="10"/>
@@ -8413,8 +8414,8 @@
       <c r="B356" s="22"/>
       <c r="C356" s="21"/>
       <c r="D356" s="21"/>
-      <c r="E356" s="42"/>
-      <c r="F356" s="42"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="40"/>
       <c r="G356" s="10"/>
       <c r="H356" s="10"/>
       <c r="I356" s="10"/>
@@ -8429,8 +8430,8 @@
       <c r="B357" s="22"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
-      <c r="E357" s="42"/>
-      <c r="F357" s="42"/>
+      <c r="E357" s="40"/>
+      <c r="F357" s="40"/>
       <c r="G357" s="10"/>
       <c r="H357" s="10"/>
       <c r="I357" s="10"/>
@@ -8445,8 +8446,8 @@
       <c r="B358" s="22"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
-      <c r="E358" s="42"/>
-      <c r="F358" s="42"/>
+      <c r="E358" s="40"/>
+      <c r="F358" s="40"/>
       <c r="G358" s="10"/>
       <c r="H358" s="10"/>
       <c r="I358" s="10"/>
@@ -8461,8 +8462,8 @@
       <c r="B359" s="22"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
-      <c r="E359" s="42"/>
-      <c r="F359" s="42"/>
+      <c r="E359" s="40"/>
+      <c r="F359" s="40"/>
       <c r="G359" s="10"/>
       <c r="H359" s="10"/>
       <c r="I359" s="10"/>
@@ -8477,8 +8478,8 @@
       <c r="B360" s="22"/>
       <c r="C360" s="21"/>
       <c r="D360" s="21"/>
-      <c r="E360" s="42"/>
-      <c r="F360" s="42"/>
+      <c r="E360" s="40"/>
+      <c r="F360" s="40"/>
       <c r="G360" s="10"/>
       <c r="H360" s="10"/>
       <c r="I360" s="10"/>
@@ -8493,8 +8494,8 @@
       <c r="B361" s="22"/>
       <c r="C361" s="21"/>
       <c r="D361" s="21"/>
-      <c r="E361" s="42"/>
-      <c r="F361" s="42"/>
+      <c r="E361" s="40"/>
+      <c r="F361" s="40"/>
       <c r="G361" s="10"/>
       <c r="H361" s="10"/>
       <c r="I361" s="10"/>
@@ -8509,8 +8510,8 @@
       <c r="B362" s="22"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
-      <c r="E362" s="42"/>
-      <c r="F362" s="42"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="40"/>
       <c r="G362" s="10"/>
       <c r="H362" s="10"/>
       <c r="I362" s="10"/>
@@ -8525,8 +8526,8 @@
       <c r="B363" s="22"/>
       <c r="C363" s="21"/>
       <c r="D363" s="21"/>
-      <c r="E363" s="42"/>
-      <c r="F363" s="42"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="40"/>
       <c r="G363" s="10"/>
       <c r="H363" s="10"/>
       <c r="I363" s="10"/>
@@ -8541,8 +8542,8 @@
       <c r="B364" s="22"/>
       <c r="C364" s="21"/>
       <c r="D364" s="21"/>
-      <c r="E364" s="42"/>
-      <c r="F364" s="42"/>
+      <c r="E364" s="40"/>
+      <c r="F364" s="40"/>
       <c r="G364" s="10"/>
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
@@ -8557,8 +8558,8 @@
       <c r="B365" s="22"/>
       <c r="C365" s="21"/>
       <c r="D365" s="21"/>
-      <c r="E365" s="42"/>
-      <c r="F365" s="42"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="40"/>
       <c r="G365" s="10"/>
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
@@ -8573,8 +8574,8 @@
       <c r="B366" s="22"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
-      <c r="E366" s="42"/>
-      <c r="F366" s="42"/>
+      <c r="E366" s="40"/>
+      <c r="F366" s="40"/>
       <c r="G366" s="10"/>
       <c r="H366" s="10"/>
       <c r="I366" s="10"/>
@@ -8589,8 +8590,8 @@
       <c r="B367" s="22"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
-      <c r="E367" s="42"/>
-      <c r="F367" s="42"/>
+      <c r="E367" s="40"/>
+      <c r="F367" s="40"/>
       <c r="G367" s="10"/>
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
@@ -8605,8 +8606,8 @@
       <c r="B368" s="22"/>
       <c r="C368" s="21"/>
       <c r="D368" s="21"/>
-      <c r="E368" s="42"/>
-      <c r="F368" s="42"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="40"/>
       <c r="G368" s="10"/>
       <c r="H368" s="10"/>
       <c r="I368" s="10"/>
@@ -8621,8 +8622,8 @@
       <c r="B369" s="22"/>
       <c r="C369" s="21"/>
       <c r="D369" s="21"/>
-      <c r="E369" s="42"/>
-      <c r="F369" s="42"/>
+      <c r="E369" s="40"/>
+      <c r="F369" s="40"/>
       <c r="G369" s="10"/>
       <c r="H369" s="10"/>
       <c r="I369" s="10"/>
@@ -8637,8 +8638,8 @@
       <c r="B370" s="22"/>
       <c r="C370" s="21"/>
       <c r="D370" s="21"/>
-      <c r="E370" s="42"/>
-      <c r="F370" s="42"/>
+      <c r="E370" s="40"/>
+      <c r="F370" s="40"/>
       <c r="G370" s="10"/>
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
@@ -8653,8 +8654,8 @@
       <c r="B371" s="22"/>
       <c r="C371" s="21"/>
       <c r="D371" s="21"/>
-      <c r="E371" s="42"/>
-      <c r="F371" s="42"/>
+      <c r="E371" s="40"/>
+      <c r="F371" s="40"/>
       <c r="G371" s="10"/>
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
@@ -8669,8 +8670,8 @@
       <c r="B372" s="22"/>
       <c r="C372" s="21"/>
       <c r="D372" s="21"/>
-      <c r="E372" s="42"/>
-      <c r="F372" s="42"/>
+      <c r="E372" s="40"/>
+      <c r="F372" s="40"/>
       <c r="G372" s="10"/>
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
@@ -8685,8 +8686,8 @@
       <c r="B373" s="22"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
-      <c r="E373" s="42"/>
-      <c r="F373" s="42"/>
+      <c r="E373" s="40"/>
+      <c r="F373" s="40"/>
       <c r="G373" s="10"/>
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
@@ -8701,8 +8702,8 @@
       <c r="B374" s="22"/>
       <c r="C374" s="21"/>
       <c r="D374" s="21"/>
-      <c r="E374" s="42"/>
-      <c r="F374" s="42"/>
+      <c r="E374" s="40"/>
+      <c r="F374" s="40"/>
       <c r="G374" s="10"/>
       <c r="H374" s="10"/>
       <c r="I374" s="10"/>
@@ -8717,8 +8718,8 @@
       <c r="B375" s="22"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
-      <c r="E375" s="42"/>
-      <c r="F375" s="42"/>
+      <c r="E375" s="40"/>
+      <c r="F375" s="40"/>
       <c r="G375" s="10"/>
       <c r="H375" s="10"/>
       <c r="I375" s="10"/>
@@ -8733,8 +8734,8 @@
       <c r="B376" s="22"/>
       <c r="C376" s="21"/>
       <c r="D376" s="21"/>
-      <c r="E376" s="42"/>
-      <c r="F376" s="42"/>
+      <c r="E376" s="40"/>
+      <c r="F376" s="40"/>
       <c r="G376" s="10"/>
       <c r="H376" s="10"/>
       <c r="I376" s="10"/>
@@ -8749,8 +8750,8 @@
       <c r="B377" s="22"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
-      <c r="E377" s="42"/>
-      <c r="F377" s="42"/>
+      <c r="E377" s="40"/>
+      <c r="F377" s="40"/>
       <c r="G377" s="10"/>
       <c r="H377" s="10"/>
       <c r="I377" s="10"/>
@@ -8765,8 +8766,8 @@
       <c r="B378" s="22"/>
       <c r="C378" s="21"/>
       <c r="D378" s="21"/>
-      <c r="E378" s="42"/>
-      <c r="F378" s="42"/>
+      <c r="E378" s="40"/>
+      <c r="F378" s="40"/>
       <c r="G378" s="10"/>
       <c r="H378" s="10"/>
       <c r="I378" s="10"/>
@@ -8781,8 +8782,8 @@
       <c r="B379" s="22"/>
       <c r="C379" s="21"/>
       <c r="D379" s="21"/>
-      <c r="E379" s="42"/>
-      <c r="F379" s="42"/>
+      <c r="E379" s="40"/>
+      <c r="F379" s="40"/>
       <c r="G379" s="10"/>
       <c r="H379" s="10"/>
       <c r="I379" s="10"/>
@@ -8797,8 +8798,8 @@
       <c r="B380" s="22"/>
       <c r="C380" s="21"/>
       <c r="D380" s="21"/>
-      <c r="E380" s="42"/>
-      <c r="F380" s="42"/>
+      <c r="E380" s="40"/>
+      <c r="F380" s="40"/>
       <c r="G380" s="10"/>
       <c r="H380" s="10"/>
       <c r="I380" s="10"/>
@@ -8813,8 +8814,8 @@
       <c r="B381" s="22"/>
       <c r="C381" s="21"/>
       <c r="D381" s="21"/>
-      <c r="E381" s="42"/>
-      <c r="F381" s="42"/>
+      <c r="E381" s="40"/>
+      <c r="F381" s="40"/>
       <c r="G381" s="10"/>
       <c r="H381" s="10"/>
       <c r="I381" s="10"/>
@@ -8829,8 +8830,8 @@
       <c r="B382" s="22"/>
       <c r="C382" s="21"/>
       <c r="D382" s="21"/>
-      <c r="E382" s="42"/>
-      <c r="F382" s="42"/>
+      <c r="E382" s="40"/>
+      <c r="F382" s="40"/>
       <c r="G382" s="10"/>
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
@@ -8845,8 +8846,8 @@
       <c r="B383" s="22"/>
       <c r="C383" s="21"/>
       <c r="D383" s="21"/>
-      <c r="E383" s="42"/>
-      <c r="F383" s="42"/>
+      <c r="E383" s="40"/>
+      <c r="F383" s="40"/>
       <c r="G383" s="10"/>
       <c r="H383" s="10"/>
       <c r="I383" s="10"/>
@@ -8861,8 +8862,8 @@
       <c r="B384" s="22"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
-      <c r="E384" s="42"/>
-      <c r="F384" s="42"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="40"/>
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
       <c r="I384" s="10"/>
@@ -8877,8 +8878,8 @@
       <c r="B385" s="22"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
-      <c r="E385" s="42"/>
-      <c r="F385" s="42"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="40"/>
       <c r="G385" s="10"/>
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
@@ -8893,8 +8894,8 @@
       <c r="B386" s="22"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
-      <c r="E386" s="42"/>
-      <c r="F386" s="42"/>
+      <c r="E386" s="40"/>
+      <c r="F386" s="40"/>
       <c r="G386" s="10"/>
       <c r="H386" s="10"/>
       <c r="I386" s="10"/>
@@ -8909,8 +8910,8 @@
       <c r="B387" s="22"/>
       <c r="C387" s="21"/>
       <c r="D387" s="21"/>
-      <c r="E387" s="42"/>
-      <c r="F387" s="42"/>
+      <c r="E387" s="40"/>
+      <c r="F387" s="40"/>
       <c r="G387" s="10"/>
       <c r="H387" s="10"/>
       <c r="I387" s="10"/>
@@ -8925,8 +8926,8 @@
       <c r="B388" s="22"/>
       <c r="C388" s="21"/>
       <c r="D388" s="21"/>
-      <c r="E388" s="42"/>
-      <c r="F388" s="42"/>
+      <c r="E388" s="40"/>
+      <c r="F388" s="40"/>
       <c r="G388" s="10"/>
       <c r="H388" s="10"/>
       <c r="I388" s="10"/>
@@ -8941,8 +8942,8 @@
       <c r="B389" s="22"/>
       <c r="C389" s="21"/>
       <c r="D389" s="21"/>
-      <c r="E389" s="42"/>
-      <c r="F389" s="42"/>
+      <c r="E389" s="40"/>
+      <c r="F389" s="40"/>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
       <c r="I389" s="10"/>
@@ -8957,8 +8958,8 @@
       <c r="B390" s="22"/>
       <c r="C390" s="21"/>
       <c r="D390" s="21"/>
-      <c r="E390" s="42"/>
-      <c r="F390" s="42"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="40"/>
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
       <c r="I390" s="10"/>
@@ -8973,8 +8974,8 @@
       <c r="B391" s="22"/>
       <c r="C391" s="21"/>
       <c r="D391" s="21"/>
-      <c r="E391" s="42"/>
-      <c r="F391" s="42"/>
+      <c r="E391" s="40"/>
+      <c r="F391" s="40"/>
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
@@ -8989,8 +8990,8 @@
       <c r="B392" s="22"/>
       <c r="C392" s="21"/>
       <c r="D392" s="21"/>
-      <c r="E392" s="42"/>
-      <c r="F392" s="42"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="40"/>
       <c r="G392" s="10"/>
       <c r="H392" s="10"/>
       <c r="I392" s="10"/>
@@ -9005,8 +9006,8 @@
       <c r="B393" s="22"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
-      <c r="E393" s="42"/>
-      <c r="F393" s="42"/>
+      <c r="E393" s="40"/>
+      <c r="F393" s="40"/>
       <c r="G393" s="10"/>
       <c r="H393" s="10"/>
       <c r="I393" s="10"/>
@@ -9021,8 +9022,8 @@
       <c r="B394" s="22"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
-      <c r="E394" s="42"/>
-      <c r="F394" s="42"/>
+      <c r="E394" s="40"/>
+      <c r="F394" s="40"/>
       <c r="G394" s="10"/>
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
@@ -9037,8 +9038,8 @@
       <c r="B395" s="22"/>
       <c r="C395" s="21"/>
       <c r="D395" s="21"/>
-      <c r="E395" s="42"/>
-      <c r="F395" s="42"/>
+      <c r="E395" s="40"/>
+      <c r="F395" s="40"/>
       <c r="G395" s="10"/>
       <c r="H395" s="10"/>
       <c r="I395" s="10"/>
@@ -9053,8 +9054,8 @@
       <c r="B396" s="22"/>
       <c r="C396" s="21"/>
       <c r="D396" s="21"/>
-      <c r="E396" s="42"/>
-      <c r="F396" s="42"/>
+      <c r="E396" s="40"/>
+      <c r="F396" s="40"/>
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
       <c r="I396" s="10"/>
@@ -9069,8 +9070,8 @@
       <c r="B397" s="22"/>
       <c r="C397" s="21"/>
       <c r="D397" s="21"/>
-      <c r="E397" s="42"/>
-      <c r="F397" s="42"/>
+      <c r="E397" s="40"/>
+      <c r="F397" s="40"/>
       <c r="G397" s="10"/>
       <c r="H397" s="10"/>
       <c r="I397" s="10"/>
@@ -9085,8 +9086,8 @@
       <c r="B398" s="22"/>
       <c r="C398" s="21"/>
       <c r="D398" s="21"/>
-      <c r="E398" s="42"/>
-      <c r="F398" s="42"/>
+      <c r="E398" s="40"/>
+      <c r="F398" s="40"/>
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
       <c r="I398" s="10"/>
@@ -9101,8 +9102,8 @@
       <c r="B399" s="22"/>
       <c r="C399" s="21"/>
       <c r="D399" s="21"/>
-      <c r="E399" s="42"/>
-      <c r="F399" s="42"/>
+      <c r="E399" s="40"/>
+      <c r="F399" s="40"/>
       <c r="G399" s="10"/>
       <c r="H399" s="10"/>
       <c r="I399" s="10"/>
@@ -9117,8 +9118,8 @@
       <c r="B400" s="22"/>
       <c r="C400" s="21"/>
       <c r="D400" s="21"/>
-      <c r="E400" s="42"/>
-      <c r="F400" s="42"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="40"/>
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
@@ -9133,8 +9134,8 @@
       <c r="B401" s="22"/>
       <c r="C401" s="21"/>
       <c r="D401" s="21"/>
-      <c r="E401" s="42"/>
-      <c r="F401" s="42"/>
+      <c r="E401" s="40"/>
+      <c r="F401" s="40"/>
       <c r="G401" s="10"/>
       <c r="H401" s="10"/>
       <c r="I401" s="10"/>
@@ -9149,8 +9150,8 @@
       <c r="B402" s="22"/>
       <c r="C402" s="21"/>
       <c r="D402" s="21"/>
-      <c r="E402" s="42"/>
-      <c r="F402" s="42"/>
+      <c r="E402" s="40"/>
+      <c r="F402" s="40"/>
       <c r="G402" s="10"/>
       <c r="H402" s="10"/>
       <c r="I402" s="10"/>
@@ -9165,8 +9166,8 @@
       <c r="B403" s="22"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
-      <c r="E403" s="42"/>
-      <c r="F403" s="42"/>
+      <c r="E403" s="40"/>
+      <c r="F403" s="40"/>
       <c r="G403" s="10"/>
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
@@ -9181,8 +9182,8 @@
       <c r="B404" s="22"/>
       <c r="C404" s="21"/>
       <c r="D404" s="21"/>
-      <c r="E404" s="42"/>
-      <c r="F404" s="42"/>
+      <c r="E404" s="40"/>
+      <c r="F404" s="40"/>
       <c r="G404" s="10"/>
       <c r="H404" s="10"/>
       <c r="I404" s="10"/>
@@ -9197,8 +9198,8 @@
       <c r="B405" s="22"/>
       <c r="C405" s="21"/>
       <c r="D405" s="21"/>
-      <c r="E405" s="42"/>
-      <c r="F405" s="42"/>
+      <c r="E405" s="40"/>
+      <c r="F405" s="40"/>
       <c r="G405" s="10"/>
       <c r="H405" s="10"/>
       <c r="I405" s="10"/>
@@ -9213,8 +9214,8 @@
       <c r="B406" s="22"/>
       <c r="C406" s="21"/>
       <c r="D406" s="21"/>
-      <c r="E406" s="42"/>
-      <c r="F406" s="42"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
       <c r="G406" s="10"/>
       <c r="H406" s="10"/>
       <c r="I406" s="10"/>
@@ -9229,8 +9230,8 @@
       <c r="B407" s="22"/>
       <c r="C407" s="21"/>
       <c r="D407" s="21"/>
-      <c r="E407" s="42"/>
-      <c r="F407" s="42"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="40"/>
       <c r="G407" s="10"/>
       <c r="H407" s="10"/>
       <c r="I407" s="10"/>
@@ -9245,8 +9246,8 @@
       <c r="B408" s="22"/>
       <c r="C408" s="21"/>
       <c r="D408" s="21"/>
-      <c r="E408" s="42"/>
-      <c r="F408" s="42"/>
+      <c r="E408" s="40"/>
+      <c r="F408" s="40"/>
       <c r="G408" s="10"/>
       <c r="H408" s="10"/>
       <c r="I408" s="10"/>
@@ -9261,8 +9262,8 @@
       <c r="B409" s="22"/>
       <c r="C409" s="21"/>
       <c r="D409" s="21"/>
-      <c r="E409" s="42"/>
-      <c r="F409" s="42"/>
+      <c r="E409" s="40"/>
+      <c r="F409" s="40"/>
       <c r="G409" s="10"/>
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
@@ -9277,8 +9278,8 @@
       <c r="B410" s="22"/>
       <c r="C410" s="21"/>
       <c r="D410" s="21"/>
-      <c r="E410" s="42"/>
-      <c r="F410" s="42"/>
+      <c r="E410" s="40"/>
+      <c r="F410" s="40"/>
       <c r="G410" s="10"/>
       <c r="H410" s="10"/>
       <c r="I410" s="10"/>
@@ -9293,8 +9294,8 @@
       <c r="B411" s="22"/>
       <c r="C411" s="21"/>
       <c r="D411" s="21"/>
-      <c r="E411" s="42"/>
-      <c r="F411" s="42"/>
+      <c r="E411" s="40"/>
+      <c r="F411" s="40"/>
       <c r="G411" s="10"/>
       <c r="H411" s="10"/>
       <c r="I411" s="10"/>
@@ -9309,8 +9310,8 @@
       <c r="B412" s="22"/>
       <c r="C412" s="21"/>
       <c r="D412" s="21"/>
-      <c r="E412" s="42"/>
-      <c r="F412" s="42"/>
+      <c r="E412" s="40"/>
+      <c r="F412" s="40"/>
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
@@ -9325,8 +9326,8 @@
       <c r="B413" s="22"/>
       <c r="C413" s="21"/>
       <c r="D413" s="21"/>
-      <c r="E413" s="42"/>
-      <c r="F413" s="42"/>
+      <c r="E413" s="40"/>
+      <c r="F413" s="40"/>
       <c r="G413" s="10"/>
       <c r="H413" s="10"/>
       <c r="I413" s="10"/>
@@ -9341,8 +9342,8 @@
       <c r="B414" s="22"/>
       <c r="C414" s="21"/>
       <c r="D414" s="21"/>
-      <c r="E414" s="42"/>
-      <c r="F414" s="42"/>
+      <c r="E414" s="40"/>
+      <c r="F414" s="40"/>
       <c r="G414" s="10"/>
       <c r="H414" s="10"/>
       <c r="I414" s="10"/>
@@ -9357,8 +9358,8 @@
       <c r="B415" s="22"/>
       <c r="C415" s="21"/>
       <c r="D415" s="21"/>
-      <c r="E415" s="42"/>
-      <c r="F415" s="42"/>
+      <c r="E415" s="40"/>
+      <c r="F415" s="40"/>
       <c r="G415" s="10"/>
       <c r="H415" s="10"/>
       <c r="I415" s="10"/>
@@ -9373,8 +9374,8 @@
       <c r="B416" s="22"/>
       <c r="C416" s="21"/>
       <c r="D416" s="21"/>
-      <c r="E416" s="42"/>
-      <c r="F416" s="42"/>
+      <c r="E416" s="40"/>
+      <c r="F416" s="40"/>
       <c r="G416" s="10"/>
       <c r="H416" s="10"/>
       <c r="I416" s="10"/>
@@ -9389,8 +9390,8 @@
       <c r="B417" s="22"/>
       <c r="C417" s="21"/>
       <c r="D417" s="21"/>
-      <c r="E417" s="42"/>
-      <c r="F417" s="42"/>
+      <c r="E417" s="40"/>
+      <c r="F417" s="40"/>
       <c r="G417" s="10"/>
       <c r="H417" s="10"/>
       <c r="I417" s="10"/>
@@ -9405,8 +9406,8 @@
       <c r="B418" s="22"/>
       <c r="C418" s="21"/>
       <c r="D418" s="21"/>
-      <c r="E418" s="42"/>
-      <c r="F418" s="42"/>
+      <c r="E418" s="40"/>
+      <c r="F418" s="40"/>
       <c r="G418" s="10"/>
       <c r="H418" s="10"/>
       <c r="I418" s="10"/>
@@ -9421,8 +9422,8 @@
       <c r="B419" s="22"/>
       <c r="C419" s="21"/>
       <c r="D419" s="21"/>
-      <c r="E419" s="42"/>
-      <c r="F419" s="42"/>
+      <c r="E419" s="40"/>
+      <c r="F419" s="40"/>
       <c r="G419" s="10"/>
       <c r="H419" s="10"/>
       <c r="I419" s="10"/>
@@ -9437,8 +9438,8 @@
       <c r="B420" s="22"/>
       <c r="C420" s="21"/>
       <c r="D420" s="21"/>
-      <c r="E420" s="42"/>
-      <c r="F420" s="42"/>
+      <c r="E420" s="40"/>
+      <c r="F420" s="40"/>
       <c r="G420" s="10"/>
       <c r="H420" s="10"/>
       <c r="I420" s="10"/>
@@ -9453,8 +9454,8 @@
       <c r="B421" s="22"/>
       <c r="C421" s="21"/>
       <c r="D421" s="21"/>
-      <c r="E421" s="42"/>
-      <c r="F421" s="42"/>
+      <c r="E421" s="40"/>
+      <c r="F421" s="40"/>
       <c r="G421" s="10"/>
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
@@ -9469,8 +9470,8 @@
       <c r="B422" s="22"/>
       <c r="C422" s="21"/>
       <c r="D422" s="21"/>
-      <c r="E422" s="42"/>
-      <c r="F422" s="42"/>
+      <c r="E422" s="40"/>
+      <c r="F422" s="40"/>
       <c r="G422" s="10"/>
       <c r="H422" s="10"/>
       <c r="I422" s="10"/>
@@ -9485,8 +9486,8 @@
       <c r="B423" s="22"/>
       <c r="C423" s="21"/>
       <c r="D423" s="21"/>
-      <c r="E423" s="42"/>
-      <c r="F423" s="42"/>
+      <c r="E423" s="40"/>
+      <c r="F423" s="40"/>
       <c r="G423" s="10"/>
       <c r="H423" s="10"/>
       <c r="I423" s="10"/>
@@ -9501,8 +9502,8 @@
       <c r="B424" s="22"/>
       <c r="C424" s="21"/>
       <c r="D424" s="21"/>
-      <c r="E424" s="42"/>
-      <c r="F424" s="42"/>
+      <c r="E424" s="40"/>
+      <c r="F424" s="40"/>
       <c r="G424" s="10"/>
       <c r="H424" s="10"/>
       <c r="I424" s="10"/>
@@ -9517,8 +9518,8 @@
       <c r="B425" s="22"/>
       <c r="C425" s="21"/>
       <c r="D425" s="21"/>
-      <c r="E425" s="42"/>
-      <c r="F425" s="42"/>
+      <c r="E425" s="40"/>
+      <c r="F425" s="40"/>
       <c r="G425" s="10"/>
       <c r="H425" s="10"/>
       <c r="I425" s="10"/>
@@ -9533,8 +9534,8 @@
       <c r="B426" s="22"/>
       <c r="C426" s="21"/>
       <c r="D426" s="21"/>
-      <c r="E426" s="42"/>
-      <c r="F426" s="42"/>
+      <c r="E426" s="40"/>
+      <c r="F426" s="40"/>
       <c r="G426" s="10"/>
       <c r="H426" s="10"/>
       <c r="I426" s="10"/>
@@ -9549,8 +9550,8 @@
       <c r="B427" s="22"/>
       <c r="C427" s="21"/>
       <c r="D427" s="21"/>
-      <c r="E427" s="42"/>
-      <c r="F427" s="42"/>
+      <c r="E427" s="40"/>
+      <c r="F427" s="40"/>
       <c r="G427" s="10"/>
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
@@ -9565,8 +9566,8 @@
       <c r="B428" s="21"/>
       <c r="C428" s="21"/>
       <c r="D428" s="21"/>
-      <c r="E428" s="42"/>
-      <c r="F428" s="42"/>
+      <c r="E428" s="40"/>
+      <c r="F428" s="40"/>
       <c r="G428" s="10"/>
       <c r="H428" s="10"/>
       <c r="I428" s="10"/>
@@ -9581,8 +9582,8 @@
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
       <c r="D429" s="21"/>
-      <c r="E429" s="42"/>
-      <c r="F429" s="42"/>
+      <c r="E429" s="40"/>
+      <c r="F429" s="40"/>
       <c r="G429" s="10"/>
       <c r="H429" s="10"/>
       <c r="I429" s="10"/>
@@ -9597,8 +9598,8 @@
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
       <c r="D430" s="21"/>
-      <c r="E430" s="42"/>
-      <c r="F430" s="42"/>
+      <c r="E430" s="40"/>
+      <c r="F430" s="40"/>
       <c r="G430" s="10"/>
       <c r="H430" s="10"/>
       <c r="I430" s="10"/>
@@ -9613,8 +9614,8 @@
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
       <c r="D431" s="21"/>
-      <c r="E431" s="42"/>
-      <c r="F431" s="42"/>
+      <c r="E431" s="40"/>
+      <c r="F431" s="40"/>
       <c r="G431" s="10"/>
       <c r="H431" s="10"/>
       <c r="I431" s="10"/>
@@ -9629,8 +9630,8 @@
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
       <c r="D432" s="21"/>
-      <c r="E432" s="42"/>
-      <c r="F432" s="42"/>
+      <c r="E432" s="40"/>
+      <c r="F432" s="40"/>
       <c r="G432" s="10"/>
       <c r="H432" s="10"/>
       <c r="I432" s="10"/>
@@ -9645,8 +9646,8 @@
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
       <c r="D433" s="21"/>
-      <c r="E433" s="42"/>
-      <c r="F433" s="42"/>
+      <c r="E433" s="40"/>
+      <c r="F433" s="40"/>
       <c r="G433" s="10"/>
       <c r="H433" s="10"/>
       <c r="I433" s="10"/>
@@ -9661,8 +9662,8 @@
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
       <c r="D434" s="21"/>
-      <c r="E434" s="42"/>
-      <c r="F434" s="42"/>
+      <c r="E434" s="40"/>
+      <c r="F434" s="40"/>
       <c r="G434" s="10"/>
       <c r="H434" s="10"/>
       <c r="I434" s="10"/>
@@ -9677,8 +9678,8 @@
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
       <c r="D435" s="21"/>
-      <c r="E435" s="42"/>
-      <c r="F435" s="42"/>
+      <c r="E435" s="40"/>
+      <c r="F435" s="40"/>
       <c r="G435" s="10"/>
       <c r="H435" s="10"/>
       <c r="I435" s="10"/>
@@ -9693,8 +9694,8 @@
       <c r="B436" s="21"/>
       <c r="C436" s="21"/>
       <c r="D436" s="21"/>
-      <c r="E436" s="42"/>
-      <c r="F436" s="42"/>
+      <c r="E436" s="40"/>
+      <c r="F436" s="40"/>
       <c r="G436" s="10"/>
       <c r="H436" s="10"/>
       <c r="I436" s="10"/>
@@ -9709,8 +9710,8 @@
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
       <c r="D437" s="21"/>
-      <c r="E437" s="42"/>
-      <c r="F437" s="42"/>
+      <c r="E437" s="40"/>
+      <c r="F437" s="40"/>
       <c r="G437" s="10"/>
       <c r="H437" s="10"/>
       <c r="I437" s="10"/>
@@ -9733,10 +9734,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C437" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Iza,Klaudia,Piotr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E318" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Nowe,W trakcie,Blokowane/Wstrzymane,Do weryfikacji/Testowane,Zakończone,Anulowane"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9750,7 +9751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9905,7 +9906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D1739-8EF6-43DB-B5A8-4418E074502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034668AD-E49F-4835-8971-FB50E3F85A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie eksportu" sheetId="1" r:id="rId1"/>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3241,7 +3241,7 @@
         <v>45662</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="10"/>

--- a/Zadania.xlsx
+++ b/Zadania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia AG II\Semestr 1\Analiza danych\Analiza_Danych_Projekt_1\Cenowe_Rozkminy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034668AD-E49F-4835-8971-FB50E3F85A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28413C3D-2221-4391-B0CE-8E65C634B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Notatki_11_12_24" sheetId="3" r:id="rId3"/>
     <sheet name="Error_ScreenShots" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">To_Do!$A$1:$F$47</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -100,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="99">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -442,6 +445,21 @@
   </si>
   <si>
     <t>zrobione :)</t>
+  </si>
+  <si>
+    <t>Do skośności lub Jana Christiana Andersena</t>
+  </si>
+  <si>
+    <t>ALE ROBIŁ PIOTR</t>
+  </si>
+  <si>
+    <t>Już sobie przypomniała :D</t>
+  </si>
+  <si>
+    <t>Muszą być porównywane co najmniej 3 grupy: np. cena i wszystkie miasta</t>
+  </si>
+  <si>
+    <t>nie ma</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -2209,10 +2227,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N437"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2255,7 +2274,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1">
+    <row r="2" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2285,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.5" customHeight="1">
+    <row r="3" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2315,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1">
+    <row r="4" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2343,7 +2362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1">
+    <row r="5" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2371,7 +2390,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1">
+    <row r="6" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2397,7 +2416,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1">
+    <row r="7" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2423,7 +2442,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1">
+    <row r="8" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2449,7 +2468,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="60" customHeight="1">
+    <row r="9" spans="1:14" ht="60" hidden="1" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2477,7 +2496,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+    <row r="10" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2505,7 +2524,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+    <row r="11" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2533,7 +2552,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+    <row r="12" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2561,7 +2580,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+    <row r="13" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2617,7 +2636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1">
+    <row r="15" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2658,8 +2677,12 @@
       <c r="D16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2671,7 +2694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="53.25" customHeight="1">
+    <row r="17" spans="1:14" ht="53.25" hidden="1" customHeight="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2701,7 +2724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="50.25" customHeight="1">
+    <row r="18" spans="1:14" ht="50.25" hidden="1" customHeight="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2729,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+    <row r="19" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2755,7 +2778,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+    <row r="20" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2781,7 +2804,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1">
+    <row r="21" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2807,7 +2830,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1">
+    <row r="22" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2833,7 +2856,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1">
+    <row r="23" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2859,7 +2882,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="49.5" customHeight="1">
+    <row r="24" spans="1:14" ht="49.5" hidden="1" customHeight="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2885,7 +2908,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="33.75" customHeight="1">
+    <row r="25" spans="1:14" ht="33.75" hidden="1" customHeight="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2911,7 +2934,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1">
+    <row r="26" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2937,7 +2960,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1">
+    <row r="27" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2963,7 +2986,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1">
+    <row r="28" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3005,7 +3028,7 @@
         <v>45660</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>56</v>
@@ -3019,7 +3042,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1">
+    <row r="30" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3045,7 +3068,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1">
+    <row r="31" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3071,7 +3094,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1">
+    <row r="32" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3097,7 +3120,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="1">
+    <row r="33" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3130,12 +3153,14 @@
       <c r="B34" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="D34" s="14">
         <v>45659</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>77</v>
@@ -3149,7 +3174,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" ht="13.5" customHeight="1">
+    <row r="35" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3175,7 +3200,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5" customHeight="1">
+    <row r="36" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3201,7 +3226,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" ht="13.5" customHeight="1">
+    <row r="37" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -3227,7 +3252,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" ht="13.5" customHeight="1">
+    <row r="38" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -3253,7 +3278,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5" customHeight="1">
+    <row r="39" spans="1:14" ht="13.5" hidden="1" customHeight="1">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -3295,9 +3320,11 @@
         <v>45664</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="40"/>
+        <v>14</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>95</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -3323,7 +3350,9 @@
       <c r="E41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="40"/>
+      <c r="F41" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -3347,7 +3376,7 @@
         <v>45664</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="10"/>
@@ -3372,7 +3401,9 @@
       <c r="D43" s="39">
         <v>45664</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="40"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3399,7 +3430,9 @@
       <c r="E44" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="40"/>
+      <c r="F44" s="43" t="s">
+        <v>97</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -3422,8 +3455,12 @@
       <c r="D45" s="39">
         <v>45664</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -3470,8 +3507,12 @@
       <c r="D47" s="39">
         <v>45664</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="E47" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -3482,7 +3523,9 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="21">
+        <v>47</v>
+      </c>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -9722,6 +9765,15 @@
       <c r="N437" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F47" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Do weryfikacji/Testowane"/>
+        <filter val="Nowe"/>
+        <filter val="W trakcie"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C2:C437">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Piotr"</formula>
